--- a/maps/aprop.xlsx
+++ b/maps/aprop.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$I$372</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$I$370</definedName>
   </definedNames>
   <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="692">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -458,12 +458,6 @@
     <t>JOSUE</t>
   </si>
   <si>
-    <t>3092</t>
-  </si>
-  <si>
-    <t>WILLAS</t>
-  </si>
-  <si>
     <t>3194</t>
   </si>
   <si>
@@ -1305,12 +1299,6 @@
   </si>
   <si>
     <t>USINAGEM</t>
-  </si>
-  <si>
-    <t>1354</t>
-  </si>
-  <si>
-    <t>JOSE CAR</t>
   </si>
   <si>
     <t>ISRAEL</t>
@@ -2507,10 +2495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J372"/>
+  <dimension ref="A1:J370"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A227" sqref="A227:XFD227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2540,13 +2528,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -2555,7 +2543,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2575,7 +2563,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2682,10 +2670,10 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>9</v>
@@ -2699,10 +2687,10 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>9</v>
@@ -2716,10 +2704,10 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>9</v>
@@ -2733,10 +2721,10 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>9</v>
@@ -2750,10 +2738,10 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>9</v>
@@ -2767,10 +2755,10 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>9</v>
@@ -2799,7 +2787,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2872,10 +2860,10 @@
     </row>
     <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>9</v>
@@ -2889,10 +2877,10 @@
     </row>
     <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>9</v>
@@ -2906,10 +2894,10 @@
     </row>
     <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>9</v>
@@ -2923,10 +2911,10 @@
     </row>
     <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>9</v>
@@ -2940,10 +2928,10 @@
     </row>
     <row r="24" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>9</v>
@@ -2957,10 +2945,10 @@
     </row>
     <row r="25" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>9</v>
@@ -2974,7 +2962,7 @@
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>120</v>
@@ -3006,7 +2994,7 @@
         <v>4</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3553,7 +3541,7 @@
         <v>4</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3745,10 +3733,10 @@
     </row>
     <row r="71" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>9</v>
@@ -3762,7 +3750,7 @@
     </row>
     <row r="72" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>8</v>
@@ -3779,7 +3767,7 @@
     </row>
     <row r="73" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>111</v>
@@ -3796,10 +3784,10 @@
     </row>
     <row r="74" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>9</v>
@@ -3813,10 +3801,10 @@
     </row>
     <row r="75" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>9</v>
@@ -3830,10 +3818,10 @@
     </row>
     <row r="76" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>9</v>
@@ -3847,10 +3835,10 @@
     </row>
     <row r="77" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>9</v>
@@ -3864,10 +3852,10 @@
     </row>
     <row r="78" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>9</v>
@@ -3881,10 +3869,10 @@
     </row>
     <row r="79" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>9</v>
@@ -3898,10 +3886,10 @@
     </row>
     <row r="80" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>9</v>
@@ -3915,36 +3903,36 @@
     </row>
     <row r="81" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H81" s="12" t="s">
         <v>4</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H82" s="12" t="s">
         <v>4</v>
@@ -3952,16 +3940,16 @@
     </row>
     <row r="83" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D83" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H83" s="12" t="s">
         <v>4</v>
@@ -3969,16 +3957,16 @@
     </row>
     <row r="84" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H84" s="12" t="s">
         <v>4</v>
@@ -3986,16 +3974,16 @@
     </row>
     <row r="85" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H85" s="12" t="s">
         <v>4</v>
@@ -4003,16 +3991,16 @@
     </row>
     <row r="86" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H86" s="12" t="s">
         <v>4</v>
@@ -4020,16 +4008,16 @@
     </row>
     <row r="87" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H87" s="12" t="s">
         <v>4</v>
@@ -4037,16 +4025,16 @@
     </row>
     <row r="88" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H88" s="12" t="s">
         <v>4</v>
@@ -4054,16 +4042,16 @@
     </row>
     <row r="89" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D89" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H89" s="12" t="s">
         <v>4</v>
@@ -4071,16 +4059,16 @@
     </row>
     <row r="90" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H90" s="12" t="s">
         <v>4</v>
@@ -4088,16 +4076,16 @@
     </row>
     <row r="91" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H91" s="12" t="s">
         <v>4</v>
@@ -4105,16 +4093,16 @@
     </row>
     <row r="92" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H92" s="12" t="s">
         <v>4</v>
@@ -4122,16 +4110,16 @@
     </row>
     <row r="93" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H93" s="12" t="s">
         <v>4</v>
@@ -4139,16 +4127,16 @@
     </row>
     <row r="94" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H94" s="12" t="s">
         <v>4</v>
@@ -4156,16 +4144,16 @@
     </row>
     <row r="95" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D95" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H95" s="12" t="s">
         <v>4</v>
@@ -4173,16 +4161,16 @@
     </row>
     <row r="96" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D96" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H96" s="12" t="s">
         <v>4</v>
@@ -4190,16 +4178,16 @@
     </row>
     <row r="97" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D97" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H97" s="12" t="s">
         <v>4</v>
@@ -4207,16 +4195,16 @@
     </row>
     <row r="98" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H98" s="12" t="s">
         <v>4</v>
@@ -4224,16 +4212,16 @@
     </row>
     <row r="99" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H99" s="12" t="s">
         <v>4</v>
@@ -4241,16 +4229,16 @@
     </row>
     <row r="100" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D100" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H100" s="12" t="s">
         <v>4</v>
@@ -4258,16 +4246,16 @@
     </row>
     <row r="101" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H101" s="12" t="s">
         <v>4</v>
@@ -4275,16 +4263,16 @@
     </row>
     <row r="102" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H102" s="12" t="s">
         <v>4</v>
@@ -4292,16 +4280,16 @@
     </row>
     <row r="103" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H103" s="12" t="s">
         <v>4</v>
@@ -4309,16 +4297,16 @@
     </row>
     <row r="104" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H104" s="12" t="s">
         <v>4</v>
@@ -4326,16 +4314,16 @@
     </row>
     <row r="105" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H105" s="12" t="s">
         <v>4</v>
@@ -4343,16 +4331,16 @@
     </row>
     <row r="106" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H106" s="12" t="s">
         <v>4</v>
@@ -4360,16 +4348,16 @@
     </row>
     <row r="107" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H107" s="12" t="s">
         <v>4</v>
@@ -4377,16 +4365,16 @@
     </row>
     <row r="108" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H108" s="12" t="s">
         <v>4</v>
@@ -4394,16 +4382,16 @@
     </row>
     <row r="109" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H109" s="12" t="s">
         <v>4</v>
@@ -4411,16 +4399,16 @@
     </row>
     <row r="110" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H110" s="12" t="s">
         <v>4</v>
@@ -4428,16 +4416,16 @@
     </row>
     <row r="111" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H111" s="12" t="s">
         <v>4</v>
@@ -4445,16 +4433,16 @@
     </row>
     <row r="112" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H112" s="12" t="s">
         <v>4</v>
@@ -4462,16 +4450,16 @@
     </row>
     <row r="113" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H113" s="12" t="s">
         <v>4</v>
@@ -4479,16 +4467,16 @@
     </row>
     <row r="114" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H114" s="12" t="s">
         <v>4</v>
@@ -4496,16 +4484,16 @@
     </row>
     <row r="115" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H115" s="12" t="s">
         <v>4</v>
@@ -4513,7 +4501,7 @@
     </row>
     <row r="116" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B116" s="11" t="s">
         <v>111</v>
@@ -4522,7 +4510,7 @@
         <v>5</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H116" s="12" t="s">
         <v>4</v>
@@ -4530,16 +4518,16 @@
     </row>
     <row r="117" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D117" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H117" s="12" t="s">
         <v>4</v>
@@ -4547,16 +4535,16 @@
     </row>
     <row r="118" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H118" s="12" t="s">
         <v>4</v>
@@ -4564,16 +4552,16 @@
     </row>
     <row r="119" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H119" s="12" t="s">
         <v>4</v>
@@ -4581,16 +4569,16 @@
     </row>
     <row r="120" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H120" s="12" t="s">
         <v>4</v>
@@ -4598,16 +4586,16 @@
     </row>
     <row r="121" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H121" s="12" t="s">
         <v>4</v>
@@ -4615,16 +4603,16 @@
     </row>
     <row r="122" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D122" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H122" s="12" t="s">
         <v>4</v>
@@ -4632,7 +4620,7 @@
     </row>
     <row r="123" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B123" s="11" t="s">
         <v>48</v>
@@ -4641,7 +4629,7 @@
         <v>5</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H123" s="12" t="s">
         <v>4</v>
@@ -4649,16 +4637,16 @@
     </row>
     <row r="124" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D124" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H124" s="12" t="s">
         <v>4</v>
@@ -4666,16 +4654,16 @@
     </row>
     <row r="125" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D125" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H125" s="12" t="s">
         <v>4</v>
@@ -4683,16 +4671,16 @@
     </row>
     <row r="126" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D126" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H126" s="12" t="s">
         <v>4</v>
@@ -4700,16 +4688,16 @@
     </row>
     <row r="127" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D127" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H127" s="12" t="s">
         <v>4</v>
@@ -4717,16 +4705,16 @@
     </row>
     <row r="128" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D128" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H128" s="12" t="s">
         <v>4</v>
@@ -4734,16 +4722,16 @@
     </row>
     <row r="129" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D129" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H129" s="12" t="s">
         <v>4</v>
@@ -4751,16 +4739,16 @@
     </row>
     <row r="130" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D130" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H130" s="12" t="s">
         <v>4</v>
@@ -4768,16 +4756,16 @@
     </row>
     <row r="131" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D131" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H131" s="12" t="s">
         <v>4</v>
@@ -4785,16 +4773,16 @@
     </row>
     <row r="132" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D132" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H132" s="12" t="s">
         <v>4</v>
@@ -4802,16 +4790,16 @@
     </row>
     <row r="133" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D133" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H133" s="12" t="s">
         <v>4</v>
@@ -4819,16 +4807,16 @@
     </row>
     <row r="134" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D134" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H134" s="12" t="s">
         <v>4</v>
@@ -4836,16 +4824,16 @@
     </row>
     <row r="135" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D135" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H135" s="12" t="s">
         <v>4</v>
@@ -4853,16 +4841,16 @@
     </row>
     <row r="136" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D136" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H136" s="12" t="s">
         <v>4</v>
@@ -4870,16 +4858,16 @@
     </row>
     <row r="137" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D137" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H137" s="12" t="s">
         <v>4</v>
@@ -4887,16 +4875,16 @@
     </row>
     <row r="138" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D138" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H138" s="12" t="s">
         <v>4</v>
@@ -4904,16 +4892,16 @@
     </row>
     <row r="139" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D139" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H139" s="12" t="s">
         <v>4</v>
@@ -4921,16 +4909,16 @@
     </row>
     <row r="140" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H140" s="12" t="s">
         <v>4</v>
@@ -4938,16 +4926,16 @@
     </row>
     <row r="141" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D141" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H141" s="12" t="s">
         <v>4</v>
@@ -4955,16 +4943,16 @@
     </row>
     <row r="142" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H142" s="12" t="s">
         <v>4</v>
@@ -4972,16 +4960,16 @@
     </row>
     <row r="143" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D143" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H143" s="12" t="s">
         <v>4</v>
@@ -4989,16 +4977,16 @@
     </row>
     <row r="144" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D144" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H144" s="12" t="s">
         <v>4</v>
@@ -5006,16 +4994,16 @@
     </row>
     <row r="145" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D145" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H145" s="12" t="s">
         <v>4</v>
@@ -5023,16 +5011,16 @@
     </row>
     <row r="146" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D146" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H146" s="12" t="s">
         <v>4</v>
@@ -5040,16 +5028,16 @@
     </row>
     <row r="147" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D147" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H147" s="12" t="s">
         <v>4</v>
@@ -5057,36 +5045,36 @@
     </row>
     <row r="148" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H148" s="12" t="s">
         <v>4</v>
       </c>
       <c r="I148" s="12" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="149" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H149" s="12" t="s">
         <v>4</v>
@@ -5094,16 +5082,16 @@
     </row>
     <row r="150" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H150" s="12" t="s">
         <v>4</v>
@@ -5111,16 +5099,16 @@
     </row>
     <row r="151" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="B151" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H151" s="12" t="s">
         <v>4</v>
@@ -5128,16 +5116,16 @@
     </row>
     <row r="152" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H152" s="12" t="s">
         <v>4</v>
@@ -5145,16 +5133,16 @@
     </row>
     <row r="153" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H153" s="12" t="s">
         <v>4</v>
@@ -5162,16 +5150,16 @@
     </row>
     <row r="154" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H154" s="12" t="s">
         <v>4</v>
@@ -5179,16 +5167,16 @@
     </row>
     <row r="155" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H155" s="12" t="s">
         <v>4</v>
@@ -5196,16 +5184,16 @@
     </row>
     <row r="156" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D156" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H156" s="12" t="s">
         <v>4</v>
@@ -5213,16 +5201,16 @@
     </row>
     <row r="157" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H157" s="12" t="s">
         <v>4</v>
@@ -5230,16 +5218,16 @@
     </row>
     <row r="158" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H158" s="12" t="s">
         <v>4</v>
@@ -5247,16 +5235,16 @@
     </row>
     <row r="159" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H159" s="12" t="s">
         <v>4</v>
@@ -5264,16 +5252,16 @@
     </row>
     <row r="160" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H160" s="12" t="s">
         <v>4</v>
@@ -5281,16 +5269,16 @@
     </row>
     <row r="161" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H161" s="12" t="s">
         <v>4</v>
@@ -5298,16 +5286,16 @@
     </row>
     <row r="162" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H162" s="12" t="s">
         <v>4</v>
@@ -5315,16 +5303,16 @@
     </row>
     <row r="163" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H163" s="12" t="s">
         <v>4</v>
@@ -5332,16 +5320,16 @@
     </row>
     <row r="164" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H164" s="12" t="s">
         <v>4</v>
@@ -5349,16 +5337,16 @@
     </row>
     <row r="165" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H165" s="12" t="s">
         <v>4</v>
@@ -5366,16 +5354,16 @@
     </row>
     <row r="166" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H166" s="12" t="s">
         <v>4</v>
@@ -5383,16 +5371,16 @@
     </row>
     <row r="167" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H167" s="12" t="s">
         <v>4</v>
@@ -5400,16 +5388,16 @@
     </row>
     <row r="168" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H168" s="12" t="s">
         <v>4</v>
@@ -5417,16 +5405,16 @@
     </row>
     <row r="169" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H169" s="12" t="s">
         <v>4</v>
@@ -5434,16 +5422,16 @@
     </row>
     <row r="170" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H170" s="12" t="s">
         <v>4</v>
@@ -5451,16 +5439,16 @@
     </row>
     <row r="171" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D171" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H171" s="12" t="s">
         <v>4</v>
@@ -5468,16 +5456,16 @@
     </row>
     <row r="172" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B172" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H172" s="12" t="s">
         <v>4</v>
@@ -5485,16 +5473,16 @@
     </row>
     <row r="173" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F173" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H173" s="12" t="s">
         <v>4</v>
@@ -5502,16 +5490,16 @@
     </row>
     <row r="174" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F174" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H174" s="12" t="s">
         <v>4</v>
@@ -5519,16 +5507,16 @@
     </row>
     <row r="175" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F175" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H175" s="12" t="s">
         <v>4</v>
@@ -5536,16 +5524,16 @@
     </row>
     <row r="176" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F176" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H176" s="12" t="s">
         <v>4</v>
@@ -5553,16 +5541,16 @@
     </row>
     <row r="177" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D177" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F177" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H177" s="12" t="s">
         <v>4</v>
@@ -5570,16 +5558,16 @@
     </row>
     <row r="178" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F178" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H178" s="12" t="s">
         <v>4</v>
@@ -5587,16 +5575,16 @@
     </row>
     <row r="179" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F179" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H179" s="12" t="s">
         <v>4</v>
@@ -5604,16 +5592,16 @@
     </row>
     <row r="180" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F180" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="H180" s="12" t="s">
         <v>4</v>
@@ -5621,36 +5609,36 @@
     </row>
     <row r="181" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B181" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D181" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F181" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H181" s="12" t="s">
         <v>4</v>
       </c>
       <c r="I181" s="12" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F182" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H182" s="12" t="s">
         <v>4</v>
@@ -5658,16 +5646,16 @@
     </row>
     <row r="183" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H183" s="12" t="s">
         <v>4</v>
@@ -5675,16 +5663,16 @@
     </row>
     <row r="184" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D184" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F184" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H184" s="12" t="s">
         <v>4</v>
@@ -5692,16 +5680,16 @@
     </row>
     <row r="185" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F185" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H185" s="12" t="s">
         <v>4</v>
@@ -5709,16 +5697,16 @@
     </row>
     <row r="186" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F186" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H186" s="12" t="s">
         <v>4</v>
@@ -5726,16 +5714,16 @@
     </row>
     <row r="187" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D187" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F187" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H187" s="12" t="s">
         <v>4</v>
@@ -5743,16 +5731,16 @@
     </row>
     <row r="188" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D188" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F188" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H188" s="12" t="s">
         <v>4</v>
@@ -5760,16 +5748,16 @@
     </row>
     <row r="189" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F189" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H189" s="12" t="s">
         <v>4</v>
@@ -5777,16 +5765,16 @@
     </row>
     <row r="190" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D190" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F190" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H190" s="12" t="s">
         <v>4</v>
@@ -5794,16 +5782,16 @@
     </row>
     <row r="191" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D191" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F191" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H191" s="12" t="s">
         <v>4</v>
@@ -5811,16 +5799,16 @@
     </row>
     <row r="192" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D192" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F192" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H192" s="12" t="s">
         <v>4</v>
@@ -5828,16 +5816,16 @@
     </row>
     <row r="193" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F193" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H193" s="12" t="s">
         <v>4</v>
@@ -5845,16 +5833,16 @@
     </row>
     <row r="194" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D194" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F194" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H194" s="12" t="s">
         <v>4</v>
@@ -5862,16 +5850,16 @@
     </row>
     <row r="195" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F195" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H195" s="12" t="s">
         <v>4</v>
@@ -5879,16 +5867,16 @@
     </row>
     <row r="196" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D196" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F196" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H196" s="12" t="s">
         <v>4</v>
@@ -5896,16 +5884,16 @@
     </row>
     <row r="197" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D197" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F197" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H197" s="12" t="s">
         <v>4</v>
@@ -5913,16 +5901,16 @@
     </row>
     <row r="198" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="D198" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F198" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H198" s="12" t="s">
         <v>4</v>
@@ -5930,16 +5918,16 @@
     </row>
     <row r="199" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D199" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F199" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H199" s="12" t="s">
         <v>4</v>
@@ -5947,16 +5935,16 @@
     </row>
     <row r="200" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
+        <v>573</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="D200" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="F200" s="12" t="s">
         <v>577</v>
-      </c>
-      <c r="B200" s="11" t="s">
-        <v>578</v>
-      </c>
-      <c r="D200" s="12" t="s">
-        <v>546</v>
-      </c>
-      <c r="F200" s="12" t="s">
-        <v>581</v>
       </c>
       <c r="H200" s="12" t="s">
         <v>4</v>
@@ -5964,16 +5952,16 @@
     </row>
     <row r="201" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F201" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H201" s="12" t="s">
         <v>4</v>
@@ -5981,16 +5969,16 @@
     </row>
     <row r="202" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F202" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H202" s="12" t="s">
         <v>4</v>
@@ -5998,16 +5986,16 @@
     </row>
     <row r="203" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F203" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H203" s="12" t="s">
         <v>4</v>
@@ -6015,16 +6003,16 @@
     </row>
     <row r="204" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F204" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H204" s="12" t="s">
         <v>4</v>
@@ -6032,16 +6020,16 @@
     </row>
     <row r="205" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D205" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F205" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H205" s="12" t="s">
         <v>4</v>
@@ -6049,16 +6037,16 @@
     </row>
     <row r="206" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D206" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F206" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H206" s="12" t="s">
         <v>4</v>
@@ -6066,16 +6054,16 @@
     </row>
     <row r="207" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D207" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="F207" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="H207" s="12" t="s">
         <v>4</v>
@@ -6132,7 +6120,7 @@
         <v>4</v>
       </c>
       <c r="I210" s="12" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
     </row>
     <row r="211" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -6373,7 +6361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="225" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
         <v>142</v>
       </c>
@@ -6390,7 +6378,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="226" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
         <v>144</v>
       </c>
@@ -6407,7 +6395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
         <v>146</v>
       </c>
@@ -6424,7 +6412,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
         <v>148</v>
       </c>
@@ -6441,7 +6429,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
         <v>150</v>
       </c>
@@ -6458,7 +6446,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
         <v>152</v>
       </c>
@@ -6475,7 +6463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
         <v>154</v>
       </c>
@@ -6492,7 +6480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
         <v>156</v>
       </c>
@@ -6509,7 +6497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
         <v>158</v>
       </c>
@@ -6526,7 +6514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
         <v>160</v>
       </c>
@@ -6543,7 +6531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
         <v>162</v>
       </c>
@@ -6560,7 +6548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
         <v>164</v>
       </c>
@@ -6577,7 +6565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
         <v>166</v>
       </c>
@@ -6594,7 +6582,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="238" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
         <v>168</v>
       </c>
@@ -6611,7 +6599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
         <v>170</v>
       </c>
@@ -6628,293 +6616,293 @@
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
-        <v>172</v>
+        <v>477</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>173</v>
+        <v>478</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="F240" s="12" t="s">
-        <v>109</v>
+        <v>304</v>
       </c>
       <c r="H240" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I240" s="12" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D241" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F241" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H241" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I241" s="12" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="242" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>484</v>
+        <v>184</v>
       </c>
       <c r="D242" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F242" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H242" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>186</v>
+        <v>281</v>
       </c>
       <c r="D243" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F243" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H243" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>283</v>
+        <v>484</v>
       </c>
       <c r="D244" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F244" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H244" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>488</v>
+        <v>228</v>
       </c>
       <c r="D245" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F245" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H245" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>230</v>
+        <v>487</v>
       </c>
       <c r="D246" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F246" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H246" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D247" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F247" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H247" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D248" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F248" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H248" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D249" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F249" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H249" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D250" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F250" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H250" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D251" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F251" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H251" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D252" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F252" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H252" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D253" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F253" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H253" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D254" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F254" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H254" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D255" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F255" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H255" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>509</v>
+        <v>283</v>
       </c>
       <c r="D256" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F256" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H256" s="12" t="s">
         <v>4</v>
@@ -6922,16 +6910,16 @@
     </row>
     <row r="257" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>285</v>
+        <v>508</v>
       </c>
       <c r="D257" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F257" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H257" s="12" t="s">
         <v>4</v>
@@ -6939,16 +6927,16 @@
     </row>
     <row r="258" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>512</v>
+        <v>190</v>
       </c>
       <c r="D258" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F258" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H258" s="12" t="s">
         <v>4</v>
@@ -6956,16 +6944,16 @@
     </row>
     <row r="259" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>192</v>
+        <v>454</v>
       </c>
       <c r="D259" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F259" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H259" s="12" t="s">
         <v>4</v>
@@ -6973,16 +6961,16 @@
     </row>
     <row r="260" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="D260" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F260" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H260" s="12" t="s">
         <v>4</v>
@@ -6990,16 +6978,16 @@
     </row>
     <row r="261" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>517</v>
+        <v>471</v>
       </c>
       <c r="D261" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F261" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H261" s="12" t="s">
         <v>4</v>
@@ -7007,16 +6995,16 @@
     </row>
     <row r="262" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>475</v>
+        <v>516</v>
       </c>
       <c r="D262" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F262" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H262" s="12" t="s">
         <v>4</v>
@@ -7024,16 +7012,16 @@
     </row>
     <row r="263" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D263" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F263" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H263" s="12" t="s">
         <v>4</v>
@@ -7041,16 +7029,16 @@
     </row>
     <row r="264" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D264" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F264" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H264" s="12" t="s">
         <v>4</v>
@@ -7058,16 +7046,16 @@
     </row>
     <row r="265" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D265" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F265" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H265" s="12" t="s">
         <v>4</v>
@@ -7075,16 +7063,16 @@
     </row>
     <row r="266" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D266" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F266" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H266" s="12" t="s">
         <v>4</v>
@@ -7092,16 +7080,16 @@
     </row>
     <row r="267" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D267" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F267" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H267" s="12" t="s">
         <v>4</v>
@@ -7109,16 +7097,16 @@
     </row>
     <row r="268" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>530</v>
+        <v>283</v>
       </c>
       <c r="D268" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F268" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H268" s="12" t="s">
         <v>4</v>
@@ -7126,16 +7114,16 @@
     </row>
     <row r="269" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>285</v>
+        <v>529</v>
       </c>
       <c r="D269" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F269" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H269" s="12" t="s">
         <v>4</v>
@@ -7143,16 +7131,16 @@
     </row>
     <row r="270" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D270" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F270" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H270" s="12" t="s">
         <v>4</v>
@@ -7163,13 +7151,13 @@
         <v>534</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>535</v>
+        <v>448</v>
       </c>
       <c r="D271" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F271" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H271" s="12" t="s">
         <v>4</v>
@@ -7177,16 +7165,16 @@
     </row>
     <row r="272" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>452</v>
+        <v>536</v>
       </c>
       <c r="D272" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F272" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H272" s="12" t="s">
         <v>4</v>
@@ -7194,16 +7182,16 @@
     </row>
     <row r="273" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D273" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F273" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H273" s="12" t="s">
         <v>4</v>
@@ -7211,16 +7199,16 @@
     </row>
     <row r="274" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D274" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F274" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H274" s="12" t="s">
         <v>4</v>
@@ -7228,16 +7216,16 @@
     </row>
     <row r="275" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>544</v>
+        <v>159</v>
       </c>
       <c r="D275" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F275" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H275" s="12" t="s">
         <v>4</v>
@@ -7245,53 +7233,53 @@
     </row>
     <row r="276" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
-        <v>545</v>
+        <v>666</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>161</v>
+        <v>427</v>
       </c>
       <c r="D276" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F276" s="12" t="s">
-        <v>306</v>
+        <v>426</v>
       </c>
       <c r="H276" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="I276" s="12" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>430</v>
+        <v>12</v>
       </c>
       <c r="D277" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F277" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H277" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="I277" s="12" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="278" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>670</v>
+        <v>431</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D278" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F278" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H278" s="12" t="s">
         <v>4</v>
@@ -7299,16 +7287,16 @@
     </row>
     <row r="279" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>12</v>
+        <v>434</v>
       </c>
       <c r="D279" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F279" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H279" s="12" t="s">
         <v>4</v>
@@ -7325,7 +7313,7 @@
         <v>134</v>
       </c>
       <c r="F280" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H280" s="12" t="s">
         <v>4</v>
@@ -7342,7 +7330,7 @@
         <v>134</v>
       </c>
       <c r="F281" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H281" s="12" t="s">
         <v>4</v>
@@ -7359,7 +7347,7 @@
         <v>134</v>
       </c>
       <c r="F282" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H282" s="12" t="s">
         <v>4</v>
@@ -7376,7 +7364,7 @@
         <v>134</v>
       </c>
       <c r="F283" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H283" s="12" t="s">
         <v>4</v>
@@ -7393,7 +7381,7 @@
         <v>134</v>
       </c>
       <c r="F284" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H284" s="12" t="s">
         <v>4</v>
@@ -7410,7 +7398,7 @@
         <v>134</v>
       </c>
       <c r="F285" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H285" s="12" t="s">
         <v>4</v>
@@ -7418,16 +7406,16 @@
     </row>
     <row r="286" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="D286" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F286" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H286" s="12" t="s">
         <v>4</v>
@@ -7435,16 +7423,16 @@
     </row>
     <row r="287" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D287" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F287" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H287" s="12" t="s">
         <v>4</v>
@@ -7452,22 +7440,22 @@
     </row>
     <row r="288" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>433</v>
+        <v>449</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>434</v>
+        <v>450</v>
       </c>
       <c r="D288" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F288" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H288" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
         <v>451</v>
       </c>
@@ -7478,13 +7466,13 @@
         <v>134</v>
       </c>
       <c r="F289" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H289" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
         <v>453</v>
       </c>
@@ -7495,13 +7483,13 @@
         <v>134</v>
       </c>
       <c r="F290" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H290" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="291" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
         <v>455</v>
       </c>
@@ -7512,13 +7500,13 @@
         <v>134</v>
       </c>
       <c r="F291" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H291" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
         <v>457</v>
       </c>
@@ -7529,13 +7517,13 @@
         <v>134</v>
       </c>
       <c r="F292" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H292" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
         <v>459</v>
       </c>
@@ -7546,13 +7534,13 @@
         <v>134</v>
       </c>
       <c r="F293" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H293" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
         <v>461</v>
       </c>
@@ -7563,13 +7551,13 @@
         <v>134</v>
       </c>
       <c r="F294" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H294" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
         <v>463</v>
       </c>
@@ -7580,13 +7568,13 @@
         <v>134</v>
       </c>
       <c r="F295" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H295" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
         <v>465</v>
       </c>
@@ -7597,64 +7585,64 @@
         <v>134</v>
       </c>
       <c r="F296" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H296" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
         <v>467</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>468</v>
+        <v>118</v>
       </c>
       <c r="D297" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F297" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H297" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="B298" s="11" t="s">
         <v>469</v>
-      </c>
-      <c r="B298" s="11" t="s">
-        <v>470</v>
       </c>
       <c r="D298" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F298" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H298" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="B299" s="11" t="s">
         <v>471</v>
-      </c>
-      <c r="B299" s="11" t="s">
-        <v>118</v>
       </c>
       <c r="D299" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F299" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H299" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
         <v>472</v>
       </c>
@@ -7665,118 +7653,118 @@
         <v>134</v>
       </c>
       <c r="F300" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H300" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
+        <v>667</v>
+      </c>
+      <c r="B301" s="11" t="s">
         <v>474</v>
-      </c>
-      <c r="B301" s="11" t="s">
-        <v>475</v>
       </c>
       <c r="D301" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F301" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H301" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>477</v>
+        <v>218</v>
       </c>
       <c r="D302" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F302" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H302" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
-        <v>671</v>
+        <v>476</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>478</v>
+        <v>360</v>
       </c>
       <c r="D303" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F303" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="H303" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>479</v>
+        <v>305</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>220</v>
+        <v>306</v>
       </c>
       <c r="D304" s="12" t="s">
-        <v>134</v>
+        <v>303</v>
       </c>
       <c r="F304" s="12" t="s">
-        <v>428</v>
+        <v>304</v>
       </c>
       <c r="H304" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I304" s="12" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>480</v>
+        <v>307</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="D305" s="12" t="s">
-        <v>134</v>
+        <v>303</v>
       </c>
       <c r="F305" s="12" t="s">
-        <v>428</v>
+        <v>304</v>
       </c>
       <c r="H305" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>307</v>
+        <v>424</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>308</v>
+        <v>425</v>
       </c>
       <c r="D306" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F306" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H306" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I306" s="12" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="307" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="307" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
         <v>309</v>
       </c>
@@ -7784,231 +7772,231 @@
         <v>310</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F307" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H307" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
-        <v>426</v>
+        <v>311</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>427</v>
+        <v>312</v>
       </c>
       <c r="D308" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F308" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H308" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D309" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F309" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H309" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D310" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F310" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H310" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>316</v>
+        <v>12</v>
       </c>
       <c r="D311" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F311" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H311" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="312" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>318</v>
+        <v>230</v>
       </c>
       <c r="D312" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F312" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H312" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
         <v>319</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>12</v>
+        <v>320</v>
       </c>
       <c r="D313" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F313" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H313" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>232</v>
+        <v>322</v>
       </c>
       <c r="D314" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F314" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H314" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D315" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F315" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H315" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="316" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D316" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F316" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H316" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="317" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F317" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H317" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>328</v>
+        <v>69</v>
       </c>
       <c r="D318" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F318" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H318" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D319" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F319" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H319" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>69</v>
+        <v>333</v>
       </c>
       <c r="D320" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F320" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H320" s="12" t="s">
         <v>4</v>
@@ -8016,16 +8004,16 @@
     </row>
     <row r="321" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D321" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F321" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H321" s="12" t="s">
         <v>4</v>
@@ -8033,16 +8021,16 @@
     </row>
     <row r="322" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D322" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F322" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H322" s="12" t="s">
         <v>4</v>
@@ -8050,16 +8038,16 @@
     </row>
     <row r="323" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D323" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F323" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H323" s="12" t="s">
         <v>4</v>
@@ -8067,16 +8055,16 @@
     </row>
     <row r="324" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>339</v>
+        <v>669</v>
       </c>
       <c r="D324" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F324" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H324" s="12" t="s">
         <v>4</v>
@@ -8084,16 +8072,16 @@
     </row>
     <row r="325" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D325" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F325" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H325" s="12" t="s">
         <v>4</v>
@@ -8101,16 +8089,16 @@
     </row>
     <row r="326" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>673</v>
+        <v>226</v>
       </c>
       <c r="D326" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F326" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H326" s="12" t="s">
         <v>4</v>
@@ -8118,16 +8106,16 @@
     </row>
     <row r="327" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>344</v>
+        <v>245</v>
       </c>
       <c r="D327" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F327" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H327" s="12" t="s">
         <v>4</v>
@@ -8138,13 +8126,13 @@
         <v>345</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>228</v>
+        <v>41</v>
       </c>
       <c r="D328" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F328" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H328" s="12" t="s">
         <v>4</v>
@@ -8155,13 +8143,13 @@
         <v>346</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>247</v>
+        <v>347</v>
       </c>
       <c r="D329" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F329" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H329" s="12" t="s">
         <v>4</v>
@@ -8169,16 +8157,16 @@
     </row>
     <row r="330" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="D330" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F330" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H330" s="12" t="s">
         <v>4</v>
@@ -8186,16 +8174,16 @@
     </row>
     <row r="331" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D331" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F331" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H331" s="12" t="s">
         <v>4</v>
@@ -8203,16 +8191,16 @@
     </row>
     <row r="332" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>155</v>
+        <v>352</v>
       </c>
       <c r="D332" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F332" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H332" s="12" t="s">
         <v>4</v>
@@ -8220,16 +8208,16 @@
     </row>
     <row r="333" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D333" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F333" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H333" s="12" t="s">
         <v>4</v>
@@ -8237,16 +8225,16 @@
     </row>
     <row r="334" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="D334" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F334" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H334" s="12" t="s">
         <v>4</v>
@@ -8254,16 +8242,16 @@
     </row>
     <row r="335" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D335" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F335" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H335" s="12" t="s">
         <v>4</v>
@@ -8271,16 +8259,16 @@
     </row>
     <row r="336" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D336" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F336" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H336" s="12" t="s">
         <v>4</v>
@@ -8288,16 +8276,16 @@
     </row>
     <row r="337" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D337" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F337" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H337" s="12" t="s">
         <v>4</v>
@@ -8305,16 +8293,16 @@
     </row>
     <row r="338" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D338" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F338" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H338" s="12" t="s">
         <v>4</v>
@@ -8322,16 +8310,16 @@
     </row>
     <row r="339" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>364</v>
+        <v>39</v>
       </c>
       <c r="D339" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F339" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H339" s="12" t="s">
         <v>4</v>
@@ -8339,16 +8327,16 @@
     </row>
     <row r="340" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D340" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F340" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H340" s="12" t="s">
         <v>4</v>
@@ -8356,16 +8344,16 @@
     </row>
     <row r="341" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>39</v>
+        <v>369</v>
       </c>
       <c r="D341" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F341" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H341" s="12" t="s">
         <v>4</v>
@@ -8373,16 +8361,16 @@
     </row>
     <row r="342" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D342" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F342" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H342" s="12" t="s">
         <v>4</v>
@@ -8390,16 +8378,16 @@
     </row>
     <row r="343" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D343" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F343" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H343" s="12" t="s">
         <v>4</v>
@@ -8407,16 +8395,16 @@
     </row>
     <row r="344" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="10" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D344" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F344" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H344" s="12" t="s">
         <v>4</v>
@@ -8424,16 +8412,16 @@
     </row>
     <row r="345" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D345" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F345" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H345" s="12" t="s">
         <v>4</v>
@@ -8441,16 +8429,16 @@
     </row>
     <row r="346" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="10" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D346" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F346" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H346" s="12" t="s">
         <v>4</v>
@@ -8458,16 +8446,16 @@
     </row>
     <row r="347" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D347" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F347" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H347" s="12" t="s">
         <v>4</v>
@@ -8475,16 +8463,16 @@
     </row>
     <row r="348" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D348" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F348" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H348" s="12" t="s">
         <v>4</v>
@@ -8492,16 +8480,16 @@
     </row>
     <row r="349" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D349" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F349" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H349" s="12" t="s">
         <v>4</v>
@@ -8509,16 +8497,16 @@
     </row>
     <row r="350" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D350" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F350" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H350" s="12" t="s">
         <v>4</v>
@@ -8526,16 +8514,16 @@
     </row>
     <row r="351" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="10" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>387</v>
+        <v>196</v>
       </c>
       <c r="D351" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F351" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H351" s="12" t="s">
         <v>4</v>
@@ -8543,16 +8531,16 @@
     </row>
     <row r="352" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>389</v>
+        <v>151</v>
       </c>
       <c r="D352" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F352" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H352" s="12" t="s">
         <v>4</v>
@@ -8563,13 +8551,13 @@
         <v>390</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>198</v>
+        <v>302</v>
       </c>
       <c r="D353" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F353" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H353" s="12" t="s">
         <v>4</v>
@@ -8580,13 +8568,13 @@
         <v>391</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>153</v>
+        <v>392</v>
       </c>
       <c r="D354" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F354" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H354" s="12" t="s">
         <v>4</v>
@@ -8594,16 +8582,16 @@
     </row>
     <row r="355" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="D355" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F355" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H355" s="12" t="s">
         <v>4</v>
@@ -8611,16 +8599,16 @@
     </row>
     <row r="356" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D356" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F356" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H356" s="12" t="s">
         <v>4</v>
@@ -8628,16 +8616,16 @@
     </row>
     <row r="357" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>275</v>
+        <v>397</v>
       </c>
       <c r="D357" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F357" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H357" s="12" t="s">
         <v>4</v>
@@ -8645,16 +8633,16 @@
     </row>
     <row r="358" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="10" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D358" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F358" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H358" s="12" t="s">
         <v>4</v>
@@ -8662,16 +8650,16 @@
     </row>
     <row r="359" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="10" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D359" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F359" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H359" s="12" t="s">
         <v>4</v>
@@ -8679,16 +8667,16 @@
     </row>
     <row r="360" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="10" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>401</v>
+        <v>333</v>
       </c>
       <c r="D360" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F360" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H360" s="12" t="s">
         <v>4</v>
@@ -8696,16 +8684,16 @@
     </row>
     <row r="361" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="10" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D361" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F361" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H361" s="12" t="s">
         <v>4</v>
@@ -8713,16 +8701,16 @@
     </row>
     <row r="362" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="10" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>335</v>
+        <v>406</v>
       </c>
       <c r="D362" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F362" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H362" s="12" t="s">
         <v>4</v>
@@ -8730,16 +8718,16 @@
     </row>
     <row r="363" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D363" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F363" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H363" s="12" t="s">
         <v>4</v>
@@ -8747,16 +8735,16 @@
     </row>
     <row r="364" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D364" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F364" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H364" s="12" t="s">
         <v>4</v>
@@ -8764,16 +8752,16 @@
     </row>
     <row r="365" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="10" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D365" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F365" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H365" s="12" t="s">
         <v>4</v>
@@ -8781,16 +8769,16 @@
     </row>
     <row r="366" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D366" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F366" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H366" s="12" t="s">
         <v>4</v>
@@ -8798,16 +8786,16 @@
     </row>
     <row r="367" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="D367" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F367" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H367" s="12" t="s">
         <v>4</v>
@@ -8815,16 +8803,16 @@
     </row>
     <row r="368" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="10" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D368" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F368" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H368" s="12" t="s">
         <v>4</v>
@@ -8832,16 +8820,16 @@
     </row>
     <row r="369" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="10" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B369" s="11" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D369" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F369" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H369" s="12" t="s">
         <v>4</v>
@@ -8849,57 +8837,23 @@
     </row>
     <row r="370" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="10" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D370" s="12" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F370" s="12" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="H370" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="371" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A371" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="B371" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="D371" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="F371" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="H371" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="372" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A372" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="B372" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="D372" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="F372" s="12" t="s">
-        <v>306</v>
-      </c>
-      <c r="H372" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I372">
+  <autoFilter ref="A1:I370">
     <sortState ref="A2:H372">
       <sortCondition ref="D2:D372"/>
       <sortCondition ref="F2:F372"/>
@@ -8928,10 +8882,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>4</v>

--- a/maps/aprop.xlsx
+++ b/maps/aprop.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$I$370</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$I$389</definedName>
   </definedNames>
   <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="737">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -2081,9 +2081,6 @@
     <t>44170</t>
   </si>
   <si>
-    <t>44198</t>
-  </si>
-  <si>
     <t>matr_apropriador</t>
   </si>
   <si>
@@ -2094,6 +2091,144 @@
   </si>
   <si>
     <t>flags</t>
+  </si>
+  <si>
+    <t>4141</t>
+  </si>
+  <si>
+    <t>4143</t>
+  </si>
+  <si>
+    <t>4134</t>
+  </si>
+  <si>
+    <t>4136</t>
+  </si>
+  <si>
+    <t>4220</t>
+  </si>
+  <si>
+    <t>4162</t>
+  </si>
+  <si>
+    <t>4171</t>
+  </si>
+  <si>
+    <t>4151</t>
+  </si>
+  <si>
+    <t>4175</t>
+  </si>
+  <si>
+    <t>4170</t>
+  </si>
+  <si>
+    <t>4158</t>
+  </si>
+  <si>
+    <t>4183</t>
+  </si>
+  <si>
+    <t>*GIANLUCA</t>
+  </si>
+  <si>
+    <t>4144</t>
+  </si>
+  <si>
+    <t>4168</t>
+  </si>
+  <si>
+    <t>*IGOR</t>
+  </si>
+  <si>
+    <t>*YAGO</t>
+  </si>
+  <si>
+    <t>*BRENDHO</t>
+  </si>
+  <si>
+    <t>*RAMON</t>
+  </si>
+  <si>
+    <t>*RAFAEL</t>
+  </si>
+  <si>
+    <t>44213</t>
+  </si>
+  <si>
+    <t>*MAYCON</t>
+  </si>
+  <si>
+    <t>*PEDRO</t>
+  </si>
+  <si>
+    <t>*JONATAS</t>
+  </si>
+  <si>
+    <t>*CLAUDIO</t>
+  </si>
+  <si>
+    <t>*FELIPE</t>
+  </si>
+  <si>
+    <t>*ALEXIA</t>
+  </si>
+  <si>
+    <t>4137</t>
+  </si>
+  <si>
+    <t>*BRENO</t>
+  </si>
+  <si>
+    <t>4165</t>
+  </si>
+  <si>
+    <t>*PAULO</t>
+  </si>
+  <si>
+    <t>4132</t>
+  </si>
+  <si>
+    <t>*TIAGO</t>
+  </si>
+  <si>
+    <t>4146</t>
+  </si>
+  <si>
+    <t>*VITORIA</t>
+  </si>
+  <si>
+    <t>4174</t>
+  </si>
+  <si>
+    <t>*GUSTAVO</t>
+  </si>
+  <si>
+    <t>4147</t>
+  </si>
+  <si>
+    <t>*VICTORIA</t>
+  </si>
+  <si>
+    <t>4152</t>
+  </si>
+  <si>
+    <t>*THAISA</t>
+  </si>
+  <si>
+    <t>4149</t>
+  </si>
+  <si>
+    <t>*BEATRIZ</t>
+  </si>
+  <si>
+    <t>4142</t>
+  </si>
+  <si>
+    <t>*LUIS PAULO</t>
+  </si>
+  <si>
+    <t>*WESLLEN</t>
   </si>
 </sst>
 </file>
@@ -2495,10 +2630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J370"/>
+  <dimension ref="A1:J393"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A227" sqref="A227:XFD227"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2528,13 +2663,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>687</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>688</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>689</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>690</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -2543,7 +2678,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2670,10 +2805,10 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>635</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>665</v>
+        <v>691</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>712</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>9</v>
@@ -2687,7 +2822,7 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>665</v>
@@ -2704,7 +2839,7 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>665</v>
@@ -2721,7 +2856,7 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>665</v>
@@ -2738,7 +2873,7 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>665</v>
@@ -2755,7 +2890,7 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>665</v>
@@ -2771,31 +2906,28 @@
       </c>
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>2889</v>
+      <c r="A15" s="10" t="s">
+        <v>640</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>11</v>
+        <v>665</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>654</v>
-      </c>
     </row>
     <row r="16" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>3422</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>12</v>
+      <c r="A16" s="10">
+        <v>2889</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>9</v>
@@ -2806,13 +2938,16 @@
       <c r="H16" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="I16" s="12" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>3468</v>
+        <v>3422</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>9</v>
@@ -2826,10 +2961,10 @@
     </row>
     <row r="18" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>3681</v>
+        <v>3468</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D18" s="12" t="s">
         <v>9</v>
@@ -2843,10 +2978,10 @@
     </row>
     <row r="19" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>3683</v>
+        <v>3681</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D19" s="12" t="s">
         <v>9</v>
@@ -2859,11 +2994,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>678</v>
+      <c r="A20" s="6">
+        <v>3683</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>671</v>
+        <v>14</v>
       </c>
       <c r="D20" s="12" t="s">
         <v>9</v>
@@ -2877,10 +3012,10 @@
     </row>
     <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>672</v>
+        <v>678</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>9</v>
@@ -2894,10 +3029,10 @@
     </row>
     <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>9</v>
@@ -2911,10 +3046,10 @@
     </row>
     <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>9</v>
@@ -2928,10 +3063,10 @@
     </row>
     <row r="24" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>9</v>
@@ -2945,10 +3080,10 @@
     </row>
     <row r="25" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>446</v>
+        <v>685</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>9</v>
@@ -2962,10 +3097,10 @@
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>120</v>
+        <v>446</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>9</v>
@@ -2978,31 +3113,28 @@
       </c>
     </row>
     <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>45</v>
+      <c r="A27" s="6" t="s">
+        <v>711</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="I27" s="12" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>9</v>
@@ -3013,13 +3145,16 @@
       <c r="H28" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="I28" s="12" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="29" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>9</v>
@@ -3033,10 +3168,10 @@
     </row>
     <row r="30" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>9</v>
@@ -3050,10 +3185,10 @@
     </row>
     <row r="31" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>9</v>
@@ -3067,10 +3202,10 @@
     </row>
     <row r="32" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>9</v>
@@ -3084,10 +3219,10 @@
     </row>
     <row r="33" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>9</v>
@@ -3101,10 +3236,10 @@
     </row>
     <row r="34" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>9</v>
@@ -3118,10 +3253,10 @@
     </row>
     <row r="35" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>9</v>
@@ -3135,10 +3270,10 @@
     </row>
     <row r="36" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>9</v>
@@ -3152,10 +3287,10 @@
     </row>
     <row r="37" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>9</v>
@@ -3169,10 +3304,10 @@
     </row>
     <row r="38" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>9</v>
@@ -3186,10 +3321,10 @@
     </row>
     <row r="39" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>9</v>
@@ -3203,10 +3338,10 @@
     </row>
     <row r="40" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>105</v>
+        <v>70</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>9</v>
@@ -3220,10 +3355,10 @@
     </row>
     <row r="41" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>73</v>
+        <v>104</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>9</v>
@@ -3237,10 +3372,10 @@
     </row>
     <row r="42" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>9</v>
@@ -3254,10 +3389,10 @@
     </row>
     <row r="43" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>107</v>
+        <v>74</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>75</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>9</v>
@@ -3271,10 +3406,10 @@
     </row>
     <row r="44" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>77</v>
+        <v>106</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>9</v>
@@ -3288,10 +3423,10 @@
     </row>
     <row r="45" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>9</v>
@@ -3305,10 +3440,10 @@
     </row>
     <row r="46" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>9</v>
@@ -3322,10 +3457,10 @@
     </row>
     <row r="47" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>9</v>
@@ -3339,10 +3474,10 @@
     </row>
     <row r="48" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>9</v>
@@ -3356,10 +3491,10 @@
     </row>
     <row r="49" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>9</v>
@@ -3373,10 +3508,10 @@
     </row>
     <row r="50" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>9</v>
@@ -3390,10 +3525,10 @@
     </row>
     <row r="51" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>9</v>
@@ -3407,10 +3542,10 @@
     </row>
     <row r="52" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>9</v>
@@ -3424,10 +3559,10 @@
     </row>
     <row r="53" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>9</v>
@@ -3441,10 +3576,10 @@
     </row>
     <row r="54" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>9</v>
@@ -3458,10 +3593,10 @@
     </row>
     <row r="55" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>9</v>
@@ -3475,10 +3610,10 @@
     </row>
     <row r="56" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>9</v>
@@ -3492,10 +3627,10 @@
     </row>
     <row r="57" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>9</v>
@@ -3508,28 +3643,28 @@
       </c>
     </row>
     <row r="58" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>16</v>
+      <c r="A58" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="H58" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6">
-        <v>1078</v>
+      <c r="A59" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>9</v>
@@ -3540,16 +3675,13 @@
       <c r="H59" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="12" t="s">
-        <v>664</v>
-      </c>
     </row>
     <row r="60" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>9</v>
@@ -3560,13 +3692,16 @@
       <c r="H60" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="I60" s="12" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="61" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>1238</v>
+        <v>1083</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>9</v>
@@ -3580,10 +3715,10 @@
     </row>
     <row r="62" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>1358</v>
+        <v>1238</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>9</v>
@@ -3597,10 +3732,10 @@
     </row>
     <row r="63" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>2681</v>
+        <v>1358</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>9</v>
@@ -3614,10 +3749,10 @@
     </row>
     <row r="64" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>2704</v>
+        <v>2681</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>9</v>
@@ -3631,10 +3766,10 @@
     </row>
     <row r="65" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>3175</v>
+        <v>2704</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>9</v>
@@ -3648,10 +3783,10 @@
     </row>
     <row r="66" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>3236</v>
+        <v>3175</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>9</v>
@@ -3665,10 +3800,10 @@
     </row>
     <row r="67" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>3314</v>
+        <v>3236</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>9</v>
@@ -3682,10 +3817,10 @@
     </row>
     <row r="68" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>3444</v>
+        <v>3314</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>9</v>
@@ -3699,10 +3834,10 @@
     </row>
     <row r="69" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>3449</v>
+        <v>3444</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>9</v>
@@ -3716,10 +3851,10 @@
     </row>
     <row r="70" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>3759</v>
+        <v>3449</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>9</v>
@@ -3732,11 +3867,11 @@
       </c>
     </row>
     <row r="71" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>680</v>
+      <c r="A71" s="6">
+        <v>3759</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>434</v>
+        <v>27</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>9</v>
@@ -3750,10 +3885,10 @@
     </row>
     <row r="72" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>8</v>
+        <v>434</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>9</v>
@@ -3767,10 +3902,10 @@
     </row>
     <row r="73" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>9</v>
@@ -3784,10 +3919,10 @@
     </row>
     <row r="74" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>287</v>
+        <v>111</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>9</v>
@@ -3801,10 +3936,10 @@
     </row>
     <row r="75" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>665</v>
+        <v>683</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>287</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>9</v>
@@ -3818,10 +3953,10 @@
     </row>
     <row r="76" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>665</v>
+        <v>696</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>717</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>9</v>
@@ -3835,10 +3970,10 @@
     </row>
     <row r="77" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>665</v>
+        <v>697</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>716</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>9</v>
@@ -3852,10 +3987,10 @@
     </row>
     <row r="78" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>665</v>
+        <v>698</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>715</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>9</v>
@@ -3869,10 +4004,10 @@
     </row>
     <row r="79" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>665</v>
+        <v>699</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>714</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>9</v>
@@ -3886,10 +4021,10 @@
     </row>
     <row r="80" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>665</v>
+        <v>700</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>713</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>9</v>
@@ -3902,105 +4037,102 @@
       </c>
     </row>
     <row r="81" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="10" t="s">
-        <v>173</v>
+      <c r="A81" s="6" t="s">
+        <v>647</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>174</v>
+        <v>665</v>
       </c>
       <c r="D81" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="H81" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I81" s="12" t="s">
-        <v>658</v>
-      </c>
     </row>
     <row r="82" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
-        <v>175</v>
+      <c r="A82" s="6" t="s">
+        <v>648</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>176</v>
+        <v>665</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="H82" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="10" t="s">
-        <v>177</v>
+      <c r="A83" s="6" t="s">
+        <v>649</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>178</v>
+        <v>665</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="H83" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
-        <v>179</v>
+      <c r="A84" s="6" t="s">
+        <v>650</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>180</v>
+        <v>665</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="H84" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="10" t="s">
-        <v>181</v>
+      <c r="A85" s="6" t="s">
+        <v>651</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>182</v>
+        <v>665</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="H85" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
-        <v>183</v>
+      <c r="A86" s="6" t="s">
+        <v>652</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>184</v>
+        <v>665</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>172</v>
+        <v>15</v>
       </c>
       <c r="H86" s="12" t="s">
         <v>4</v>
@@ -4008,10 +4140,10 @@
     </row>
     <row r="87" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>5</v>
@@ -4022,13 +4154,16 @@
       <c r="H87" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="I87" s="12" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="88" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>5</v>
@@ -4042,10 +4177,10 @@
     </row>
     <row r="89" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="D89" s="12" t="s">
         <v>5</v>
@@ -4059,10 +4194,10 @@
     </row>
     <row r="90" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>5</v>
@@ -4076,10 +4211,10 @@
     </row>
     <row r="91" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>5</v>
@@ -4093,10 +4228,10 @@
     </row>
     <row r="92" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>5</v>
@@ -4110,10 +4245,10 @@
     </row>
     <row r="93" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>5</v>
@@ -4127,10 +4262,10 @@
     </row>
     <row r="94" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>5</v>
@@ -4144,10 +4279,10 @@
     </row>
     <row r="95" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D95" s="12" t="s">
         <v>5</v>
@@ -4161,10 +4296,10 @@
     </row>
     <row r="96" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="D96" s="12" t="s">
         <v>5</v>
@@ -4178,10 +4313,10 @@
     </row>
     <row r="97" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="D97" s="12" t="s">
         <v>5</v>
@@ -4195,10 +4330,10 @@
     </row>
     <row r="98" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>5</v>
@@ -4212,10 +4347,10 @@
     </row>
     <row r="99" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>5</v>
@@ -4229,10 +4364,10 @@
     </row>
     <row r="100" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D100" s="12" t="s">
         <v>5</v>
@@ -4246,10 +4381,10 @@
     </row>
     <row r="101" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>5</v>
@@ -4263,10 +4398,10 @@
     </row>
     <row r="102" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>5</v>
@@ -4280,10 +4415,10 @@
     </row>
     <row r="103" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>5</v>
@@ -4297,10 +4432,10 @@
     </row>
     <row r="104" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>5</v>
@@ -4314,10 +4449,10 @@
     </row>
     <row r="105" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>5</v>
@@ -4331,10 +4466,10 @@
     </row>
     <row r="106" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>5</v>
@@ -4348,10 +4483,10 @@
     </row>
     <row r="107" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>5</v>
@@ -4365,10 +4500,10 @@
     </row>
     <row r="108" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>5</v>
@@ -4382,10 +4517,10 @@
     </row>
     <row r="109" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>5</v>
@@ -4399,10 +4534,10 @@
     </row>
     <row r="110" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>5</v>
@@ -4416,10 +4551,10 @@
     </row>
     <row r="111" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>5</v>
@@ -4433,10 +4568,10 @@
     </row>
     <row r="112" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>5</v>
@@ -4450,10 +4585,10 @@
     </row>
     <row r="113" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>5</v>
@@ -4467,10 +4602,10 @@
     </row>
     <row r="114" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>5</v>
@@ -4484,10 +4619,10 @@
     </row>
     <row r="115" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>5</v>
@@ -4501,10 +4636,10 @@
     </row>
     <row r="116" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>111</v>
+        <v>232</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>5</v>
@@ -4518,10 +4653,10 @@
     </row>
     <row r="117" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D117" s="12" t="s">
         <v>5</v>
@@ -4535,10 +4670,10 @@
     </row>
     <row r="118" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>5</v>
@@ -4552,10 +4687,10 @@
     </row>
     <row r="119" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>5</v>
@@ -4569,10 +4704,10 @@
     </row>
     <row r="120" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>149</v>
+        <v>240</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>5</v>
@@ -4586,10 +4721,10 @@
     </row>
     <row r="121" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>5</v>
@@ -4603,10 +4738,10 @@
     </row>
     <row r="122" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>254</v>
+        <v>111</v>
       </c>
       <c r="D122" s="12" t="s">
         <v>5</v>
@@ -4620,10 +4755,10 @@
     </row>
     <row r="123" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>48</v>
+        <v>245</v>
       </c>
       <c r="D123" s="12" t="s">
         <v>5</v>
@@ -4637,10 +4772,10 @@
     </row>
     <row r="124" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="D124" s="12" t="s">
         <v>5</v>
@@ -4654,10 +4789,10 @@
     </row>
     <row r="125" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="D125" s="12" t="s">
         <v>5</v>
@@ -4671,10 +4806,10 @@
     </row>
     <row r="126" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>261</v>
+        <v>149</v>
       </c>
       <c r="D126" s="12" t="s">
         <v>5</v>
@@ -4688,10 +4823,10 @@
     </row>
     <row r="127" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D127" s="12" t="s">
         <v>5</v>
@@ -4705,10 +4840,10 @@
     </row>
     <row r="128" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D128" s="12" t="s">
         <v>5</v>
@@ -4722,10 +4857,10 @@
     </row>
     <row r="129" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>267</v>
+        <v>48</v>
       </c>
       <c r="D129" s="12" t="s">
         <v>5</v>
@@ -4739,10 +4874,10 @@
     </row>
     <row r="130" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="D130" s="12" t="s">
         <v>5</v>
@@ -4756,10 +4891,10 @@
     </row>
     <row r="131" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="D131" s="12" t="s">
         <v>5</v>
@@ -4773,10 +4908,10 @@
     </row>
     <row r="132" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="D132" s="12" t="s">
         <v>5</v>
@@ -4790,10 +4925,10 @@
     </row>
     <row r="133" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="D133" s="12" t="s">
         <v>5</v>
@@ -4807,10 +4942,10 @@
     </row>
     <row r="134" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="D134" s="12" t="s">
         <v>5</v>
@@ -4824,10 +4959,10 @@
     </row>
     <row r="135" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="D135" s="12" t="s">
         <v>5</v>
@@ -4841,10 +4976,10 @@
     </row>
     <row r="136" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D136" s="12" t="s">
         <v>5</v>
@@ -4858,10 +4993,10 @@
     </row>
     <row r="137" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="D137" s="12" t="s">
         <v>5</v>
@@ -4875,10 +5010,10 @@
     </row>
     <row r="138" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="D138" s="12" t="s">
         <v>5</v>
@@ -4892,10 +5027,10 @@
     </row>
     <row r="139" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="D139" s="12" t="s">
         <v>5</v>
@@ -4909,10 +5044,10 @@
     </row>
     <row r="140" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>153</v>
+        <v>277</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>5</v>
@@ -4926,10 +5061,10 @@
     </row>
     <row r="141" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="D141" s="12" t="s">
         <v>5</v>
@@ -4943,10 +5078,10 @@
     </row>
     <row r="142" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>5</v>
@@ -4960,10 +5095,10 @@
     </row>
     <row r="143" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D143" s="12" t="s">
         <v>5</v>
@@ -4977,10 +5112,10 @@
     </row>
     <row r="144" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D144" s="12" t="s">
         <v>5</v>
@@ -4994,10 +5129,10 @@
     </row>
     <row r="145" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D145" s="12" t="s">
         <v>5</v>
@@ -5011,10 +5146,10 @@
     </row>
     <row r="146" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>300</v>
+        <v>153</v>
       </c>
       <c r="D146" s="12" t="s">
         <v>5</v>
@@ -5028,10 +5163,10 @@
     </row>
     <row r="147" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D147" s="12" t="s">
         <v>5</v>
@@ -5045,33 +5180,30 @@
     </row>
     <row r="148" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
-        <v>578</v>
+        <v>290</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>579</v>
+        <v>291</v>
       </c>
       <c r="D148" s="12" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
       <c r="F148" s="12" t="s">
         <v>172</v>
       </c>
       <c r="H148" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="I148" s="12" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="149" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>580</v>
+        <v>293</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>581</v>
+        <v>294</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
       <c r="F149" s="12" t="s">
         <v>172</v>
@@ -5082,13 +5214,13 @@
     </row>
     <row r="150" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>582</v>
+        <v>295</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>583</v>
+        <v>296</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
       <c r="F150" s="12" t="s">
         <v>172</v>
@@ -5099,13 +5231,13 @@
     </row>
     <row r="151" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>584</v>
+        <v>297</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>14</v>
+        <v>298</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
       <c r="F151" s="12" t="s">
         <v>172</v>
@@ -5116,13 +5248,13 @@
     </row>
     <row r="152" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>585</v>
+        <v>299</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>586</v>
+        <v>300</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
       <c r="F152" s="12" t="s">
         <v>172</v>
@@ -5133,13 +5265,13 @@
     </row>
     <row r="153" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
-        <v>587</v>
+        <v>301</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>588</v>
+        <v>302</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>542</v>
+        <v>5</v>
       </c>
       <c r="F153" s="12" t="s">
         <v>172</v>
@@ -5150,10 +5282,10 @@
     </row>
     <row r="154" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="D154" s="12" t="s">
         <v>542</v>
@@ -5164,13 +5296,16 @@
       <c r="H154" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="I154" s="12" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="155" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="D155" s="12" t="s">
         <v>542</v>
@@ -5184,10 +5319,10 @@
     </row>
     <row r="156" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="D156" s="12" t="s">
         <v>542</v>
@@ -5201,10 +5336,10 @@
     </row>
     <row r="157" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>596</v>
+        <v>14</v>
       </c>
       <c r="D157" s="12" t="s">
         <v>542</v>
@@ -5218,10 +5353,10 @@
     </row>
     <row r="158" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
       <c r="D158" s="12" t="s">
         <v>542</v>
@@ -5235,10 +5370,10 @@
     </row>
     <row r="159" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="D159" s="12" t="s">
         <v>542</v>
@@ -5252,10 +5387,10 @@
     </row>
     <row r="160" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="D160" s="12" t="s">
         <v>542</v>
@@ -5269,10 +5404,10 @@
     </row>
     <row r="161" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>604</v>
+        <v>592</v>
       </c>
       <c r="D161" s="12" t="s">
         <v>542</v>
@@ -5286,10 +5421,10 @@
     </row>
     <row r="162" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>606</v>
+        <v>594</v>
       </c>
       <c r="D162" s="12" t="s">
         <v>542</v>
@@ -5303,10 +5438,10 @@
     </row>
     <row r="163" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>607</v>
+        <v>595</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="D163" s="12" t="s">
         <v>542</v>
@@ -5320,10 +5455,10 @@
     </row>
     <row r="164" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>609</v>
+        <v>597</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="D164" s="12" t="s">
         <v>542</v>
@@ -5337,10 +5472,10 @@
     </row>
     <row r="165" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>611</v>
+        <v>599</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="D165" s="12" t="s">
         <v>542</v>
@@ -5354,10 +5489,10 @@
     </row>
     <row r="166" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
-        <v>613</v>
+        <v>601</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>377</v>
+        <v>602</v>
       </c>
       <c r="D166" s="12" t="s">
         <v>542</v>
@@ -5371,10 +5506,10 @@
     </row>
     <row r="167" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>615</v>
+        <v>604</v>
       </c>
       <c r="D167" s="12" t="s">
         <v>542</v>
@@ -5388,10 +5523,10 @@
     </row>
     <row r="168" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="D168" s="12" t="s">
         <v>542</v>
@@ -5405,10 +5540,10 @@
     </row>
     <row r="169" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="D169" s="12" t="s">
         <v>542</v>
@@ -5422,10 +5557,10 @@
     </row>
     <row r="170" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="D170" s="12" t="s">
         <v>542</v>
@@ -5439,10 +5574,10 @@
     </row>
     <row r="171" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>362</v>
+        <v>612</v>
       </c>
       <c r="D171" s="12" t="s">
         <v>542</v>
@@ -5456,10 +5591,10 @@
     </row>
     <row r="172" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>13</v>
+        <v>377</v>
       </c>
       <c r="D172" s="12" t="s">
         <v>542</v>
@@ -5473,10 +5608,10 @@
     </row>
     <row r="173" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="D173" s="12" t="s">
         <v>542</v>
@@ -5490,10 +5625,10 @@
     </row>
     <row r="174" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
-        <v>670</v>
+        <v>616</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="D174" s="12" t="s">
         <v>542</v>
@@ -5507,10 +5642,10 @@
     </row>
     <row r="175" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>226</v>
+        <v>619</v>
       </c>
       <c r="D175" s="12" t="s">
         <v>542</v>
@@ -5524,10 +5659,10 @@
     </row>
     <row r="176" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>495</v>
+        <v>621</v>
       </c>
       <c r="D176" s="12" t="s">
         <v>542</v>
@@ -5541,10 +5676,10 @@
     </row>
     <row r="177" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>631</v>
+        <v>362</v>
       </c>
       <c r="D177" s="12" t="s">
         <v>542</v>
@@ -5558,10 +5693,10 @@
     </row>
     <row r="178" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>328</v>
+        <v>13</v>
       </c>
       <c r="D178" s="12" t="s">
         <v>542</v>
@@ -5575,10 +5710,10 @@
     </row>
     <row r="179" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="D179" s="12" t="s">
         <v>542</v>
@@ -5592,10 +5727,10 @@
     </row>
     <row r="180" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
-        <v>634</v>
+        <v>670</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>653</v>
+        <v>627</v>
       </c>
       <c r="D180" s="12" t="s">
         <v>542</v>
@@ -5609,36 +5744,33 @@
     </row>
     <row r="181" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
-        <v>543</v>
+        <v>628</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>11</v>
+        <v>226</v>
       </c>
       <c r="D181" s="12" t="s">
         <v>542</v>
       </c>
       <c r="F181" s="12" t="s">
-        <v>577</v>
+        <v>172</v>
       </c>
       <c r="H181" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="I181" s="12" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
-        <v>544</v>
+        <v>629</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>545</v>
+        <v>495</v>
       </c>
       <c r="D182" s="12" t="s">
         <v>542</v>
       </c>
       <c r="F182" s="12" t="s">
-        <v>577</v>
+        <v>172</v>
       </c>
       <c r="H182" s="12" t="s">
         <v>4</v>
@@ -5646,16 +5778,16 @@
     </row>
     <row r="183" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
-        <v>546</v>
+        <v>630</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>547</v>
+        <v>631</v>
       </c>
       <c r="D183" s="12" t="s">
         <v>542</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>577</v>
+        <v>172</v>
       </c>
       <c r="H183" s="12" t="s">
         <v>4</v>
@@ -5663,16 +5795,16 @@
     </row>
     <row r="184" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
-        <v>548</v>
+        <v>626</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>549</v>
+        <v>328</v>
       </c>
       <c r="D184" s="12" t="s">
         <v>542</v>
       </c>
       <c r="F184" s="12" t="s">
-        <v>577</v>
+        <v>172</v>
       </c>
       <c r="H184" s="12" t="s">
         <v>4</v>
@@ -5680,16 +5812,16 @@
     </row>
     <row r="185" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
-        <v>550</v>
+        <v>632</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>551</v>
+        <v>633</v>
       </c>
       <c r="D185" s="12" t="s">
         <v>542</v>
       </c>
       <c r="F185" s="12" t="s">
-        <v>577</v>
+        <v>172</v>
       </c>
       <c r="H185" s="12" t="s">
         <v>4</v>
@@ -5697,16 +5829,16 @@
     </row>
     <row r="186" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
-        <v>552</v>
+        <v>634</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>553</v>
+        <v>653</v>
       </c>
       <c r="D186" s="12" t="s">
         <v>542</v>
       </c>
       <c r="F186" s="12" t="s">
-        <v>577</v>
+        <v>172</v>
       </c>
       <c r="H186" s="12" t="s">
         <v>4</v>
@@ -5714,16 +5846,16 @@
     </row>
     <row r="187" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
-        <v>510</v>
+        <v>701</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>668</v>
+        <v>703</v>
       </c>
       <c r="D187" s="12" t="s">
         <v>542</v>
       </c>
       <c r="F187" s="12" t="s">
-        <v>577</v>
+        <v>172</v>
       </c>
       <c r="H187" s="12" t="s">
         <v>4</v>
@@ -5731,16 +5863,16 @@
     </row>
     <row r="188" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
-        <v>554</v>
+        <v>702</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>555</v>
+        <v>736</v>
       </c>
       <c r="D188" s="12" t="s">
         <v>542</v>
       </c>
       <c r="F188" s="12" t="s">
-        <v>577</v>
+        <v>172</v>
       </c>
       <c r="H188" s="12" t="s">
         <v>4</v>
@@ -5748,10 +5880,10 @@
     </row>
     <row r="189" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
-        <v>556</v>
+        <v>543</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>557</v>
+        <v>11</v>
       </c>
       <c r="D189" s="12" t="s">
         <v>542</v>
@@ -5762,13 +5894,16 @@
       <c r="H189" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="I189" s="12" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="190" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>226</v>
+        <v>545</v>
       </c>
       <c r="D190" s="12" t="s">
         <v>542</v>
@@ -5782,10 +5917,10 @@
     </row>
     <row r="191" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
-        <v>559</v>
+        <v>546</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>560</v>
+        <v>547</v>
       </c>
       <c r="D191" s="12" t="s">
         <v>542</v>
@@ -5799,10 +5934,10 @@
     </row>
     <row r="192" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
-        <v>561</v>
+        <v>548</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>562</v>
+        <v>549</v>
       </c>
       <c r="D192" s="12" t="s">
         <v>542</v>
@@ -5816,10 +5951,10 @@
     </row>
     <row r="193" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
       <c r="D193" s="12" t="s">
         <v>542</v>
@@ -5833,10 +5968,10 @@
     </row>
     <row r="194" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
       <c r="D194" s="12" t="s">
         <v>542</v>
@@ -5850,10 +5985,10 @@
     </row>
     <row r="195" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
-        <v>569</v>
+        <v>510</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>570</v>
+        <v>668</v>
       </c>
       <c r="D195" s="12" t="s">
         <v>542</v>
@@ -5867,10 +6002,10 @@
     </row>
     <row r="196" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>572</v>
+        <v>555</v>
       </c>
       <c r="D196" s="12" t="s">
         <v>542</v>
@@ -5884,10 +6019,10 @@
     </row>
     <row r="197" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
-        <v>532</v>
+        <v>556</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="D197" s="12" t="s">
         <v>542</v>
@@ -5901,10 +6036,10 @@
     </row>
     <row r="198" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
-        <v>421</v>
+        <v>558</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>679</v>
+        <v>226</v>
       </c>
       <c r="D198" s="12" t="s">
         <v>542</v>
@@ -5918,10 +6053,10 @@
     </row>
     <row r="199" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D199" s="12" t="s">
         <v>542</v>
@@ -5935,10 +6070,10 @@
     </row>
     <row r="200" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="D200" s="12" t="s">
         <v>542</v>
@@ -5952,10 +6087,10 @@
     </row>
     <row r="201" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="D201" s="12" t="s">
         <v>542</v>
@@ -5969,10 +6104,10 @@
     </row>
     <row r="202" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
-        <v>643</v>
+        <v>567</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>665</v>
+        <v>568</v>
       </c>
       <c r="D202" s="12" t="s">
         <v>542</v>
@@ -5986,10 +6121,10 @@
     </row>
     <row r="203" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
-        <v>641</v>
+        <v>569</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>665</v>
+        <v>570</v>
       </c>
       <c r="D203" s="12" t="s">
         <v>542</v>
@@ -6003,10 +6138,10 @@
     </row>
     <row r="204" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
-        <v>642</v>
+        <v>571</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>665</v>
+        <v>572</v>
       </c>
       <c r="D204" s="12" t="s">
         <v>542</v>
@@ -6020,10 +6155,10 @@
     </row>
     <row r="205" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
-        <v>644</v>
+        <v>532</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>665</v>
+        <v>533</v>
       </c>
       <c r="D205" s="12" t="s">
         <v>542</v>
@@ -6037,10 +6172,10 @@
     </row>
     <row r="206" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
-        <v>645</v>
+        <v>421</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="D206" s="12" t="s">
         <v>542</v>
@@ -6054,10 +6189,10 @@
     </row>
     <row r="207" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
-        <v>646</v>
+        <v>563</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>665</v>
+        <v>564</v>
       </c>
       <c r="D207" s="12" t="s">
         <v>542</v>
@@ -6071,291 +6206,288 @@
     </row>
     <row r="208" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
-        <v>114</v>
+        <v>573</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>115</v>
+        <v>574</v>
       </c>
       <c r="D208" s="12" t="s">
-        <v>108</v>
+        <v>542</v>
       </c>
       <c r="F208" s="12" t="s">
-        <v>109</v>
+        <v>577</v>
       </c>
       <c r="H208" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
-        <v>112</v>
+        <v>575</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>113</v>
+        <v>576</v>
       </c>
       <c r="D209" s="12" t="s">
-        <v>108</v>
+        <v>542</v>
       </c>
       <c r="F209" s="12" t="s">
-        <v>109</v>
+        <v>577</v>
       </c>
       <c r="H209" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
-        <v>110</v>
+        <v>718</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>111</v>
+        <v>719</v>
       </c>
       <c r="D210" s="12" t="s">
-        <v>108</v>
+        <v>542</v>
       </c>
       <c r="F210" s="12" t="s">
-        <v>109</v>
+        <v>577</v>
       </c>
       <c r="H210" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I210" s="12" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="211" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
-        <v>116</v>
+        <v>720</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>113</v>
+        <v>721</v>
       </c>
       <c r="D211" s="12" t="s">
-        <v>108</v>
+        <v>542</v>
       </c>
       <c r="F211" s="12" t="s">
-        <v>109</v>
+        <v>577</v>
       </c>
       <c r="H211" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
-        <v>117</v>
+        <v>722</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>118</v>
+        <v>723</v>
       </c>
       <c r="D212" s="12" t="s">
-        <v>108</v>
+        <v>542</v>
       </c>
       <c r="F212" s="12" t="s">
-        <v>109</v>
+        <v>577</v>
       </c>
       <c r="H212" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
-        <v>119</v>
+        <v>724</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>120</v>
+        <v>725</v>
       </c>
       <c r="D213" s="12" t="s">
-        <v>108</v>
+        <v>542</v>
       </c>
       <c r="F213" s="12" t="s">
-        <v>109</v>
+        <v>577</v>
       </c>
       <c r="H213" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
-        <v>121</v>
+        <v>726</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>122</v>
+        <v>727</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>108</v>
+        <v>542</v>
       </c>
       <c r="F214" s="12" t="s">
-        <v>109</v>
+        <v>577</v>
       </c>
       <c r="H214" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
-        <v>123</v>
+        <v>728</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>124</v>
+        <v>729</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>108</v>
+        <v>542</v>
       </c>
       <c r="F215" s="12" t="s">
-        <v>109</v>
+        <v>577</v>
       </c>
       <c r="H215" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
-        <v>125</v>
+        <v>730</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>126</v>
+        <v>731</v>
       </c>
       <c r="D216" s="12" t="s">
-        <v>108</v>
+        <v>542</v>
       </c>
       <c r="F216" s="12" t="s">
-        <v>109</v>
+        <v>577</v>
       </c>
       <c r="H216" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
-        <v>127</v>
+        <v>732</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>128</v>
+        <v>733</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>108</v>
+        <v>542</v>
       </c>
       <c r="F217" s="12" t="s">
-        <v>109</v>
+        <v>577</v>
       </c>
       <c r="H217" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
-        <v>129</v>
+        <v>734</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>130</v>
+        <v>735</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>108</v>
+        <v>542</v>
       </c>
       <c r="F218" s="12" t="s">
-        <v>109</v>
+        <v>577</v>
       </c>
       <c r="H218" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
-        <v>131</v>
+        <v>643</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>132</v>
+        <v>665</v>
       </c>
       <c r="D219" s="12" t="s">
-        <v>108</v>
+        <v>542</v>
       </c>
       <c r="F219" s="12" t="s">
-        <v>109</v>
+        <v>577</v>
       </c>
       <c r="H219" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
-        <v>133</v>
+        <v>641</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>134</v>
+        <v>665</v>
       </c>
       <c r="D220" s="12" t="s">
-        <v>108</v>
+        <v>542</v>
       </c>
       <c r="F220" s="12" t="s">
-        <v>109</v>
+        <v>577</v>
       </c>
       <c r="H220" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="221" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
-        <v>135</v>
+        <v>642</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>136</v>
+        <v>665</v>
       </c>
       <c r="D221" s="12" t="s">
-        <v>108</v>
+        <v>542</v>
       </c>
       <c r="F221" s="12" t="s">
-        <v>109</v>
+        <v>577</v>
       </c>
       <c r="H221" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
-        <v>137</v>
+        <v>644</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>138</v>
+        <v>665</v>
       </c>
       <c r="D222" s="12" t="s">
-        <v>108</v>
+        <v>542</v>
       </c>
       <c r="F222" s="12" t="s">
-        <v>109</v>
+        <v>577</v>
       </c>
       <c r="H222" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
-        <v>139</v>
+        <v>645</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>31</v>
+        <v>665</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>108</v>
+        <v>542</v>
       </c>
       <c r="F223" s="12" t="s">
-        <v>109</v>
+        <v>577</v>
       </c>
       <c r="H223" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="224" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
-        <v>140</v>
+        <v>646</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>141</v>
+        <v>665</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>108</v>
+        <v>542</v>
       </c>
       <c r="F224" s="12" t="s">
-        <v>109</v>
+        <v>577</v>
       </c>
       <c r="H224" s="12" t="s">
         <v>4</v>
@@ -6363,10 +6495,10 @@
     </row>
     <row r="225" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="D225" s="12" t="s">
         <v>108</v>
@@ -6380,10 +6512,10 @@
     </row>
     <row r="226" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="D226" s="12" t="s">
         <v>108</v>
@@ -6397,10 +6529,10 @@
     </row>
     <row r="227" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="D227" s="12" t="s">
         <v>108</v>
@@ -6411,13 +6543,16 @@
       <c r="H227" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="I227" s="12" t="s">
+        <v>657</v>
+      </c>
     </row>
     <row r="228" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>149</v>
+        <v>113</v>
       </c>
       <c r="D228" s="12" t="s">
         <v>108</v>
@@ -6431,10 +6566,10 @@
     </row>
     <row r="229" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="D229" s="12" t="s">
         <v>108</v>
@@ -6448,10 +6583,10 @@
     </row>
     <row r="230" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="D230" s="12" t="s">
         <v>108</v>
@@ -6465,10 +6600,10 @@
     </row>
     <row r="231" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="D231" s="12" t="s">
         <v>108</v>
@@ -6482,10 +6617,10 @@
     </row>
     <row r="232" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="D232" s="12" t="s">
         <v>108</v>
@@ -6499,10 +6634,10 @@
     </row>
     <row r="233" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="D233" s="12" t="s">
         <v>108</v>
@@ -6516,10 +6651,10 @@
     </row>
     <row r="234" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="D234" s="12" t="s">
         <v>108</v>
@@ -6533,10 +6668,10 @@
     </row>
     <row r="235" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="D235" s="12" t="s">
         <v>108</v>
@@ -6550,10 +6685,10 @@
     </row>
     <row r="236" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="D236" s="12" t="s">
         <v>108</v>
@@ -6567,10 +6702,10 @@
     </row>
     <row r="237" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="D237" s="12" t="s">
         <v>108</v>
@@ -6584,10 +6719,10 @@
     </row>
     <row r="238" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="D238" s="12" t="s">
         <v>108</v>
@@ -6601,10 +6736,10 @@
     </row>
     <row r="239" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="D239" s="12" t="s">
         <v>108</v>
@@ -6618,36 +6753,33 @@
     </row>
     <row r="240" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
-        <v>477</v>
+        <v>139</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>478</v>
+        <v>31</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="F240" s="12" t="s">
-        <v>304</v>
+        <v>109</v>
       </c>
       <c r="H240" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="I240" s="12" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="241" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
-        <v>479</v>
+        <v>140</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>480</v>
+        <v>141</v>
       </c>
       <c r="D241" s="12" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="F241" s="12" t="s">
-        <v>304</v>
+        <v>109</v>
       </c>
       <c r="H241" s="12" t="s">
         <v>4</v>
@@ -6655,16 +6787,16 @@
     </row>
     <row r="242" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
-        <v>481</v>
+        <v>142</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="D242" s="12" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="F242" s="12" t="s">
-        <v>304</v>
+        <v>109</v>
       </c>
       <c r="H242" s="12" t="s">
         <v>4</v>
@@ -6672,16 +6804,16 @@
     </row>
     <row r="243" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
-        <v>482</v>
+        <v>144</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>281</v>
+        <v>145</v>
       </c>
       <c r="D243" s="12" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="F243" s="12" t="s">
-        <v>304</v>
+        <v>109</v>
       </c>
       <c r="H243" s="12" t="s">
         <v>4</v>
@@ -6689,16 +6821,16 @@
     </row>
     <row r="244" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
-        <v>483</v>
+        <v>146</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>484</v>
+        <v>147</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="F244" s="12" t="s">
-        <v>304</v>
+        <v>109</v>
       </c>
       <c r="H244" s="12" t="s">
         <v>4</v>
@@ -6706,16 +6838,16 @@
     </row>
     <row r="245" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
-        <v>485</v>
+        <v>148</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>228</v>
+        <v>149</v>
       </c>
       <c r="D245" s="12" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="F245" s="12" t="s">
-        <v>304</v>
+        <v>109</v>
       </c>
       <c r="H245" s="12" t="s">
         <v>4</v>
@@ -6723,16 +6855,16 @@
     </row>
     <row r="246" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
-        <v>486</v>
+        <v>150</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>487</v>
+        <v>151</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="F246" s="12" t="s">
-        <v>304</v>
+        <v>109</v>
       </c>
       <c r="H246" s="12" t="s">
         <v>4</v>
@@ -6740,16 +6872,16 @@
     </row>
     <row r="247" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
-        <v>488</v>
+        <v>152</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>489</v>
+        <v>153</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="F247" s="12" t="s">
-        <v>304</v>
+        <v>109</v>
       </c>
       <c r="H247" s="12" t="s">
         <v>4</v>
@@ -6757,16 +6889,16 @@
     </row>
     <row r="248" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
-        <v>490</v>
+        <v>154</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>491</v>
+        <v>155</v>
       </c>
       <c r="D248" s="12" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="F248" s="12" t="s">
-        <v>304</v>
+        <v>109</v>
       </c>
       <c r="H248" s="12" t="s">
         <v>4</v>
@@ -6774,16 +6906,16 @@
     </row>
     <row r="249" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
-        <v>492</v>
+        <v>156</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>493</v>
+        <v>157</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="F249" s="12" t="s">
-        <v>304</v>
+        <v>109</v>
       </c>
       <c r="H249" s="12" t="s">
         <v>4</v>
@@ -6791,16 +6923,16 @@
     </row>
     <row r="250" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
-        <v>494</v>
+        <v>158</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>495</v>
+        <v>159</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="F250" s="12" t="s">
-        <v>304</v>
+        <v>109</v>
       </c>
       <c r="H250" s="12" t="s">
         <v>4</v>
@@ -6808,16 +6940,16 @@
     </row>
     <row r="251" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
-        <v>496</v>
+        <v>160</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>497</v>
+        <v>161</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="F251" s="12" t="s">
-        <v>304</v>
+        <v>109</v>
       </c>
       <c r="H251" s="12" t="s">
         <v>4</v>
@@ -6825,16 +6957,16 @@
     </row>
     <row r="252" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
-        <v>498</v>
+        <v>162</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>499</v>
+        <v>163</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="F252" s="12" t="s">
-        <v>304</v>
+        <v>109</v>
       </c>
       <c r="H252" s="12" t="s">
         <v>4</v>
@@ -6842,16 +6974,16 @@
     </row>
     <row r="253" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
-        <v>500</v>
+        <v>164</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>501</v>
+        <v>165</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="F253" s="12" t="s">
-        <v>304</v>
+        <v>109</v>
       </c>
       <c r="H253" s="12" t="s">
         <v>4</v>
@@ -6859,16 +6991,16 @@
     </row>
     <row r="254" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>502</v>
+        <v>166</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>503</v>
+        <v>167</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="F254" s="12" t="s">
-        <v>304</v>
+        <v>109</v>
       </c>
       <c r="H254" s="12" t="s">
         <v>4</v>
@@ -6876,16 +7008,16 @@
     </row>
     <row r="255" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
-        <v>504</v>
+        <v>168</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>505</v>
+        <v>169</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="F255" s="12" t="s">
-        <v>304</v>
+        <v>109</v>
       </c>
       <c r="H255" s="12" t="s">
         <v>4</v>
@@ -6893,27 +7025,27 @@
     </row>
     <row r="256" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
-        <v>506</v>
+        <v>170</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>283</v>
+        <v>171</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="F256" s="12" t="s">
-        <v>304</v>
+        <v>109</v>
       </c>
       <c r="H256" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="D257" s="12" t="s">
         <v>134</v>
@@ -6924,13 +7056,16 @@
       <c r="H257" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I257" s="12" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>190</v>
+        <v>480</v>
       </c>
       <c r="D258" s="12" t="s">
         <v>134</v>
@@ -6942,12 +7077,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>454</v>
+        <v>184</v>
       </c>
       <c r="D259" s="12" t="s">
         <v>134</v>
@@ -6959,12 +7094,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>513</v>
+        <v>281</v>
       </c>
       <c r="D260" s="12" t="s">
         <v>134</v>
@@ -6976,12 +7111,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="D261" s="12" t="s">
         <v>134</v>
@@ -6993,12 +7128,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>516</v>
+        <v>228</v>
       </c>
       <c r="D262" s="12" t="s">
         <v>134</v>
@@ -7010,12 +7145,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
-        <v>517</v>
+        <v>486</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="D263" s="12" t="s">
         <v>134</v>
@@ -7027,12 +7162,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
-        <v>519</v>
+        <v>488</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>520</v>
+        <v>489</v>
       </c>
       <c r="D264" s="12" t="s">
         <v>134</v>
@@ -7044,12 +7179,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
-        <v>521</v>
+        <v>490</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>522</v>
+        <v>491</v>
       </c>
       <c r="D265" s="12" t="s">
         <v>134</v>
@@ -7061,12 +7196,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
-        <v>523</v>
+        <v>492</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>524</v>
+        <v>493</v>
       </c>
       <c r="D266" s="12" t="s">
         <v>134</v>
@@ -7078,12 +7213,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
-        <v>525</v>
+        <v>494</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>526</v>
+        <v>495</v>
       </c>
       <c r="D267" s="12" t="s">
         <v>134</v>
@@ -7095,12 +7230,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
-        <v>527</v>
+        <v>496</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>283</v>
+        <v>497</v>
       </c>
       <c r="D268" s="12" t="s">
         <v>134</v>
@@ -7112,12 +7247,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>529</v>
+        <v>499</v>
       </c>
       <c r="D269" s="12" t="s">
         <v>134</v>
@@ -7129,12 +7264,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="D270" s="12" t="s">
         <v>134</v>
@@ -7146,12 +7281,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
-        <v>534</v>
+        <v>502</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="D271" s="12" t="s">
         <v>134</v>
@@ -7163,12 +7298,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
-        <v>535</v>
+        <v>504</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>536</v>
+        <v>505</v>
       </c>
       <c r="D272" s="12" t="s">
         <v>134</v>
@@ -7180,12 +7315,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>537</v>
+        <v>506</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>538</v>
+        <v>283</v>
       </c>
       <c r="D273" s="12" t="s">
         <v>134</v>
@@ -7197,12 +7332,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
-        <v>539</v>
+        <v>507</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>540</v>
+        <v>508</v>
       </c>
       <c r="D274" s="12" t="s">
         <v>134</v>
@@ -7214,12 +7349,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
-        <v>541</v>
+        <v>509</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="D275" s="12" t="s">
         <v>134</v>
@@ -7231,225 +7366,222 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
-        <v>666</v>
+        <v>511</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="D276" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F276" s="12" t="s">
-        <v>426</v>
+        <v>304</v>
       </c>
       <c r="H276" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I276" s="12" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="277" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="277" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
-        <v>428</v>
+        <v>512</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>12</v>
+        <v>513</v>
       </c>
       <c r="D277" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F277" s="12" t="s">
-        <v>426</v>
+        <v>304</v>
       </c>
       <c r="H277" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>431</v>
+        <v>514</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>432</v>
+        <v>471</v>
       </c>
       <c r="D278" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F278" s="12" t="s">
-        <v>426</v>
+        <v>304</v>
       </c>
       <c r="H278" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
-        <v>433</v>
+        <v>515</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>434</v>
+        <v>516</v>
       </c>
       <c r="D279" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F279" s="12" t="s">
-        <v>426</v>
+        <v>304</v>
       </c>
       <c r="H279" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>435</v>
+        <v>517</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>436</v>
+        <v>518</v>
       </c>
       <c r="D280" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F280" s="12" t="s">
-        <v>426</v>
+        <v>304</v>
       </c>
       <c r="H280" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
-        <v>437</v>
+        <v>519</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>438</v>
+        <v>520</v>
       </c>
       <c r="D281" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F281" s="12" t="s">
-        <v>426</v>
+        <v>304</v>
       </c>
       <c r="H281" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>439</v>
+        <v>521</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>440</v>
+        <v>522</v>
       </c>
       <c r="D282" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F282" s="12" t="s">
-        <v>426</v>
+        <v>304</v>
       </c>
       <c r="H282" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
-        <v>441</v>
+        <v>523</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>442</v>
+        <v>524</v>
       </c>
       <c r="D283" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F283" s="12" t="s">
-        <v>426</v>
+        <v>304</v>
       </c>
       <c r="H283" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
-        <v>443</v>
+        <v>525</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>444</v>
+        <v>526</v>
       </c>
       <c r="D284" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F284" s="12" t="s">
-        <v>426</v>
+        <v>304</v>
       </c>
       <c r="H284" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
-        <v>445</v>
+        <v>527</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>446</v>
+        <v>283</v>
       </c>
       <c r="D285" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F285" s="12" t="s">
-        <v>426</v>
+        <v>304</v>
       </c>
       <c r="H285" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
-        <v>429</v>
+        <v>528</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>430</v>
+        <v>529</v>
       </c>
       <c r="D286" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F286" s="12" t="s">
-        <v>426</v>
+        <v>304</v>
       </c>
       <c r="H286" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
-        <v>447</v>
+        <v>530</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>448</v>
+        <v>531</v>
       </c>
       <c r="D287" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F287" s="12" t="s">
-        <v>426</v>
+        <v>304</v>
       </c>
       <c r="H287" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>449</v>
+        <v>534</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D288" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F288" s="12" t="s">
-        <v>426</v>
+        <v>304</v>
       </c>
       <c r="H288" s="12" t="s">
         <v>4</v>
@@ -7457,16 +7589,16 @@
     </row>
     <row r="289" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>451</v>
+        <v>535</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>452</v>
+        <v>536</v>
       </c>
       <c r="D289" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F289" s="12" t="s">
-        <v>426</v>
+        <v>304</v>
       </c>
       <c r="H289" s="12" t="s">
         <v>4</v>
@@ -7474,16 +7606,16 @@
     </row>
     <row r="290" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>453</v>
+        <v>537</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>454</v>
+        <v>538</v>
       </c>
       <c r="D290" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F290" s="12" t="s">
-        <v>426</v>
+        <v>304</v>
       </c>
       <c r="H290" s="12" t="s">
         <v>4</v>
@@ -7491,16 +7623,16 @@
     </row>
     <row r="291" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>455</v>
+        <v>539</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>456</v>
+        <v>540</v>
       </c>
       <c r="D291" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F291" s="12" t="s">
-        <v>426</v>
+        <v>304</v>
       </c>
       <c r="H291" s="12" t="s">
         <v>4</v>
@@ -7508,16 +7640,16 @@
     </row>
     <row r="292" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>457</v>
+        <v>541</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>458</v>
+        <v>159</v>
       </c>
       <c r="D292" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F292" s="12" t="s">
-        <v>426</v>
+        <v>304</v>
       </c>
       <c r="H292" s="12" t="s">
         <v>4</v>
@@ -7525,10 +7657,10 @@
     </row>
     <row r="293" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>459</v>
+        <v>666</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="D293" s="12" t="s">
         <v>134</v>
@@ -7539,13 +7671,16 @@
       <c r="H293" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="I293" s="12" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="294" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>462</v>
+        <v>12</v>
       </c>
       <c r="D294" s="12" t="s">
         <v>134</v>
@@ -7559,10 +7694,10 @@
     </row>
     <row r="295" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>464</v>
+        <v>432</v>
       </c>
       <c r="D295" s="12" t="s">
         <v>134</v>
@@ -7576,10 +7711,10 @@
     </row>
     <row r="296" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>465</v>
+        <v>433</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>466</v>
+        <v>434</v>
       </c>
       <c r="D296" s="12" t="s">
         <v>134</v>
@@ -7593,10 +7728,10 @@
     </row>
     <row r="297" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>467</v>
+        <v>435</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>118</v>
+        <v>436</v>
       </c>
       <c r="D297" s="12" t="s">
         <v>134</v>
@@ -7610,10 +7745,10 @@
     </row>
     <row r="298" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>468</v>
+        <v>437</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>469</v>
+        <v>438</v>
       </c>
       <c r="D298" s="12" t="s">
         <v>134</v>
@@ -7627,10 +7762,10 @@
     </row>
     <row r="299" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
-        <v>470</v>
+        <v>439</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>471</v>
+        <v>440</v>
       </c>
       <c r="D299" s="12" t="s">
         <v>134</v>
@@ -7644,10 +7779,10 @@
     </row>
     <row r="300" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>472</v>
+        <v>441</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>473</v>
+        <v>442</v>
       </c>
       <c r="D300" s="12" t="s">
         <v>134</v>
@@ -7661,10 +7796,10 @@
     </row>
     <row r="301" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
-        <v>667</v>
+        <v>443</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
       <c r="D301" s="12" t="s">
         <v>134</v>
@@ -7678,10 +7813,10 @@
     </row>
     <row r="302" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>218</v>
+        <v>446</v>
       </c>
       <c r="D302" s="12" t="s">
         <v>134</v>
@@ -7695,10 +7830,10 @@
     </row>
     <row r="303" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
-        <v>476</v>
+        <v>429</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>360</v>
+        <v>430</v>
       </c>
       <c r="D303" s="12" t="s">
         <v>134</v>
@@ -7712,36 +7847,33 @@
     </row>
     <row r="304" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>305</v>
+        <v>447</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>306</v>
+        <v>448</v>
       </c>
       <c r="D304" s="12" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="F304" s="12" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="H304" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="I304" s="12" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="305" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>307</v>
+        <v>449</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>308</v>
+        <v>450</v>
       </c>
       <c r="D305" s="12" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="F305" s="12" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="H305" s="12" t="s">
         <v>4</v>
@@ -7749,16 +7881,16 @@
     </row>
     <row r="306" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>424</v>
+        <v>451</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="D306" s="12" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="F306" s="12" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="H306" s="12" t="s">
         <v>4</v>
@@ -7766,16 +7898,16 @@
     </row>
     <row r="307" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
-        <v>309</v>
+        <v>453</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>310</v>
+        <v>454</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="F307" s="12" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="H307" s="12" t="s">
         <v>4</v>
@@ -7783,16 +7915,16 @@
     </row>
     <row r="308" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
-        <v>311</v>
+        <v>455</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>312</v>
+        <v>456</v>
       </c>
       <c r="D308" s="12" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="F308" s="12" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="H308" s="12" t="s">
         <v>4</v>
@@ -7800,16 +7932,16 @@
     </row>
     <row r="309" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
-        <v>313</v>
+        <v>457</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>314</v>
+        <v>458</v>
       </c>
       <c r="D309" s="12" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="F309" s="12" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="H309" s="12" t="s">
         <v>4</v>
@@ -7817,16 +7949,16 @@
     </row>
     <row r="310" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
-        <v>315</v>
+        <v>459</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>316</v>
+        <v>460</v>
       </c>
       <c r="D310" s="12" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="F310" s="12" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="H310" s="12" t="s">
         <v>4</v>
@@ -7834,16 +7966,16 @@
     </row>
     <row r="311" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
-        <v>317</v>
+        <v>461</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>12</v>
+        <v>462</v>
       </c>
       <c r="D311" s="12" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="F311" s="12" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="H311" s="12" t="s">
         <v>4</v>
@@ -7851,16 +7983,16 @@
     </row>
     <row r="312" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
-        <v>318</v>
+        <v>463</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>230</v>
+        <v>464</v>
       </c>
       <c r="D312" s="12" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="F312" s="12" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="H312" s="12" t="s">
         <v>4</v>
@@ -7868,16 +8000,16 @@
     </row>
     <row r="313" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
-        <v>319</v>
+        <v>465</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>320</v>
+        <v>466</v>
       </c>
       <c r="D313" s="12" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="F313" s="12" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="H313" s="12" t="s">
         <v>4</v>
@@ -7885,16 +8017,16 @@
     </row>
     <row r="314" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
-        <v>321</v>
+        <v>467</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>322</v>
+        <v>118</v>
       </c>
       <c r="D314" s="12" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="F314" s="12" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="H314" s="12" t="s">
         <v>4</v>
@@ -7902,16 +8034,16 @@
     </row>
     <row r="315" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
-        <v>323</v>
+        <v>468</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>324</v>
+        <v>469</v>
       </c>
       <c r="D315" s="12" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="F315" s="12" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="H315" s="12" t="s">
         <v>4</v>
@@ -7919,16 +8051,16 @@
     </row>
     <row r="316" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
-        <v>325</v>
+        <v>470</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>326</v>
+        <v>471</v>
       </c>
       <c r="D316" s="12" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="F316" s="12" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="H316" s="12" t="s">
         <v>4</v>
@@ -7936,16 +8068,16 @@
     </row>
     <row r="317" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>327</v>
+        <v>472</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>328</v>
+        <v>473</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="F317" s="12" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="H317" s="12" t="s">
         <v>4</v>
@@ -7953,16 +8085,16 @@
     </row>
     <row r="318" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>329</v>
+        <v>667</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>69</v>
+        <v>474</v>
       </c>
       <c r="D318" s="12" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="F318" s="12" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="H318" s="12" t="s">
         <v>4</v>
@@ -7970,16 +8102,16 @@
     </row>
     <row r="319" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>330</v>
+        <v>475</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>331</v>
+        <v>218</v>
       </c>
       <c r="D319" s="12" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="F319" s="12" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="H319" s="12" t="s">
         <v>4</v>
@@ -7987,61 +8119,61 @@
     </row>
     <row r="320" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>332</v>
+        <v>476</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="D320" s="12" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="F320" s="12" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="H320" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="321" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>334</v>
+        <v>704</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>335</v>
+        <v>707</v>
       </c>
       <c r="D321" s="12" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="F321" s="12" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="H321" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="322" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>336</v>
+        <v>705</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>337</v>
+        <v>706</v>
       </c>
       <c r="D322" s="12" t="s">
-        <v>303</v>
+        <v>134</v>
       </c>
       <c r="F322" s="12" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="H322" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="323" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="D323" s="12" t="s">
         <v>303</v>
@@ -8052,13 +8184,16 @@
       <c r="H323" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I323" s="12" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>669</v>
+        <v>308</v>
       </c>
       <c r="D324" s="12" t="s">
         <v>303</v>
@@ -8070,12 +8205,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>341</v>
+        <v>424</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>342</v>
+        <v>425</v>
       </c>
       <c r="D325" s="12" t="s">
         <v>303</v>
@@ -8087,12 +8222,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="D326" s="12" t="s">
         <v>303</v>
@@ -8104,12 +8239,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>245</v>
+        <v>312</v>
       </c>
       <c r="D327" s="12" t="s">
         <v>303</v>
@@ -8121,12 +8256,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="328" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
-        <v>345</v>
+        <v>313</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>41</v>
+        <v>314</v>
       </c>
       <c r="D328" s="12" t="s">
         <v>303</v>
@@ -8138,12 +8273,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="329" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="D329" s="12" t="s">
         <v>303</v>
@@ -8155,12 +8290,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>153</v>
+        <v>12</v>
       </c>
       <c r="D330" s="12" t="s">
         <v>303</v>
@@ -8172,12 +8307,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>350</v>
+        <v>230</v>
       </c>
       <c r="D331" s="12" t="s">
         <v>303</v>
@@ -8189,12 +8324,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>352</v>
+        <v>320</v>
       </c>
       <c r="D332" s="12" t="s">
         <v>303</v>
@@ -8206,12 +8341,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
-        <v>353</v>
+        <v>321</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="D333" s="12" t="s">
         <v>303</v>
@@ -8223,12 +8358,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="D334" s="12" t="s">
         <v>303</v>
@@ -8240,12 +8375,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="335" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>358</v>
+        <v>326</v>
       </c>
       <c r="D335" s="12" t="s">
         <v>303</v>
@@ -8257,12 +8392,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
-        <v>359</v>
+        <v>327</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>360</v>
+        <v>328</v>
       </c>
       <c r="D336" s="12" t="s">
         <v>303</v>
@@ -8276,10 +8411,10 @@
     </row>
     <row r="337" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>362</v>
+        <v>69</v>
       </c>
       <c r="D337" s="12" t="s">
         <v>303</v>
@@ -8293,10 +8428,10 @@
     </row>
     <row r="338" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="10" t="s">
-        <v>363</v>
+        <v>330</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>364</v>
+        <v>331</v>
       </c>
       <c r="D338" s="12" t="s">
         <v>303</v>
@@ -8310,10 +8445,10 @@
     </row>
     <row r="339" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
-        <v>365</v>
+        <v>332</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>39</v>
+        <v>333</v>
       </c>
       <c r="D339" s="12" t="s">
         <v>303</v>
@@ -8327,10 +8462,10 @@
     </row>
     <row r="340" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>367</v>
+        <v>335</v>
       </c>
       <c r="D340" s="12" t="s">
         <v>303</v>
@@ -8344,10 +8479,10 @@
     </row>
     <row r="341" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>369</v>
+        <v>337</v>
       </c>
       <c r="D341" s="12" t="s">
         <v>303</v>
@@ -8361,10 +8496,10 @@
     </row>
     <row r="342" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
-        <v>370</v>
+        <v>338</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>371</v>
+        <v>339</v>
       </c>
       <c r="D342" s="12" t="s">
         <v>303</v>
@@ -8378,10 +8513,10 @@
     </row>
     <row r="343" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
-        <v>372</v>
+        <v>340</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>373</v>
+        <v>669</v>
       </c>
       <c r="D343" s="12" t="s">
         <v>303</v>
@@ -8395,10 +8530,10 @@
     </row>
     <row r="344" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="10" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="D344" s="12" t="s">
         <v>303</v>
@@ -8412,10 +8547,10 @@
     </row>
     <row r="345" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>377</v>
+        <v>226</v>
       </c>
       <c r="D345" s="12" t="s">
         <v>303</v>
@@ -8429,10 +8564,10 @@
     </row>
     <row r="346" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="10" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>379</v>
+        <v>245</v>
       </c>
       <c r="D346" s="12" t="s">
         <v>303</v>
@@ -8446,10 +8581,10 @@
     </row>
     <row r="347" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
-        <v>380</v>
+        <v>345</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>381</v>
+        <v>41</v>
       </c>
       <c r="D347" s="12" t="s">
         <v>303</v>
@@ -8463,10 +8598,10 @@
     </row>
     <row r="348" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="D348" s="12" t="s">
         <v>303</v>
@@ -8480,10 +8615,10 @@
     </row>
     <row r="349" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>385</v>
+        <v>153</v>
       </c>
       <c r="D349" s="12" t="s">
         <v>303</v>
@@ -8497,10 +8632,10 @@
     </row>
     <row r="350" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="D350" s="12" t="s">
         <v>303</v>
@@ -8514,10 +8649,10 @@
     </row>
     <row r="351" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="10" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>196</v>
+        <v>352</v>
       </c>
       <c r="D351" s="12" t="s">
         <v>303</v>
@@ -8531,10 +8666,10 @@
     </row>
     <row r="352" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="10" t="s">
-        <v>389</v>
+        <v>353</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>151</v>
+        <v>354</v>
       </c>
       <c r="D352" s="12" t="s">
         <v>303</v>
@@ -8548,10 +8683,10 @@
     </row>
     <row r="353" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="10" t="s">
-        <v>390</v>
+        <v>355</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>302</v>
+        <v>356</v>
       </c>
       <c r="D353" s="12" t="s">
         <v>303</v>
@@ -8565,10 +8700,10 @@
     </row>
     <row r="354" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="10" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
       <c r="D354" s="12" t="s">
         <v>303</v>
@@ -8582,10 +8717,10 @@
     </row>
     <row r="355" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>273</v>
+        <v>360</v>
       </c>
       <c r="D355" s="12" t="s">
         <v>303</v>
@@ -8599,10 +8734,10 @@
     </row>
     <row r="356" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
-        <v>394</v>
+        <v>361</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="D356" s="12" t="s">
         <v>303</v>
@@ -8616,10 +8751,10 @@
     </row>
     <row r="357" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="D357" s="12" t="s">
         <v>303</v>
@@ -8633,10 +8768,10 @@
     </row>
     <row r="358" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="10" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>399</v>
+        <v>39</v>
       </c>
       <c r="D358" s="12" t="s">
         <v>303</v>
@@ -8650,10 +8785,10 @@
     </row>
     <row r="359" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="10" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="D359" s="12" t="s">
         <v>303</v>
@@ -8667,10 +8802,10 @@
     </row>
     <row r="360" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="10" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="D360" s="12" t="s">
         <v>303</v>
@@ -8684,10 +8819,10 @@
     </row>
     <row r="361" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="10" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="D361" s="12" t="s">
         <v>303</v>
@@ -8701,10 +8836,10 @@
     </row>
     <row r="362" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="10" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="D362" s="12" t="s">
         <v>303</v>
@@ -8718,10 +8853,10 @@
     </row>
     <row r="363" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="D363" s="12" t="s">
         <v>303</v>
@@ -8735,10 +8870,10 @@
     </row>
     <row r="364" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>410</v>
+        <v>377</v>
       </c>
       <c r="D364" s="12" t="s">
         <v>303</v>
@@ -8752,10 +8887,10 @@
     </row>
     <row r="365" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="10" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="D365" s="12" t="s">
         <v>303</v>
@@ -8769,10 +8904,10 @@
     </row>
     <row r="366" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="10" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="D366" s="12" t="s">
         <v>303</v>
@@ -8786,10 +8921,10 @@
     </row>
     <row r="367" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="10" t="s">
-        <v>415</v>
+        <v>382</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="D367" s="12" t="s">
         <v>303</v>
@@ -8803,10 +8938,10 @@
     </row>
     <row r="368" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="10" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="D368" s="12" t="s">
         <v>303</v>
@@ -8820,10 +8955,10 @@
     </row>
     <row r="369" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="10" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="B369" s="11" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="D369" s="12" t="s">
         <v>303</v>
@@ -8837,10 +8972,10 @@
     </row>
     <row r="370" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="10" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>423</v>
+        <v>196</v>
       </c>
       <c r="D370" s="12" t="s">
         <v>303</v>
@@ -8852,8 +8987,407 @@
         <v>4</v>
       </c>
     </row>
+    <row r="371" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B371" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D371" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F371" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H371" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B372" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D372" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F372" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H372" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="B373" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="D373" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F373" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H373" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A374" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="B374" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D374" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F374" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H374" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B375" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="D375" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F375" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H375" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B376" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="D376" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F376" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H376" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="B377" s="11" t="s">
+        <v>399</v>
+      </c>
+      <c r="D377" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F377" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H377" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="B378" s="11" t="s">
+        <v>401</v>
+      </c>
+      <c r="D378" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F378" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H378" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B379" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="D379" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F379" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H379" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A380" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B380" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D380" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F380" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H380" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="B381" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="D381" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F381" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H381" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="B382" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="D382" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F382" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H382" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A383" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="B383" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="D383" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F383" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H383" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="B384" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="D384" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F384" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H384" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="B385" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="D385" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F385" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H385" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="B386" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D386" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F386" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H386" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B387" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="D387" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F387" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H387" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="B388" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="D388" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F388" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H388" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A389" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B389" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="D389" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="F389" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="H389" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A390" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="B390" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="D390" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E390" s="12"/>
+      <c r="F390" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="G390" s="12"/>
+      <c r="H390" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A391" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="B391" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="D391" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E391" s="12"/>
+      <c r="F391" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="G391" s="12"/>
+      <c r="H391" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A392" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="B392" s="8" t="s">
+        <v>708</v>
+      </c>
+      <c r="D392" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E392" s="12"/>
+      <c r="F392" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="G392" s="12"/>
+      <c r="H392" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A393" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="B393" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="D393" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="E393" s="12"/>
+      <c r="F393" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="G393" s="12"/>
+      <c r="H393" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:I370">
+  <autoFilter ref="A1:I389">
     <sortState ref="A2:H372">
       <sortCondition ref="D2:D372"/>
       <sortCondition ref="F2:F372"/>

--- a/maps/aprop.xlsx
+++ b/maps/aprop.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$I$389</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$I$387</definedName>
   </definedNames>
   <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1967" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="734">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -1922,9 +1922,6 @@
     <t>LUNA</t>
   </si>
   <si>
-    <t>4035</t>
-  </si>
-  <si>
     <t>5120101</t>
   </si>
   <si>
@@ -1979,9 +1976,6 @@
     <t>5330502</t>
   </si>
   <si>
-    <t>*GABRIEL</t>
-  </si>
-  <si>
     <t>Gilberto;Marise;Marcelo</t>
   </si>
   <si>
@@ -2067,9 +2061,6 @@
   </si>
   <si>
     <t>4126</t>
-  </si>
-  <si>
-    <t>4213</t>
   </si>
   <si>
     <t>44137</t>
@@ -2630,10 +2621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J393"/>
+  <dimension ref="A1:J391"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2663,13 +2654,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -2678,7 +2669,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2698,7 +2689,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2805,10 +2796,10 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>9</v>
@@ -2822,10 +2813,10 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>9</v>
@@ -2839,10 +2830,10 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>9</v>
@@ -2856,10 +2847,10 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>9</v>
@@ -2873,10 +2864,10 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>9</v>
@@ -2890,10 +2881,10 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>9</v>
@@ -2907,10 +2898,10 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>9</v>
@@ -2939,7 +2930,7 @@
         <v>4</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3012,10 +3003,10 @@
     </row>
     <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>9</v>
@@ -3029,10 +3020,10 @@
     </row>
     <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>9</v>
@@ -3046,10 +3037,10 @@
     </row>
     <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>9</v>
@@ -3063,10 +3054,10 @@
     </row>
     <row r="24" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>9</v>
@@ -3080,10 +3071,10 @@
     </row>
     <row r="25" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>9</v>
@@ -3097,7 +3088,7 @@
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>446</v>
@@ -3114,7 +3105,7 @@
     </row>
     <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>118</v>
@@ -3146,7 +3137,7 @@
         <v>4</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3693,7 +3684,7 @@
         <v>4</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3885,7 +3876,7 @@
     </row>
     <row r="72" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B72" s="9" t="s">
         <v>434</v>
@@ -3902,7 +3893,7 @@
     </row>
     <row r="73" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>8</v>
@@ -3919,7 +3910,7 @@
     </row>
     <row r="74" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="B74" s="9" t="s">
         <v>111</v>
@@ -3936,10 +3927,10 @@
     </row>
     <row r="75" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>287</v>
+        <v>714</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>9</v>
@@ -3953,10 +3944,10 @@
     </row>
     <row r="76" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>9</v>
@@ -3970,10 +3961,10 @@
     </row>
     <row r="77" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>9</v>
@@ -3987,10 +3978,10 @@
     </row>
     <row r="78" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>9</v>
@@ -4004,10 +3995,10 @@
     </row>
     <row r="79" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>9</v>
@@ -4021,10 +4012,10 @@
     </row>
     <row r="80" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="B80" s="9" t="s">
-        <v>713</v>
+        <v>646</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>663</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>9</v>
@@ -4041,7 +4032,7 @@
         <v>647</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>9</v>
@@ -4058,7 +4049,7 @@
         <v>648</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>9</v>
@@ -4075,7 +4066,7 @@
         <v>649</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D83" s="12" t="s">
         <v>9</v>
@@ -4092,7 +4083,7 @@
         <v>650</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>9</v>
@@ -4109,7 +4100,7 @@
         <v>651</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>9</v>
@@ -4122,28 +4113,31 @@
       </c>
     </row>
     <row r="86" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>652</v>
+      <c r="A86" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>665</v>
+        <v>174</v>
       </c>
       <c r="D86" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>15</v>
+        <v>172</v>
       </c>
       <c r="H86" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="I86" s="12" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>5</v>
@@ -4154,16 +4148,13 @@
       <c r="H87" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I87" s="12" t="s">
-        <v>658</v>
-      </c>
     </row>
     <row r="88" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>5</v>
@@ -4177,10 +4168,10 @@
     </row>
     <row r="89" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D89" s="12" t="s">
         <v>5</v>
@@ -4194,10 +4185,10 @@
     </row>
     <row r="90" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>5</v>
@@ -4211,10 +4202,10 @@
     </row>
     <row r="91" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>5</v>
@@ -4228,10 +4219,10 @@
     </row>
     <row r="92" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>5</v>
@@ -4245,10 +4236,10 @@
     </row>
     <row r="93" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>5</v>
@@ -4262,10 +4253,10 @@
     </row>
     <row r="94" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>5</v>
@@ -4279,10 +4270,10 @@
     </row>
     <row r="95" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D95" s="12" t="s">
         <v>5</v>
@@ -4296,10 +4287,10 @@
     </row>
     <row r="96" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D96" s="12" t="s">
         <v>5</v>
@@ -4313,10 +4304,10 @@
     </row>
     <row r="97" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D97" s="12" t="s">
         <v>5</v>
@@ -4330,10 +4321,10 @@
     </row>
     <row r="98" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>5</v>
@@ -4347,10 +4338,10 @@
     </row>
     <row r="99" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>5</v>
@@ -4364,10 +4355,10 @@
     </row>
     <row r="100" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D100" s="12" t="s">
         <v>5</v>
@@ -4381,10 +4372,10 @@
     </row>
     <row r="101" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>5</v>
@@ -4398,10 +4389,10 @@
     </row>
     <row r="102" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>5</v>
@@ -4415,10 +4406,10 @@
     </row>
     <row r="103" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>5</v>
@@ -4432,10 +4423,10 @@
     </row>
     <row r="104" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>5</v>
@@ -4449,10 +4440,10 @@
     </row>
     <row r="105" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>5</v>
@@ -4466,10 +4457,10 @@
     </row>
     <row r="106" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>5</v>
@@ -4483,10 +4474,10 @@
     </row>
     <row r="107" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>5</v>
@@ -4500,10 +4491,10 @@
     </row>
     <row r="108" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>5</v>
@@ -4517,10 +4508,10 @@
     </row>
     <row r="109" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>5</v>
@@ -4534,10 +4525,10 @@
     </row>
     <row r="110" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>5</v>
@@ -4551,10 +4542,10 @@
     </row>
     <row r="111" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>5</v>
@@ -4568,10 +4559,10 @@
     </row>
     <row r="112" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>5</v>
@@ -4585,10 +4576,10 @@
     </row>
     <row r="113" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>5</v>
@@ -4602,10 +4593,10 @@
     </row>
     <row r="114" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>5</v>
@@ -4619,10 +4610,10 @@
     </row>
     <row r="115" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>5</v>
@@ -4636,10 +4627,10 @@
     </row>
     <row r="116" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>5</v>
@@ -4653,10 +4644,10 @@
     </row>
     <row r="117" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D117" s="12" t="s">
         <v>5</v>
@@ -4670,10 +4661,10 @@
     </row>
     <row r="118" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>5</v>
@@ -4687,10 +4678,10 @@
     </row>
     <row r="119" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>5</v>
@@ -4704,10 +4695,10 @@
     </row>
     <row r="120" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>5</v>
@@ -4721,10 +4712,10 @@
     </row>
     <row r="121" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>242</v>
+        <v>111</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>5</v>
@@ -4738,10 +4729,10 @@
     </row>
     <row r="122" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>111</v>
+        <v>245</v>
       </c>
       <c r="D122" s="12" t="s">
         <v>5</v>
@@ -4755,10 +4746,10 @@
     </row>
     <row r="123" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D123" s="12" t="s">
         <v>5</v>
@@ -4772,10 +4763,10 @@
     </row>
     <row r="124" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D124" s="12" t="s">
         <v>5</v>
@@ -4789,10 +4780,10 @@
     </row>
     <row r="125" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>249</v>
+        <v>149</v>
       </c>
       <c r="D125" s="12" t="s">
         <v>5</v>
@@ -4806,10 +4797,10 @@
     </row>
     <row r="126" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>149</v>
+        <v>252</v>
       </c>
       <c r="D126" s="12" t="s">
         <v>5</v>
@@ -4823,10 +4814,10 @@
     </row>
     <row r="127" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D127" s="12" t="s">
         <v>5</v>
@@ -4840,10 +4831,10 @@
     </row>
     <row r="128" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>254</v>
+        <v>48</v>
       </c>
       <c r="D128" s="12" t="s">
         <v>5</v>
@@ -4857,10 +4848,10 @@
     </row>
     <row r="129" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>48</v>
+        <v>257</v>
       </c>
       <c r="D129" s="12" t="s">
         <v>5</v>
@@ -4874,10 +4865,10 @@
     </row>
     <row r="130" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D130" s="12" t="s">
         <v>5</v>
@@ -4891,10 +4882,10 @@
     </row>
     <row r="131" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D131" s="12" t="s">
         <v>5</v>
@@ -4908,10 +4899,10 @@
     </row>
     <row r="132" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D132" s="12" t="s">
         <v>5</v>
@@ -4925,10 +4916,10 @@
     </row>
     <row r="133" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D133" s="12" t="s">
         <v>5</v>
@@ -4942,10 +4933,10 @@
     </row>
     <row r="134" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D134" s="12" t="s">
         <v>5</v>
@@ -4959,10 +4950,10 @@
     </row>
     <row r="135" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D135" s="12" t="s">
         <v>5</v>
@@ -4976,10 +4967,10 @@
     </row>
     <row r="136" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D136" s="12" t="s">
         <v>5</v>
@@ -4993,10 +4984,10 @@
     </row>
     <row r="137" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D137" s="12" t="s">
         <v>5</v>
@@ -5010,10 +5001,10 @@
     </row>
     <row r="138" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D138" s="12" t="s">
         <v>5</v>
@@ -5027,10 +5018,10 @@
     </row>
     <row r="139" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D139" s="12" t="s">
         <v>5</v>
@@ -5044,10 +5035,10 @@
     </row>
     <row r="140" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>5</v>
@@ -5061,10 +5052,10 @@
     </row>
     <row r="141" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="D141" s="12" t="s">
         <v>5</v>
@@ -5078,10 +5069,10 @@
     </row>
     <row r="142" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>5</v>
@@ -5095,10 +5086,10 @@
     </row>
     <row r="143" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D143" s="12" t="s">
         <v>5</v>
@@ -5112,10 +5103,10 @@
     </row>
     <row r="144" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D144" s="12" t="s">
         <v>5</v>
@@ -5129,10 +5120,10 @@
     </row>
     <row r="145" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>287</v>
+        <v>153</v>
       </c>
       <c r="D145" s="12" t="s">
         <v>5</v>
@@ -5146,10 +5137,10 @@
     </row>
     <row r="146" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="D146" s="12" t="s">
         <v>5</v>
@@ -5163,10 +5154,10 @@
     </row>
     <row r="147" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D147" s="12" t="s">
         <v>5</v>
@@ -5180,10 +5171,10 @@
     </row>
     <row r="148" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D148" s="12" t="s">
         <v>5</v>
@@ -5197,10 +5188,10 @@
     </row>
     <row r="149" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D149" s="12" t="s">
         <v>5</v>
@@ -5214,10 +5205,10 @@
     </row>
     <row r="150" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D150" s="12" t="s">
         <v>5</v>
@@ -5231,10 +5222,10 @@
     </row>
     <row r="151" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D151" s="12" t="s">
         <v>5</v>
@@ -5248,10 +5239,10 @@
     </row>
     <row r="152" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D152" s="12" t="s">
         <v>5</v>
@@ -5265,27 +5256,30 @@
     </row>
     <row r="153" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
-        <v>301</v>
+        <v>578</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>302</v>
+        <v>579</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>5</v>
+        <v>542</v>
       </c>
       <c r="F153" s="12" t="s">
         <v>172</v>
       </c>
       <c r="H153" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="I153" s="12" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="154" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D154" s="12" t="s">
         <v>542</v>
@@ -5296,16 +5290,13 @@
       <c r="H154" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I154" s="12" t="s">
-        <v>663</v>
-      </c>
     </row>
     <row r="155" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D155" s="12" t="s">
         <v>542</v>
@@ -5319,10 +5310,10 @@
     </row>
     <row r="156" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>583</v>
+        <v>14</v>
       </c>
       <c r="D156" s="12" t="s">
         <v>542</v>
@@ -5336,10 +5327,10 @@
     </row>
     <row r="157" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>14</v>
+        <v>586</v>
       </c>
       <c r="D157" s="12" t="s">
         <v>542</v>
@@ -5353,10 +5344,10 @@
     </row>
     <row r="158" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="D158" s="12" t="s">
         <v>542</v>
@@ -5370,10 +5361,10 @@
     </row>
     <row r="159" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="D159" s="12" t="s">
         <v>542</v>
@@ -5387,10 +5378,10 @@
     </row>
     <row r="160" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="D160" s="12" t="s">
         <v>542</v>
@@ -5404,10 +5395,10 @@
     </row>
     <row r="161" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D161" s="12" t="s">
         <v>542</v>
@@ -5421,10 +5412,10 @@
     </row>
     <row r="162" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="D162" s="12" t="s">
         <v>542</v>
@@ -5438,10 +5429,10 @@
     </row>
     <row r="163" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="D163" s="12" t="s">
         <v>542</v>
@@ -5455,10 +5446,10 @@
     </row>
     <row r="164" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D164" s="12" t="s">
         <v>542</v>
@@ -5472,10 +5463,10 @@
     </row>
     <row r="165" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="D165" s="12" t="s">
         <v>542</v>
@@ -5489,10 +5480,10 @@
     </row>
     <row r="166" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="D166" s="12" t="s">
         <v>542</v>
@@ -5506,10 +5497,10 @@
     </row>
     <row r="167" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D167" s="12" t="s">
         <v>542</v>
@@ -5523,10 +5514,10 @@
     </row>
     <row r="168" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="D168" s="12" t="s">
         <v>542</v>
@@ -5540,10 +5531,10 @@
     </row>
     <row r="169" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D169" s="12" t="s">
         <v>542</v>
@@ -5557,10 +5548,10 @@
     </row>
     <row r="170" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="D170" s="12" t="s">
         <v>542</v>
@@ -5574,10 +5565,10 @@
     </row>
     <row r="171" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>612</v>
+        <v>377</v>
       </c>
       <c r="D171" s="12" t="s">
         <v>542</v>
@@ -5591,10 +5582,10 @@
     </row>
     <row r="172" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>377</v>
+        <v>615</v>
       </c>
       <c r="D172" s="12" t="s">
         <v>542</v>
@@ -5608,10 +5599,10 @@
     </row>
     <row r="173" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="D173" s="12" t="s">
         <v>542</v>
@@ -5625,10 +5616,10 @@
     </row>
     <row r="174" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="D174" s="12" t="s">
         <v>542</v>
@@ -5642,10 +5633,10 @@
     </row>
     <row r="175" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D175" s="12" t="s">
         <v>542</v>
@@ -5659,10 +5650,10 @@
     </row>
     <row r="176" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>621</v>
+        <v>362</v>
       </c>
       <c r="D176" s="12" t="s">
         <v>542</v>
@@ -5676,10 +5667,10 @@
     </row>
     <row r="177" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>362</v>
+        <v>13</v>
       </c>
       <c r="D177" s="12" t="s">
         <v>542</v>
@@ -5693,10 +5684,10 @@
     </row>
     <row r="178" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>13</v>
+        <v>625</v>
       </c>
       <c r="D178" s="12" t="s">
         <v>542</v>
@@ -5710,10 +5701,10 @@
     </row>
     <row r="179" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
-        <v>624</v>
+        <v>668</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D179" s="12" t="s">
         <v>542</v>
@@ -5727,10 +5718,10 @@
     </row>
     <row r="180" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
-        <v>670</v>
+        <v>628</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>627</v>
+        <v>226</v>
       </c>
       <c r="D180" s="12" t="s">
         <v>542</v>
@@ -5744,10 +5735,10 @@
     </row>
     <row r="181" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>226</v>
+        <v>495</v>
       </c>
       <c r="D181" s="12" t="s">
         <v>542</v>
@@ -5761,10 +5752,10 @@
     </row>
     <row r="182" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>495</v>
+        <v>631</v>
       </c>
       <c r="D182" s="12" t="s">
         <v>542</v>
@@ -5778,10 +5769,10 @@
     </row>
     <row r="183" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>631</v>
+        <v>328</v>
       </c>
       <c r="D183" s="12" t="s">
         <v>542</v>
@@ -5795,10 +5786,10 @@
     </row>
     <row r="184" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>328</v>
+        <v>633</v>
       </c>
       <c r="D184" s="12" t="s">
         <v>542</v>
@@ -5812,10 +5803,10 @@
     </row>
     <row r="185" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
-        <v>632</v>
+        <v>698</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>633</v>
+        <v>700</v>
       </c>
       <c r="D185" s="12" t="s">
         <v>542</v>
@@ -5829,10 +5820,10 @@
     </row>
     <row r="186" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
-        <v>634</v>
+        <v>699</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>653</v>
+        <v>733</v>
       </c>
       <c r="D186" s="12" t="s">
         <v>542</v>
@@ -5846,33 +5837,36 @@
     </row>
     <row r="187" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
-        <v>701</v>
+        <v>543</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>703</v>
+        <v>11</v>
       </c>
       <c r="D187" s="12" t="s">
         <v>542</v>
       </c>
       <c r="F187" s="12" t="s">
-        <v>172</v>
+        <v>577</v>
       </c>
       <c r="H187" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="I187" s="12" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="188" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
-        <v>702</v>
+        <v>544</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>736</v>
+        <v>545</v>
       </c>
       <c r="D188" s="12" t="s">
         <v>542</v>
       </c>
       <c r="F188" s="12" t="s">
-        <v>172</v>
+        <v>577</v>
       </c>
       <c r="H188" s="12" t="s">
         <v>4</v>
@@ -5880,10 +5874,10 @@
     </row>
     <row r="189" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>11</v>
+        <v>547</v>
       </c>
       <c r="D189" s="12" t="s">
         <v>542</v>
@@ -5894,16 +5888,13 @@
       <c r="H189" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I189" s="12" t="s">
-        <v>662</v>
-      </c>
     </row>
     <row r="190" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="D190" s="12" t="s">
         <v>542</v>
@@ -5917,10 +5908,10 @@
     </row>
     <row r="191" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="D191" s="12" t="s">
         <v>542</v>
@@ -5934,10 +5925,10 @@
     </row>
     <row r="192" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D192" s="12" t="s">
         <v>542</v>
@@ -5951,10 +5942,10 @@
     </row>
     <row r="193" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
-        <v>550</v>
+        <v>510</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>551</v>
+        <v>666</v>
       </c>
       <c r="D193" s="12" t="s">
         <v>542</v>
@@ -5968,10 +5959,10 @@
     </row>
     <row r="194" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D194" s="12" t="s">
         <v>542</v>
@@ -5985,10 +5976,10 @@
     </row>
     <row r="195" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
-        <v>510</v>
+        <v>556</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>668</v>
+        <v>557</v>
       </c>
       <c r="D195" s="12" t="s">
         <v>542</v>
@@ -6002,10 +5993,10 @@
     </row>
     <row r="196" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>555</v>
+        <v>226</v>
       </c>
       <c r="D196" s="12" t="s">
         <v>542</v>
@@ -6019,10 +6010,10 @@
     </row>
     <row r="197" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="D197" s="12" t="s">
         <v>542</v>
@@ -6036,10 +6027,10 @@
     </row>
     <row r="198" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>226</v>
+        <v>562</v>
       </c>
       <c r="D198" s="12" t="s">
         <v>542</v>
@@ -6053,10 +6044,10 @@
     </row>
     <row r="199" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="D199" s="12" t="s">
         <v>542</v>
@@ -6070,10 +6061,10 @@
     </row>
     <row r="200" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="D200" s="12" t="s">
         <v>542</v>
@@ -6087,10 +6078,10 @@
     </row>
     <row r="201" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="D201" s="12" t="s">
         <v>542</v>
@@ -6104,10 +6095,10 @@
     </row>
     <row r="202" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="D202" s="12" t="s">
         <v>542</v>
@@ -6121,10 +6112,10 @@
     </row>
     <row r="203" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
-        <v>569</v>
+        <v>532</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>570</v>
+        <v>533</v>
       </c>
       <c r="D203" s="12" t="s">
         <v>542</v>
@@ -6138,10 +6129,10 @@
     </row>
     <row r="204" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
-        <v>571</v>
+        <v>421</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>572</v>
+        <v>677</v>
       </c>
       <c r="D204" s="12" t="s">
         <v>542</v>
@@ -6155,10 +6146,10 @@
     </row>
     <row r="205" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
-        <v>532</v>
+        <v>563</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>533</v>
+        <v>564</v>
       </c>
       <c r="D205" s="12" t="s">
         <v>542</v>
@@ -6172,10 +6163,10 @@
     </row>
     <row r="206" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
-        <v>421</v>
+        <v>573</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>679</v>
+        <v>574</v>
       </c>
       <c r="D206" s="12" t="s">
         <v>542</v>
@@ -6189,10 +6180,10 @@
     </row>
     <row r="207" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
-        <v>563</v>
+        <v>575</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="D207" s="12" t="s">
         <v>542</v>
@@ -6206,10 +6197,10 @@
     </row>
     <row r="208" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
-        <v>573</v>
+        <v>715</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>574</v>
+        <v>716</v>
       </c>
       <c r="D208" s="12" t="s">
         <v>542</v>
@@ -6223,10 +6214,10 @@
     </row>
     <row r="209" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
-        <v>575</v>
+        <v>717</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>576</v>
+        <v>718</v>
       </c>
       <c r="D209" s="12" t="s">
         <v>542</v>
@@ -6240,10 +6231,10 @@
     </row>
     <row r="210" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D210" s="12" t="s">
         <v>542</v>
@@ -6257,10 +6248,10 @@
     </row>
     <row r="211" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D211" s="12" t="s">
         <v>542</v>
@@ -6274,10 +6265,10 @@
     </row>
     <row r="212" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D212" s="12" t="s">
         <v>542</v>
@@ -6291,10 +6282,10 @@
     </row>
     <row r="213" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D213" s="12" t="s">
         <v>542</v>
@@ -6308,10 +6299,10 @@
     </row>
     <row r="214" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D214" s="12" t="s">
         <v>542</v>
@@ -6325,10 +6316,10 @@
     </row>
     <row r="215" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D215" s="12" t="s">
         <v>542</v>
@@ -6342,10 +6333,10 @@
     </row>
     <row r="216" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D216" s="12" t="s">
         <v>542</v>
@@ -6359,10 +6350,10 @@
     </row>
     <row r="217" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
-        <v>732</v>
+        <v>642</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>733</v>
+        <v>663</v>
       </c>
       <c r="D217" s="12" t="s">
         <v>542</v>
@@ -6376,10 +6367,10 @@
     </row>
     <row r="218" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
-        <v>734</v>
+        <v>640</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>735</v>
+        <v>663</v>
       </c>
       <c r="D218" s="12" t="s">
         <v>542</v>
@@ -6393,10 +6384,10 @@
     </row>
     <row r="219" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D219" s="12" t="s">
         <v>542</v>
@@ -6410,10 +6401,10 @@
     </row>
     <row r="220" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D220" s="12" t="s">
         <v>542</v>
@@ -6427,10 +6418,10 @@
     </row>
     <row r="221" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D221" s="12" t="s">
         <v>542</v>
@@ -6444,10 +6435,10 @@
     </row>
     <row r="222" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D222" s="12" t="s">
         <v>542</v>
@@ -6461,16 +6452,16 @@
     </row>
     <row r="223" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
-        <v>645</v>
+        <v>114</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>665</v>
+        <v>115</v>
       </c>
       <c r="D223" s="12" t="s">
-        <v>542</v>
+        <v>108</v>
       </c>
       <c r="F223" s="12" t="s">
-        <v>577</v>
+        <v>109</v>
       </c>
       <c r="H223" s="12" t="s">
         <v>4</v>
@@ -6478,16 +6469,16 @@
     </row>
     <row r="224" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
-        <v>646</v>
+        <v>112</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>665</v>
+        <v>113</v>
       </c>
       <c r="D224" s="12" t="s">
-        <v>542</v>
+        <v>108</v>
       </c>
       <c r="F224" s="12" t="s">
-        <v>577</v>
+        <v>109</v>
       </c>
       <c r="H224" s="12" t="s">
         <v>4</v>
@@ -6495,10 +6486,10 @@
     </row>
     <row r="225" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D225" s="12" t="s">
         <v>108</v>
@@ -6509,10 +6500,13 @@
       <c r="H225" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="I225" s="12" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="226" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B226" s="11" t="s">
         <v>113</v>
@@ -6529,10 +6523,10 @@
     </row>
     <row r="227" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D227" s="12" t="s">
         <v>108</v>
@@ -6543,16 +6537,13 @@
       <c r="H227" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I227" s="12" t="s">
-        <v>657</v>
-      </c>
     </row>
     <row r="228" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D228" s="12" t="s">
         <v>108</v>
@@ -6566,10 +6557,10 @@
     </row>
     <row r="229" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D229" s="12" t="s">
         <v>108</v>
@@ -6583,10 +6574,10 @@
     </row>
     <row r="230" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D230" s="12" t="s">
         <v>108</v>
@@ -6600,10 +6591,10 @@
     </row>
     <row r="231" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D231" s="12" t="s">
         <v>108</v>
@@ -6617,10 +6608,10 @@
     </row>
     <row r="232" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D232" s="12" t="s">
         <v>108</v>
@@ -6634,10 +6625,10 @@
     </row>
     <row r="233" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D233" s="12" t="s">
         <v>108</v>
@@ -6651,10 +6642,10 @@
     </row>
     <row r="234" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D234" s="12" t="s">
         <v>108</v>
@@ -6668,10 +6659,10 @@
     </row>
     <row r="235" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D235" s="12" t="s">
         <v>108</v>
@@ -6685,10 +6676,10 @@
     </row>
     <row r="236" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D236" s="12" t="s">
         <v>108</v>
@@ -6702,10 +6693,10 @@
     </row>
     <row r="237" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D237" s="12" t="s">
         <v>108</v>
@@ -6719,10 +6710,10 @@
     </row>
     <row r="238" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="D238" s="12" t="s">
         <v>108</v>
@@ -6736,10 +6727,10 @@
     </row>
     <row r="239" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D239" s="12" t="s">
         <v>108</v>
@@ -6753,10 +6744,10 @@
     </row>
     <row r="240" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="D240" s="12" t="s">
         <v>108</v>
@@ -6768,12 +6759,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="241" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="D241" s="12" t="s">
         <v>108</v>
@@ -6785,12 +6776,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="242" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D242" s="12" t="s">
         <v>108</v>
@@ -6802,12 +6793,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="243" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D243" s="12" t="s">
         <v>108</v>
@@ -6819,12 +6810,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="244" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D244" s="12" t="s">
         <v>108</v>
@@ -6836,12 +6827,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="245" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D245" s="12" t="s">
         <v>108</v>
@@ -6853,12 +6844,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="246" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D246" s="12" t="s">
         <v>108</v>
@@ -6870,12 +6861,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="247" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D247" s="12" t="s">
         <v>108</v>
@@ -6887,12 +6878,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="248" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D248" s="12" t="s">
         <v>108</v>
@@ -6904,12 +6895,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="249" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D249" s="12" t="s">
         <v>108</v>
@@ -6921,12 +6912,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D250" s="12" t="s">
         <v>108</v>
@@ -6938,12 +6929,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="251" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D251" s="12" t="s">
         <v>108</v>
@@ -6955,12 +6946,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D252" s="12" t="s">
         <v>108</v>
@@ -6972,12 +6963,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="253" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D253" s="12" t="s">
         <v>108</v>
@@ -6989,12 +6980,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="254" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D254" s="12" t="s">
         <v>108</v>
@@ -7006,46 +6997,49 @@
         <v>4</v>
       </c>
     </row>
-    <row r="255" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
-        <v>168</v>
+        <v>477</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>169</v>
+        <v>478</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="F255" s="12" t="s">
-        <v>109</v>
+        <v>304</v>
       </c>
       <c r="H255" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I255" s="12" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
-        <v>170</v>
+        <v>479</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>171</v>
+        <v>480</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="F256" s="12" t="s">
-        <v>109</v>
+        <v>304</v>
       </c>
       <c r="H256" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>478</v>
+        <v>184</v>
       </c>
       <c r="D257" s="12" t="s">
         <v>134</v>
@@ -7056,16 +7050,13 @@
       <c r="H257" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I257" s="12" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="258" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="258" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>480</v>
+        <v>281</v>
       </c>
       <c r="D258" s="12" t="s">
         <v>134</v>
@@ -7077,12 +7068,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>184</v>
+        <v>484</v>
       </c>
       <c r="D259" s="12" t="s">
         <v>134</v>
@@ -7094,12 +7085,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>281</v>
+        <v>228</v>
       </c>
       <c r="D260" s="12" t="s">
         <v>134</v>
@@ -7111,12 +7102,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="261" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="D261" s="12" t="s">
         <v>134</v>
@@ -7128,12 +7119,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="262" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>228</v>
+        <v>489</v>
       </c>
       <c r="D262" s="12" t="s">
         <v>134</v>
@@ -7145,12 +7136,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="263" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="D263" s="12" t="s">
         <v>134</v>
@@ -7162,12 +7153,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="D264" s="12" t="s">
         <v>134</v>
@@ -7179,12 +7170,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="D265" s="12" t="s">
         <v>134</v>
@@ -7196,12 +7187,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="D266" s="12" t="s">
         <v>134</v>
@@ -7213,12 +7204,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="D267" s="12" t="s">
         <v>134</v>
@@ -7230,12 +7221,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="D268" s="12" t="s">
         <v>134</v>
@@ -7247,12 +7238,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="269" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D269" s="12" t="s">
         <v>134</v>
@@ -7264,12 +7255,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="270" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="D270" s="12" t="s">
         <v>134</v>
@@ -7281,12 +7272,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="271" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>503</v>
+        <v>283</v>
       </c>
       <c r="D271" s="12" t="s">
         <v>134</v>
@@ -7298,12 +7289,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="272" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="D272" s="12" t="s">
         <v>134</v>
@@ -7317,10 +7308,10 @@
     </row>
     <row r="273" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>283</v>
+        <v>190</v>
       </c>
       <c r="D273" s="12" t="s">
         <v>134</v>
@@ -7334,10 +7325,10 @@
     </row>
     <row r="274" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>508</v>
+        <v>454</v>
       </c>
       <c r="D274" s="12" t="s">
         <v>134</v>
@@ -7351,10 +7342,10 @@
     </row>
     <row r="275" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>190</v>
+        <v>513</v>
       </c>
       <c r="D275" s="12" t="s">
         <v>134</v>
@@ -7368,10 +7359,10 @@
     </row>
     <row r="276" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>454</v>
+        <v>471</v>
       </c>
       <c r="D276" s="12" t="s">
         <v>134</v>
@@ -7385,10 +7376,10 @@
     </row>
     <row r="277" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="D277" s="12" t="s">
         <v>134</v>
@@ -7402,10 +7393,10 @@
     </row>
     <row r="278" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>471</v>
+        <v>518</v>
       </c>
       <c r="D278" s="12" t="s">
         <v>134</v>
@@ -7419,10 +7410,10 @@
     </row>
     <row r="279" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D279" s="12" t="s">
         <v>134</v>
@@ -7436,10 +7427,10 @@
     </row>
     <row r="280" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D280" s="12" t="s">
         <v>134</v>
@@ -7453,10 +7444,10 @@
     </row>
     <row r="281" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D281" s="12" t="s">
         <v>134</v>
@@ -7470,10 +7461,10 @@
     </row>
     <row r="282" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D282" s="12" t="s">
         <v>134</v>
@@ -7487,10 +7478,10 @@
     </row>
     <row r="283" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>524</v>
+        <v>283</v>
       </c>
       <c r="D283" s="12" t="s">
         <v>134</v>
@@ -7504,10 +7495,10 @@
     </row>
     <row r="284" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="D284" s="12" t="s">
         <v>134</v>
@@ -7521,10 +7512,10 @@
     </row>
     <row r="285" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>283</v>
+        <v>531</v>
       </c>
       <c r="D285" s="12" t="s">
         <v>134</v>
@@ -7538,10 +7529,10 @@
     </row>
     <row r="286" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>529</v>
+        <v>448</v>
       </c>
       <c r="D286" s="12" t="s">
         <v>134</v>
@@ -7555,10 +7546,10 @@
     </row>
     <row r="287" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
-        <v>530</v>
+        <v>535</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>531</v>
+        <v>536</v>
       </c>
       <c r="D287" s="12" t="s">
         <v>134</v>
@@ -7572,10 +7563,10 @@
     </row>
     <row r="288" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>448</v>
+        <v>538</v>
       </c>
       <c r="D288" s="12" t="s">
         <v>134</v>
@@ -7589,10 +7580,10 @@
     </row>
     <row r="289" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="D289" s="12" t="s">
         <v>134</v>
@@ -7606,10 +7597,10 @@
     </row>
     <row r="290" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>538</v>
+        <v>159</v>
       </c>
       <c r="D290" s="12" t="s">
         <v>134</v>
@@ -7623,33 +7614,36 @@
     </row>
     <row r="291" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>539</v>
+        <v>664</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>540</v>
+        <v>427</v>
       </c>
       <c r="D291" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F291" s="12" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="H291" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="I291" s="12" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="292" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>541</v>
+        <v>428</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="D292" s="12" t="s">
         <v>134</v>
       </c>
       <c r="F292" s="12" t="s">
-        <v>304</v>
+        <v>426</v>
       </c>
       <c r="H292" s="12" t="s">
         <v>4</v>
@@ -7657,10 +7651,10 @@
     </row>
     <row r="293" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>666</v>
+        <v>431</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="D293" s="12" t="s">
         <v>134</v>
@@ -7671,16 +7665,13 @@
       <c r="H293" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I293" s="12" t="s">
-        <v>660</v>
-      </c>
     </row>
     <row r="294" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>12</v>
+        <v>434</v>
       </c>
       <c r="D294" s="12" t="s">
         <v>134</v>
@@ -7694,10 +7685,10 @@
     </row>
     <row r="295" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D295" s="12" t="s">
         <v>134</v>
@@ -7711,10 +7702,10 @@
     </row>
     <row r="296" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D296" s="12" t="s">
         <v>134</v>
@@ -7728,10 +7719,10 @@
     </row>
     <row r="297" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D297" s="12" t="s">
         <v>134</v>
@@ -7745,10 +7736,10 @@
     </row>
     <row r="298" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="D298" s="12" t="s">
         <v>134</v>
@@ -7762,10 +7753,10 @@
     </row>
     <row r="299" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D299" s="12" t="s">
         <v>134</v>
@@ -7779,10 +7770,10 @@
     </row>
     <row r="300" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D300" s="12" t="s">
         <v>134</v>
@@ -7796,10 +7787,10 @@
     </row>
     <row r="301" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="D301" s="12" t="s">
         <v>134</v>
@@ -7813,10 +7804,10 @@
     </row>
     <row r="302" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D302" s="12" t="s">
         <v>134</v>
@@ -7830,10 +7821,10 @@
     </row>
     <row r="303" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>430</v>
+        <v>450</v>
       </c>
       <c r="D303" s="12" t="s">
         <v>134</v>
@@ -7847,10 +7838,10 @@
     </row>
     <row r="304" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="D304" s="12" t="s">
         <v>134</v>
@@ -7864,10 +7855,10 @@
     </row>
     <row r="305" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D305" s="12" t="s">
         <v>134</v>
@@ -7881,10 +7872,10 @@
     </row>
     <row r="306" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D306" s="12" t="s">
         <v>134</v>
@@ -7898,10 +7889,10 @@
     </row>
     <row r="307" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="D307" s="12" t="s">
         <v>134</v>
@@ -7915,10 +7906,10 @@
     </row>
     <row r="308" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D308" s="12" t="s">
         <v>134</v>
@@ -7932,10 +7923,10 @@
     </row>
     <row r="309" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="D309" s="12" t="s">
         <v>134</v>
@@ -7949,10 +7940,10 @@
     </row>
     <row r="310" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="D310" s="12" t="s">
         <v>134</v>
@@ -7966,10 +7957,10 @@
     </row>
     <row r="311" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D311" s="12" t="s">
         <v>134</v>
@@ -7983,10 +7974,10 @@
     </row>
     <row r="312" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>464</v>
+        <v>118</v>
       </c>
       <c r="D312" s="12" t="s">
         <v>134</v>
@@ -8000,10 +7991,10 @@
     </row>
     <row r="313" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="D313" s="12" t="s">
         <v>134</v>
@@ -8017,10 +8008,10 @@
     </row>
     <row r="314" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>118</v>
+        <v>471</v>
       </c>
       <c r="D314" s="12" t="s">
         <v>134</v>
@@ -8034,10 +8025,10 @@
     </row>
     <row r="315" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="D315" s="12" t="s">
         <v>134</v>
@@ -8051,10 +8042,10 @@
     </row>
     <row r="316" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
-        <v>470</v>
+        <v>665</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="D316" s="12" t="s">
         <v>134</v>
@@ -8068,10 +8059,10 @@
     </row>
     <row r="317" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>473</v>
+        <v>218</v>
       </c>
       <c r="D317" s="12" t="s">
         <v>134</v>
@@ -8085,10 +8076,10 @@
     </row>
     <row r="318" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>667</v>
+        <v>476</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>474</v>
+        <v>360</v>
       </c>
       <c r="D318" s="12" t="s">
         <v>134</v>
@@ -8102,10 +8093,10 @@
     </row>
     <row r="319" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>475</v>
+        <v>701</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>218</v>
+        <v>704</v>
       </c>
       <c r="D319" s="12" t="s">
         <v>134</v>
@@ -8119,10 +8110,10 @@
     </row>
     <row r="320" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>476</v>
+        <v>702</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>360</v>
+        <v>703</v>
       </c>
       <c r="D320" s="12" t="s">
         <v>134</v>
@@ -8136,33 +8127,36 @@
     </row>
     <row r="321" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>704</v>
+        <v>305</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>707</v>
+        <v>306</v>
       </c>
       <c r="D321" s="12" t="s">
-        <v>134</v>
+        <v>303</v>
       </c>
       <c r="F321" s="12" t="s">
-        <v>426</v>
+        <v>304</v>
       </c>
       <c r="H321" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="I321" s="12" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>705</v>
+        <v>307</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>706</v>
+        <v>308</v>
       </c>
       <c r="D322" s="12" t="s">
-        <v>134</v>
+        <v>303</v>
       </c>
       <c r="F322" s="12" t="s">
-        <v>426</v>
+        <v>304</v>
       </c>
       <c r="H322" s="12" t="s">
         <v>4</v>
@@ -8170,10 +8164,10 @@
     </row>
     <row r="323" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>305</v>
+        <v>424</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>306</v>
+        <v>425</v>
       </c>
       <c r="D323" s="12" t="s">
         <v>303</v>
@@ -8184,16 +8178,13 @@
       <c r="H323" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I323" s="12" t="s">
-        <v>659</v>
-      </c>
     </row>
     <row r="324" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D324" s="12" t="s">
         <v>303</v>
@@ -8207,10 +8198,10 @@
     </row>
     <row r="325" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>424</v>
+        <v>311</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>425</v>
+        <v>312</v>
       </c>
       <c r="D325" s="12" t="s">
         <v>303</v>
@@ -8224,10 +8215,10 @@
     </row>
     <row r="326" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="D326" s="12" t="s">
         <v>303</v>
@@ -8241,10 +8232,10 @@
     </row>
     <row r="327" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="D327" s="12" t="s">
         <v>303</v>
@@ -8258,10 +8249,10 @@
     </row>
     <row r="328" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>314</v>
+        <v>12</v>
       </c>
       <c r="D328" s="12" t="s">
         <v>303</v>
@@ -8275,10 +8266,10 @@
     </row>
     <row r="329" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>316</v>
+        <v>230</v>
       </c>
       <c r="D329" s="12" t="s">
         <v>303</v>
@@ -8292,10 +8283,10 @@
     </row>
     <row r="330" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>12</v>
+        <v>320</v>
       </c>
       <c r="D330" s="12" t="s">
         <v>303</v>
@@ -8309,10 +8300,10 @@
     </row>
     <row r="331" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>230</v>
+        <v>322</v>
       </c>
       <c r="D331" s="12" t="s">
         <v>303</v>
@@ -8326,10 +8317,10 @@
     </row>
     <row r="332" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="D332" s="12" t="s">
         <v>303</v>
@@ -8343,10 +8334,10 @@
     </row>
     <row r="333" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="D333" s="12" t="s">
         <v>303</v>
@@ -8360,10 +8351,10 @@
     </row>
     <row r="334" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="D334" s="12" t="s">
         <v>303</v>
@@ -8377,10 +8368,10 @@
     </row>
     <row r="335" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>326</v>
+        <v>69</v>
       </c>
       <c r="D335" s="12" t="s">
         <v>303</v>
@@ -8394,10 +8385,10 @@
     </row>
     <row r="336" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="D336" s="12" t="s">
         <v>303</v>
@@ -8411,10 +8402,10 @@
     </row>
     <row r="337" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>69</v>
+        <v>333</v>
       </c>
       <c r="D337" s="12" t="s">
         <v>303</v>
@@ -8428,10 +8419,10 @@
     </row>
     <row r="338" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="10" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="D338" s="12" t="s">
         <v>303</v>
@@ -8445,10 +8436,10 @@
     </row>
     <row r="339" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D339" s="12" t="s">
         <v>303</v>
@@ -8462,10 +8453,10 @@
     </row>
     <row r="340" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="D340" s="12" t="s">
         <v>303</v>
@@ -8479,10 +8470,10 @@
     </row>
     <row r="341" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>337</v>
+        <v>667</v>
       </c>
       <c r="D341" s="12" t="s">
         <v>303</v>
@@ -8496,10 +8487,10 @@
     </row>
     <row r="342" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="D342" s="12" t="s">
         <v>303</v>
@@ -8513,10 +8504,10 @@
     </row>
     <row r="343" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>669</v>
+        <v>226</v>
       </c>
       <c r="D343" s="12" t="s">
         <v>303</v>
@@ -8530,10 +8521,10 @@
     </row>
     <row r="344" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="10" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>342</v>
+        <v>245</v>
       </c>
       <c r="D344" s="12" t="s">
         <v>303</v>
@@ -8547,10 +8538,10 @@
     </row>
     <row r="345" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>226</v>
+        <v>41</v>
       </c>
       <c r="D345" s="12" t="s">
         <v>303</v>
@@ -8564,10 +8555,10 @@
     </row>
     <row r="346" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="10" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>245</v>
+        <v>347</v>
       </c>
       <c r="D346" s="12" t="s">
         <v>303</v>
@@ -8581,10 +8572,10 @@
     </row>
     <row r="347" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>41</v>
+        <v>153</v>
       </c>
       <c r="D347" s="12" t="s">
         <v>303</v>
@@ -8598,10 +8589,10 @@
     </row>
     <row r="348" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D348" s="12" t="s">
         <v>303</v>
@@ -8615,10 +8606,10 @@
     </row>
     <row r="349" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>153</v>
+        <v>352</v>
       </c>
       <c r="D349" s="12" t="s">
         <v>303</v>
@@ -8632,10 +8623,10 @@
     </row>
     <row r="350" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D350" s="12" t="s">
         <v>303</v>
@@ -8649,10 +8640,10 @@
     </row>
     <row r="351" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="10" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D351" s="12" t="s">
         <v>303</v>
@@ -8666,10 +8657,10 @@
     </row>
     <row r="352" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="10" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="D352" s="12" t="s">
         <v>303</v>
@@ -8683,10 +8674,10 @@
     </row>
     <row r="353" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="10" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="D353" s="12" t="s">
         <v>303</v>
@@ -8700,10 +8691,10 @@
     </row>
     <row r="354" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="10" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D354" s="12" t="s">
         <v>303</v>
@@ -8717,10 +8708,10 @@
     </row>
     <row r="355" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="D355" s="12" t="s">
         <v>303</v>
@@ -8734,10 +8725,10 @@
     </row>
     <row r="356" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>362</v>
+        <v>39</v>
       </c>
       <c r="D356" s="12" t="s">
         <v>303</v>
@@ -8751,10 +8742,10 @@
     </row>
     <row r="357" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D357" s="12" t="s">
         <v>303</v>
@@ -8768,10 +8759,10 @@
     </row>
     <row r="358" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="10" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>39</v>
+        <v>369</v>
       </c>
       <c r="D358" s="12" t="s">
         <v>303</v>
@@ -8785,10 +8776,10 @@
     </row>
     <row r="359" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="10" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="D359" s="12" t="s">
         <v>303</v>
@@ -8802,10 +8793,10 @@
     </row>
     <row r="360" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="10" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="D360" s="12" t="s">
         <v>303</v>
@@ -8819,10 +8810,10 @@
     </row>
     <row r="361" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="10" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="D361" s="12" t="s">
         <v>303</v>
@@ -8836,10 +8827,10 @@
     </row>
     <row r="362" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="10" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="D362" s="12" t="s">
         <v>303</v>
@@ -8853,10 +8844,10 @@
     </row>
     <row r="363" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="D363" s="12" t="s">
         <v>303</v>
@@ -8870,10 +8861,10 @@
     </row>
     <row r="364" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D364" s="12" t="s">
         <v>303</v>
@@ -8887,10 +8878,10 @@
     </row>
     <row r="365" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="10" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D365" s="12" t="s">
         <v>303</v>
@@ -8904,10 +8895,10 @@
     </row>
     <row r="366" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="10" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="D366" s="12" t="s">
         <v>303</v>
@@ -8921,10 +8912,10 @@
     </row>
     <row r="367" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="10" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D367" s="12" t="s">
         <v>303</v>
@@ -8938,10 +8929,10 @@
     </row>
     <row r="368" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="10" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>385</v>
+        <v>196</v>
       </c>
       <c r="D368" s="12" t="s">
         <v>303</v>
@@ -8955,10 +8946,10 @@
     </row>
     <row r="369" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="10" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B369" s="11" t="s">
-        <v>387</v>
+        <v>151</v>
       </c>
       <c r="D369" s="12" t="s">
         <v>303</v>
@@ -8972,10 +8963,10 @@
     </row>
     <row r="370" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="10" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>196</v>
+        <v>302</v>
       </c>
       <c r="D370" s="12" t="s">
         <v>303</v>
@@ -8989,10 +8980,10 @@
     </row>
     <row r="371" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="10" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B371" s="11" t="s">
-        <v>151</v>
+        <v>392</v>
       </c>
       <c r="D371" s="12" t="s">
         <v>303</v>
@@ -9006,10 +8997,10 @@
     </row>
     <row r="372" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="10" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B372" s="11" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="D372" s="12" t="s">
         <v>303</v>
@@ -9023,10 +9014,10 @@
     </row>
     <row r="373" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="10" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B373" s="11" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D373" s="12" t="s">
         <v>303</v>
@@ -9040,10 +9031,10 @@
     </row>
     <row r="374" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="10" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B374" s="11" t="s">
-        <v>273</v>
+        <v>397</v>
       </c>
       <c r="D374" s="12" t="s">
         <v>303</v>
@@ -9057,10 +9048,10 @@
     </row>
     <row r="375" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="10" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B375" s="11" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D375" s="12" t="s">
         <v>303</v>
@@ -9074,10 +9065,10 @@
     </row>
     <row r="376" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="10" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B376" s="11" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="D376" s="12" t="s">
         <v>303</v>
@@ -9091,10 +9082,10 @@
     </row>
     <row r="377" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="10" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B377" s="11" t="s">
-        <v>399</v>
+        <v>333</v>
       </c>
       <c r="D377" s="12" t="s">
         <v>303</v>
@@ -9108,10 +9099,10 @@
     </row>
     <row r="378" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="10" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B378" s="11" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D378" s="12" t="s">
         <v>303</v>
@@ -9125,10 +9116,10 @@
     </row>
     <row r="379" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="10" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B379" s="11" t="s">
-        <v>333</v>
+        <v>406</v>
       </c>
       <c r="D379" s="12" t="s">
         <v>303</v>
@@ -9142,10 +9133,10 @@
     </row>
     <row r="380" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="10" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B380" s="11" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D380" s="12" t="s">
         <v>303</v>
@@ -9159,10 +9150,10 @@
     </row>
     <row r="381" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="10" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B381" s="11" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="D381" s="12" t="s">
         <v>303</v>
@@ -9176,10 +9167,10 @@
     </row>
     <row r="382" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="10" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B382" s="11" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="D382" s="12" t="s">
         <v>303</v>
@@ -9193,10 +9184,10 @@
     </row>
     <row r="383" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="10" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B383" s="11" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="D383" s="12" t="s">
         <v>303</v>
@@ -9210,10 +9201,10 @@
     </row>
     <row r="384" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="10" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B384" s="11" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D384" s="12" t="s">
         <v>303</v>
@@ -9227,10 +9218,10 @@
     </row>
     <row r="385" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="10" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B385" s="11" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="D385" s="12" t="s">
         <v>303</v>
@@ -9244,10 +9235,10 @@
     </row>
     <row r="386" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="10" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B386" s="11" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="D386" s="12" t="s">
         <v>303</v>
@@ -9261,10 +9252,10 @@
     </row>
     <row r="387" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A387" s="10" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B387" s="11" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="D387" s="12" t="s">
         <v>303</v>
@@ -9276,46 +9267,50 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A388" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="B388" s="11" t="s">
-        <v>420</v>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A388" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="B388" s="8" t="s">
+        <v>707</v>
       </c>
       <c r="D388" s="12" t="s">
         <v>303</v>
       </c>
+      <c r="E388" s="12"/>
       <c r="F388" s="12" t="s">
         <v>304</v>
       </c>
+      <c r="G388" s="12"/>
       <c r="H388" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="389" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A389" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="B389" s="11" t="s">
-        <v>423</v>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A389" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="B389" s="8" t="s">
+        <v>706</v>
       </c>
       <c r="D389" s="12" t="s">
         <v>303</v>
       </c>
+      <c r="E389" s="12"/>
       <c r="F389" s="12" t="s">
         <v>304</v>
       </c>
+      <c r="G389" s="12"/>
       <c r="H389" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="D390" s="12" t="s">
         <v>303</v>
@@ -9331,10 +9326,10 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>709</v>
+        <v>228</v>
       </c>
       <c r="D391" s="12" t="s">
         <v>303</v>
@@ -9348,46 +9343,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A392" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="B392" s="8" t="s">
-        <v>708</v>
-      </c>
-      <c r="D392" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="E392" s="12"/>
-      <c r="F392" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="G392" s="12"/>
-      <c r="H392" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A393" s="5" t="s">
-        <v>695</v>
-      </c>
-      <c r="B393" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D393" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="E393" s="12"/>
-      <c r="F393" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="G393" s="12"/>
-      <c r="H393" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I389">
+  <autoFilter ref="A1:I387">
     <sortState ref="A2:H372">
       <sortCondition ref="D2:D372"/>
       <sortCondition ref="F2:F372"/>

--- a/maps/aprop.xlsx
+++ b/maps/aprop.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$I$387</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$I$386</definedName>
   </definedNames>
   <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="732">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -336,12 +336,6 @@
   </si>
   <si>
     <t>ALAN MENE</t>
-  </si>
-  <si>
-    <t>3469</t>
-  </si>
-  <si>
-    <t>ALAN PAUL</t>
   </si>
   <si>
     <t>LUCAS</t>
@@ -2621,10 +2615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J391"/>
+  <dimension ref="A1:J390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A184" sqref="A184"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2654,13 +2648,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>682</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>683</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>684</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>685</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>686</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -2669,7 +2663,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2689,7 +2683,7 @@
         <v>4</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2796,10 +2790,10 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>9</v>
@@ -2813,10 +2807,10 @@
     </row>
     <row r="10" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>9</v>
@@ -2830,10 +2824,10 @@
     </row>
     <row r="11" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>9</v>
@@ -2847,10 +2841,10 @@
     </row>
     <row r="12" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>9</v>
@@ -2864,10 +2858,10 @@
     </row>
     <row r="13" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>9</v>
@@ -2881,10 +2875,10 @@
     </row>
     <row r="14" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>9</v>
@@ -2898,10 +2892,10 @@
     </row>
     <row r="15" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>9</v>
@@ -2930,7 +2924,7 @@
         <v>4</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3003,10 +2997,10 @@
     </row>
     <row r="21" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D21" s="12" t="s">
         <v>9</v>
@@ -3020,10 +3014,10 @@
     </row>
     <row r="22" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>9</v>
@@ -3037,10 +3031,10 @@
     </row>
     <row r="23" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="D23" s="12" t="s">
         <v>9</v>
@@ -3054,10 +3048,10 @@
     </row>
     <row r="24" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D24" s="12" t="s">
         <v>9</v>
@@ -3071,10 +3065,10 @@
     </row>
     <row r="25" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>9</v>
@@ -3088,10 +3082,10 @@
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>9</v>
@@ -3105,10 +3099,10 @@
     </row>
     <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>9</v>
@@ -3137,7 +3131,7 @@
         <v>4</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -3397,10 +3391,10 @@
     </row>
     <row r="44" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>107</v>
+        <v>76</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>9</v>
@@ -3414,10 +3408,10 @@
     </row>
     <row r="45" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>9</v>
@@ -3431,10 +3425,10 @@
     </row>
     <row r="46" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>9</v>
@@ -3448,10 +3442,10 @@
     </row>
     <row r="47" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>9</v>
@@ -3465,10 +3459,10 @@
     </row>
     <row r="48" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B48" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>9</v>
@@ -3482,10 +3476,10 @@
     </row>
     <row r="49" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>9</v>
@@ -3499,10 +3493,10 @@
     </row>
     <row r="50" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>9</v>
@@ -3516,10 +3510,10 @@
     </row>
     <row r="51" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>9</v>
@@ -3533,10 +3527,10 @@
     </row>
     <row r="52" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>9</v>
@@ -3550,10 +3544,10 @@
     </row>
     <row r="53" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>9</v>
@@ -3567,10 +3561,10 @@
     </row>
     <row r="54" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>9</v>
@@ -3584,10 +3578,10 @@
     </row>
     <row r="55" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>9</v>
@@ -3601,10 +3595,10 @@
     </row>
     <row r="56" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>9</v>
@@ -3618,10 +3612,10 @@
     </row>
     <row r="57" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>9</v>
@@ -3634,28 +3628,28 @@
       </c>
     </row>
     <row r="58" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>103</v>
+      <c r="A58" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="H58" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
-        <v>28</v>
+      <c r="A59" s="6">
+        <v>1078</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>9</v>
@@ -3666,13 +3660,16 @@
       <c r="H59" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="I59" s="12" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="60" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>1078</v>
+        <v>1083</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>9</v>
@@ -3683,16 +3680,13 @@
       <c r="H60" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I60" s="12" t="s">
-        <v>662</v>
-      </c>
     </row>
     <row r="61" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>1083</v>
+        <v>1238</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>9</v>
@@ -3706,10 +3700,10 @@
     </row>
     <row r="62" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>1238</v>
+        <v>1358</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>9</v>
@@ -3723,10 +3717,10 @@
     </row>
     <row r="63" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>1358</v>
+        <v>2681</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>9</v>
@@ -3740,10 +3734,10 @@
     </row>
     <row r="64" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>2681</v>
+        <v>2704</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>9</v>
@@ -3757,10 +3751,10 @@
     </row>
     <row r="65" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>2704</v>
+        <v>3175</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>9</v>
@@ -3774,10 +3768,10 @@
     </row>
     <row r="66" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>3175</v>
+        <v>3236</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>9</v>
@@ -3791,10 +3785,10 @@
     </row>
     <row r="67" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>3236</v>
+        <v>3314</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>9</v>
@@ -3808,10 +3802,10 @@
     </row>
     <row r="68" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>3314</v>
+        <v>3444</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>9</v>
@@ -3825,10 +3819,10 @@
     </row>
     <row r="69" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>3444</v>
+        <v>3449</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>9</v>
@@ -3842,10 +3836,10 @@
     </row>
     <row r="70" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>3449</v>
+        <v>3759</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>9</v>
@@ -3858,11 +3852,11 @@
       </c>
     </row>
     <row r="71" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="6">
-        <v>3759</v>
+      <c r="A71" s="6" t="s">
+        <v>676</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>27</v>
+        <v>432</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>9</v>
@@ -3876,10 +3870,10 @@
     </row>
     <row r="72" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>434</v>
+        <v>8</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>9</v>
@@ -3893,10 +3887,10 @@
     </row>
     <row r="73" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>9</v>
@@ -3910,10 +3904,10 @@
     </row>
     <row r="74" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>111</v>
+        <v>712</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>9</v>
@@ -3927,10 +3921,10 @@
     </row>
     <row r="75" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>9</v>
@@ -3944,10 +3938,10 @@
     </row>
     <row r="76" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>9</v>
@@ -3961,10 +3955,10 @@
     </row>
     <row r="77" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>9</v>
@@ -3978,10 +3972,10 @@
     </row>
     <row r="78" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>9</v>
@@ -3995,10 +3989,10 @@
     </row>
     <row r="79" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>710</v>
+        <v>644</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>661</v>
       </c>
       <c r="D79" s="12" t="s">
         <v>9</v>
@@ -4012,10 +4006,10 @@
     </row>
     <row r="80" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>9</v>
@@ -4029,10 +4023,10 @@
     </row>
     <row r="81" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D81" s="12" t="s">
         <v>9</v>
@@ -4046,10 +4040,10 @@
     </row>
     <row r="82" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>9</v>
@@ -4063,10 +4057,10 @@
     </row>
     <row r="83" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D83" s="12" t="s">
         <v>9</v>
@@ -4080,10 +4074,10 @@
     </row>
     <row r="84" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D84" s="12" t="s">
         <v>9</v>
@@ -4096,20 +4090,23 @@
       </c>
     </row>
     <row r="85" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>651</v>
+      <c r="A85" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>663</v>
+        <v>172</v>
       </c>
       <c r="D85" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="H85" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4123,13 +4120,10 @@
         <v>5</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H86" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="I86" s="12" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -4143,7 +4137,7 @@
         <v>5</v>
       </c>
       <c r="F87" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H87" s="12" t="s">
         <v>4</v>
@@ -4160,7 +4154,7 @@
         <v>5</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H88" s="12" t="s">
         <v>4</v>
@@ -4177,7 +4171,7 @@
         <v>5</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H89" s="12" t="s">
         <v>4</v>
@@ -4194,7 +4188,7 @@
         <v>5</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H90" s="12" t="s">
         <v>4</v>
@@ -4211,7 +4205,7 @@
         <v>5</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H91" s="12" t="s">
         <v>4</v>
@@ -4228,7 +4222,7 @@
         <v>5</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H92" s="12" t="s">
         <v>4</v>
@@ -4245,7 +4239,7 @@
         <v>5</v>
       </c>
       <c r="F93" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H93" s="12" t="s">
         <v>4</v>
@@ -4262,7 +4256,7 @@
         <v>5</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H94" s="12" t="s">
         <v>4</v>
@@ -4279,7 +4273,7 @@
         <v>5</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H95" s="12" t="s">
         <v>4</v>
@@ -4296,7 +4290,7 @@
         <v>5</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H96" s="12" t="s">
         <v>4</v>
@@ -4313,7 +4307,7 @@
         <v>5</v>
       </c>
       <c r="F97" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H97" s="12" t="s">
         <v>4</v>
@@ -4330,7 +4324,7 @@
         <v>5</v>
       </c>
       <c r="F98" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H98" s="12" t="s">
         <v>4</v>
@@ -4347,7 +4341,7 @@
         <v>5</v>
       </c>
       <c r="F99" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H99" s="12" t="s">
         <v>4</v>
@@ -4364,7 +4358,7 @@
         <v>5</v>
       </c>
       <c r="F100" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H100" s="12" t="s">
         <v>4</v>
@@ -4381,7 +4375,7 @@
         <v>5</v>
       </c>
       <c r="F101" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H101" s="12" t="s">
         <v>4</v>
@@ -4398,7 +4392,7 @@
         <v>5</v>
       </c>
       <c r="F102" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H102" s="12" t="s">
         <v>4</v>
@@ -4415,7 +4409,7 @@
         <v>5</v>
       </c>
       <c r="F103" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H103" s="12" t="s">
         <v>4</v>
@@ -4432,7 +4426,7 @@
         <v>5</v>
       </c>
       <c r="F104" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H104" s="12" t="s">
         <v>4</v>
@@ -4449,7 +4443,7 @@
         <v>5</v>
       </c>
       <c r="F105" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H105" s="12" t="s">
         <v>4</v>
@@ -4466,7 +4460,7 @@
         <v>5</v>
       </c>
       <c r="F106" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H106" s="12" t="s">
         <v>4</v>
@@ -4483,7 +4477,7 @@
         <v>5</v>
       </c>
       <c r="F107" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H107" s="12" t="s">
         <v>4</v>
@@ -4500,7 +4494,7 @@
         <v>5</v>
       </c>
       <c r="F108" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H108" s="12" t="s">
         <v>4</v>
@@ -4517,7 +4511,7 @@
         <v>5</v>
       </c>
       <c r="F109" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H109" s="12" t="s">
         <v>4</v>
@@ -4534,7 +4528,7 @@
         <v>5</v>
       </c>
       <c r="F110" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H110" s="12" t="s">
         <v>4</v>
@@ -4551,7 +4545,7 @@
         <v>5</v>
       </c>
       <c r="F111" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H111" s="12" t="s">
         <v>4</v>
@@ -4568,7 +4562,7 @@
         <v>5</v>
       </c>
       <c r="F112" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H112" s="12" t="s">
         <v>4</v>
@@ -4585,7 +4579,7 @@
         <v>5</v>
       </c>
       <c r="F113" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H113" s="12" t="s">
         <v>4</v>
@@ -4602,7 +4596,7 @@
         <v>5</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H114" s="12" t="s">
         <v>4</v>
@@ -4619,7 +4613,7 @@
         <v>5</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H115" s="12" t="s">
         <v>4</v>
@@ -4636,7 +4630,7 @@
         <v>5</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H116" s="12" t="s">
         <v>4</v>
@@ -4653,7 +4647,7 @@
         <v>5</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H117" s="12" t="s">
         <v>4</v>
@@ -4670,7 +4664,7 @@
         <v>5</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H118" s="12" t="s">
         <v>4</v>
@@ -4687,7 +4681,7 @@
         <v>5</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H119" s="12" t="s">
         <v>4</v>
@@ -4698,13 +4692,13 @@
         <v>241</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>242</v>
+        <v>109</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F120" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H120" s="12" t="s">
         <v>4</v>
@@ -4712,16 +4706,16 @@
     </row>
     <row r="121" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B121" s="11" t="s">
         <v>243</v>
-      </c>
-      <c r="B121" s="11" t="s">
-        <v>111</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F121" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H121" s="12" t="s">
         <v>4</v>
@@ -4738,7 +4732,7 @@
         <v>5</v>
       </c>
       <c r="F122" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H122" s="12" t="s">
         <v>4</v>
@@ -4755,7 +4749,7 @@
         <v>5</v>
       </c>
       <c r="F123" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H123" s="12" t="s">
         <v>4</v>
@@ -4766,13 +4760,13 @@
         <v>248</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>249</v>
+        <v>147</v>
       </c>
       <c r="D124" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H124" s="12" t="s">
         <v>4</v>
@@ -4780,16 +4774,16 @@
     </row>
     <row r="125" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="B125" s="11" t="s">
         <v>250</v>
-      </c>
-      <c r="B125" s="11" t="s">
-        <v>149</v>
       </c>
       <c r="D125" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F125" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H125" s="12" t="s">
         <v>4</v>
@@ -4806,7 +4800,7 @@
         <v>5</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H126" s="12" t="s">
         <v>4</v>
@@ -4817,13 +4811,13 @@
         <v>253</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>254</v>
+        <v>48</v>
       </c>
       <c r="D127" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F127" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H127" s="12" t="s">
         <v>4</v>
@@ -4831,16 +4825,16 @@
     </row>
     <row r="128" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" s="11" t="s">
         <v>255</v>
-      </c>
-      <c r="B128" s="11" t="s">
-        <v>48</v>
       </c>
       <c r="D128" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F128" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H128" s="12" t="s">
         <v>4</v>
@@ -4857,7 +4851,7 @@
         <v>5</v>
       </c>
       <c r="F129" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H129" s="12" t="s">
         <v>4</v>
@@ -4874,7 +4868,7 @@
         <v>5</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H130" s="12" t="s">
         <v>4</v>
@@ -4891,7 +4885,7 @@
         <v>5</v>
       </c>
       <c r="F131" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H131" s="12" t="s">
         <v>4</v>
@@ -4908,7 +4902,7 @@
         <v>5</v>
       </c>
       <c r="F132" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H132" s="12" t="s">
         <v>4</v>
@@ -4925,7 +4919,7 @@
         <v>5</v>
       </c>
       <c r="F133" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H133" s="12" t="s">
         <v>4</v>
@@ -4942,7 +4936,7 @@
         <v>5</v>
       </c>
       <c r="F134" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H134" s="12" t="s">
         <v>4</v>
@@ -4959,7 +4953,7 @@
         <v>5</v>
       </c>
       <c r="F135" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H135" s="12" t="s">
         <v>4</v>
@@ -4976,7 +4970,7 @@
         <v>5</v>
       </c>
       <c r="F136" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H136" s="12" t="s">
         <v>4</v>
@@ -4993,7 +4987,7 @@
         <v>5</v>
       </c>
       <c r="F137" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H137" s="12" t="s">
         <v>4</v>
@@ -5010,7 +5004,7 @@
         <v>5</v>
       </c>
       <c r="F138" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H138" s="12" t="s">
         <v>4</v>
@@ -5027,7 +5021,7 @@
         <v>5</v>
       </c>
       <c r="F139" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H139" s="12" t="s">
         <v>4</v>
@@ -5044,7 +5038,7 @@
         <v>5</v>
       </c>
       <c r="F140" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H140" s="12" t="s">
         <v>4</v>
@@ -5061,7 +5055,7 @@
         <v>5</v>
       </c>
       <c r="F141" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H141" s="12" t="s">
         <v>4</v>
@@ -5078,7 +5072,7 @@
         <v>5</v>
       </c>
       <c r="F142" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H142" s="12" t="s">
         <v>4</v>
@@ -5095,7 +5089,7 @@
         <v>5</v>
       </c>
       <c r="F143" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H143" s="12" t="s">
         <v>4</v>
@@ -5106,13 +5100,13 @@
         <v>286</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>287</v>
+        <v>151</v>
       </c>
       <c r="D144" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F144" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H144" s="12" t="s">
         <v>4</v>
@@ -5120,16 +5114,16 @@
     </row>
     <row r="145" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>153</v>
+        <v>290</v>
       </c>
       <c r="D145" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F145" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H145" s="12" t="s">
         <v>4</v>
@@ -5137,16 +5131,16 @@
     </row>
     <row r="146" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B146" s="11" t="s">
         <v>289</v>
-      </c>
-      <c r="B146" s="11" t="s">
-        <v>292</v>
       </c>
       <c r="D146" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H146" s="12" t="s">
         <v>4</v>
@@ -5154,16 +5148,16 @@
     </row>
     <row r="147" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D147" s="12" t="s">
         <v>5</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H147" s="12" t="s">
         <v>4</v>
@@ -5180,7 +5174,7 @@
         <v>5</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H148" s="12" t="s">
         <v>4</v>
@@ -5197,7 +5191,7 @@
         <v>5</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H149" s="12" t="s">
         <v>4</v>
@@ -5214,7 +5208,7 @@
         <v>5</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H150" s="12" t="s">
         <v>4</v>
@@ -5231,7 +5225,7 @@
         <v>5</v>
       </c>
       <c r="F151" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H151" s="12" t="s">
         <v>4</v>
@@ -5239,19 +5233,22 @@
     </row>
     <row r="152" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>301</v>
+        <v>576</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>302</v>
+        <v>577</v>
       </c>
       <c r="D152" s="12" t="s">
-        <v>5</v>
+        <v>540</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H152" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="I152" s="12" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="153" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5262,16 +5259,13 @@
         <v>579</v>
       </c>
       <c r="D153" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H153" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="I153" s="12" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="154" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5282,10 +5276,10 @@
         <v>581</v>
       </c>
       <c r="D154" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H154" s="12" t="s">
         <v>4</v>
@@ -5296,13 +5290,13 @@
         <v>582</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>583</v>
+        <v>14</v>
       </c>
       <c r="D155" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F155" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H155" s="12" t="s">
         <v>4</v>
@@ -5310,16 +5304,16 @@
     </row>
     <row r="156" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="B156" s="11" t="s">
         <v>584</v>
       </c>
-      <c r="B156" s="11" t="s">
-        <v>14</v>
-      </c>
       <c r="D156" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H156" s="12" t="s">
         <v>4</v>
@@ -5333,10 +5327,10 @@
         <v>586</v>
       </c>
       <c r="D157" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H157" s="12" t="s">
         <v>4</v>
@@ -5350,10 +5344,10 @@
         <v>588</v>
       </c>
       <c r="D158" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H158" s="12" t="s">
         <v>4</v>
@@ -5367,10 +5361,10 @@
         <v>590</v>
       </c>
       <c r="D159" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H159" s="12" t="s">
         <v>4</v>
@@ -5384,10 +5378,10 @@
         <v>592</v>
       </c>
       <c r="D160" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H160" s="12" t="s">
         <v>4</v>
@@ -5401,10 +5395,10 @@
         <v>594</v>
       </c>
       <c r="D161" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H161" s="12" t="s">
         <v>4</v>
@@ -5418,10 +5412,10 @@
         <v>596</v>
       </c>
       <c r="D162" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H162" s="12" t="s">
         <v>4</v>
@@ -5435,10 +5429,10 @@
         <v>598</v>
       </c>
       <c r="D163" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H163" s="12" t="s">
         <v>4</v>
@@ -5452,10 +5446,10 @@
         <v>600</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H164" s="12" t="s">
         <v>4</v>
@@ -5469,10 +5463,10 @@
         <v>602</v>
       </c>
       <c r="D165" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H165" s="12" t="s">
         <v>4</v>
@@ -5486,10 +5480,10 @@
         <v>604</v>
       </c>
       <c r="D166" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H166" s="12" t="s">
         <v>4</v>
@@ -5503,10 +5497,10 @@
         <v>606</v>
       </c>
       <c r="D167" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H167" s="12" t="s">
         <v>4</v>
@@ -5520,10 +5514,10 @@
         <v>608</v>
       </c>
       <c r="D168" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H168" s="12" t="s">
         <v>4</v>
@@ -5537,10 +5531,10 @@
         <v>610</v>
       </c>
       <c r="D169" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H169" s="12" t="s">
         <v>4</v>
@@ -5551,13 +5545,13 @@
         <v>611</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>612</v>
+        <v>375</v>
       </c>
       <c r="D170" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H170" s="12" t="s">
         <v>4</v>
@@ -5565,16 +5559,16 @@
     </row>
     <row r="171" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
+        <v>612</v>
+      </c>
+      <c r="B171" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="B171" s="11" t="s">
-        <v>377</v>
-      </c>
       <c r="D171" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H171" s="12" t="s">
         <v>4</v>
@@ -5588,10 +5582,10 @@
         <v>615</v>
       </c>
       <c r="D172" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H172" s="12" t="s">
         <v>4</v>
@@ -5605,10 +5599,10 @@
         <v>617</v>
       </c>
       <c r="D173" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F173" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H173" s="12" t="s">
         <v>4</v>
@@ -5622,10 +5616,10 @@
         <v>619</v>
       </c>
       <c r="D174" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F174" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H174" s="12" t="s">
         <v>4</v>
@@ -5636,13 +5630,13 @@
         <v>620</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>621</v>
+        <v>360</v>
       </c>
       <c r="D175" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F175" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H175" s="12" t="s">
         <v>4</v>
@@ -5650,16 +5644,16 @@
     </row>
     <row r="176" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>362</v>
+        <v>13</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F176" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H176" s="12" t="s">
         <v>4</v>
@@ -5667,16 +5661,16 @@
     </row>
     <row r="177" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
+        <v>622</v>
+      </c>
+      <c r="B177" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="B177" s="11" t="s">
-        <v>13</v>
-      </c>
       <c r="D177" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F177" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H177" s="12" t="s">
         <v>4</v>
@@ -5684,16 +5678,16 @@
     </row>
     <row r="178" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
-        <v>624</v>
+        <v>666</v>
       </c>
       <c r="B178" s="11" t="s">
         <v>625</v>
       </c>
       <c r="D178" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F178" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H178" s="12" t="s">
         <v>4</v>
@@ -5701,16 +5695,16 @@
     </row>
     <row r="179" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
-        <v>668</v>
+        <v>626</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>627</v>
+        <v>224</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F179" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H179" s="12" t="s">
         <v>4</v>
@@ -5718,16 +5712,16 @@
     </row>
     <row r="180" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>226</v>
+        <v>493</v>
       </c>
       <c r="D180" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F180" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H180" s="12" t="s">
         <v>4</v>
@@ -5735,16 +5729,16 @@
     </row>
     <row r="181" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="B181" s="11" t="s">
         <v>629</v>
       </c>
-      <c r="B181" s="11" t="s">
-        <v>495</v>
-      </c>
       <c r="D181" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F181" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H181" s="12" t="s">
         <v>4</v>
@@ -5752,16 +5746,16 @@
     </row>
     <row r="182" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>631</v>
+        <v>326</v>
       </c>
       <c r="D182" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F182" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H182" s="12" t="s">
         <v>4</v>
@@ -5769,16 +5763,16 @@
     </row>
     <row r="183" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>328</v>
+        <v>631</v>
       </c>
       <c r="D183" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H183" s="12" t="s">
         <v>4</v>
@@ -5786,16 +5780,16 @@
     </row>
     <row r="184" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
-        <v>632</v>
+        <v>696</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>633</v>
+        <v>698</v>
       </c>
       <c r="D184" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F184" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H184" s="12" t="s">
         <v>4</v>
@@ -5803,16 +5797,16 @@
     </row>
     <row r="185" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>700</v>
+        <v>731</v>
       </c>
       <c r="D185" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F185" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H185" s="12" t="s">
         <v>4</v>
@@ -5820,39 +5814,39 @@
     </row>
     <row r="186" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
-        <v>699</v>
+        <v>541</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>733</v>
+        <v>11</v>
       </c>
       <c r="D186" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F186" s="12" t="s">
-        <v>172</v>
+        <v>575</v>
       </c>
       <c r="H186" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="I186" s="12" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="187" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="B187" s="11" t="s">
         <v>543</v>
       </c>
-      <c r="B187" s="11" t="s">
-        <v>11</v>
-      </c>
       <c r="D187" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F187" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H187" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="I187" s="12" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="188" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -5863,10 +5857,10 @@
         <v>545</v>
       </c>
       <c r="D188" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F188" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H188" s="12" t="s">
         <v>4</v>
@@ -5880,10 +5874,10 @@
         <v>547</v>
       </c>
       <c r="D189" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F189" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H189" s="12" t="s">
         <v>4</v>
@@ -5897,10 +5891,10 @@
         <v>549</v>
       </c>
       <c r="D190" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F190" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H190" s="12" t="s">
         <v>4</v>
@@ -5914,10 +5908,10 @@
         <v>551</v>
       </c>
       <c r="D191" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F191" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H191" s="12" t="s">
         <v>4</v>
@@ -5925,16 +5919,16 @@
     </row>
     <row r="192" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
-        <v>552</v>
+        <v>508</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>553</v>
+        <v>664</v>
       </c>
       <c r="D192" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F192" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H192" s="12" t="s">
         <v>4</v>
@@ -5942,16 +5936,16 @@
     </row>
     <row r="193" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
-        <v>510</v>
+        <v>552</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>666</v>
+        <v>553</v>
       </c>
       <c r="D193" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F193" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H193" s="12" t="s">
         <v>4</v>
@@ -5965,10 +5959,10 @@
         <v>555</v>
       </c>
       <c r="D194" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F194" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H194" s="12" t="s">
         <v>4</v>
@@ -5979,13 +5973,13 @@
         <v>556</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>557</v>
+        <v>224</v>
       </c>
       <c r="D195" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F195" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H195" s="12" t="s">
         <v>4</v>
@@ -5993,16 +5987,16 @@
     </row>
     <row r="196" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="B196" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="B196" s="11" t="s">
-        <v>226</v>
-      </c>
       <c r="D196" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F196" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H196" s="12" t="s">
         <v>4</v>
@@ -6016,10 +6010,10 @@
         <v>560</v>
       </c>
       <c r="D197" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F197" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H197" s="12" t="s">
         <v>4</v>
@@ -6027,16 +6021,16 @@
     </row>
     <row r="198" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D198" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F198" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H198" s="12" t="s">
         <v>4</v>
@@ -6050,10 +6044,10 @@
         <v>566</v>
       </c>
       <c r="D199" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F199" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H199" s="12" t="s">
         <v>4</v>
@@ -6067,10 +6061,10 @@
         <v>568</v>
       </c>
       <c r="D200" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F200" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H200" s="12" t="s">
         <v>4</v>
@@ -6084,10 +6078,10 @@
         <v>570</v>
       </c>
       <c r="D201" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F201" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H201" s="12" t="s">
         <v>4</v>
@@ -6095,16 +6089,16 @@
     </row>
     <row r="202" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
-        <v>571</v>
+        <v>530</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>572</v>
+        <v>531</v>
       </c>
       <c r="D202" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F202" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H202" s="12" t="s">
         <v>4</v>
@@ -6112,16 +6106,16 @@
     </row>
     <row r="203" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
-        <v>532</v>
+        <v>419</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>533</v>
+        <v>675</v>
       </c>
       <c r="D203" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F203" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H203" s="12" t="s">
         <v>4</v>
@@ -6129,16 +6123,16 @@
     </row>
     <row r="204" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
-        <v>421</v>
+        <v>561</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>677</v>
+        <v>562</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F204" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H204" s="12" t="s">
         <v>4</v>
@@ -6146,16 +6140,16 @@
     </row>
     <row r="205" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="D205" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F205" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H205" s="12" t="s">
         <v>4</v>
@@ -6169,10 +6163,10 @@
         <v>574</v>
       </c>
       <c r="D206" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F206" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H206" s="12" t="s">
         <v>4</v>
@@ -6180,16 +6174,16 @@
     </row>
     <row r="207" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
+        <v>713</v>
+      </c>
+      <c r="B207" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="D207" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="F207" s="12" t="s">
         <v>575</v>
-      </c>
-      <c r="B207" s="11" t="s">
-        <v>576</v>
-      </c>
-      <c r="D207" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="F207" s="12" t="s">
-        <v>577</v>
       </c>
       <c r="H207" s="12" t="s">
         <v>4</v>
@@ -6203,16 +6197,16 @@
         <v>716</v>
       </c>
       <c r="D208" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F208" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H208" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="209" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
         <v>717</v>
       </c>
@@ -6220,16 +6214,16 @@
         <v>718</v>
       </c>
       <c r="D209" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F209" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H209" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="210" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
         <v>719</v>
       </c>
@@ -6237,16 +6231,16 @@
         <v>720</v>
       </c>
       <c r="D210" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F210" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H210" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="211" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
         <v>721</v>
       </c>
@@ -6254,16 +6248,16 @@
         <v>722</v>
       </c>
       <c r="D211" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F211" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H211" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="212" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
         <v>723</v>
       </c>
@@ -6271,16 +6265,16 @@
         <v>724</v>
       </c>
       <c r="D212" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F212" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H212" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="213" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
         <v>725</v>
       </c>
@@ -6288,16 +6282,16 @@
         <v>726</v>
       </c>
       <c r="D213" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F213" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H213" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="214" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
         <v>727</v>
       </c>
@@ -6305,16 +6299,16 @@
         <v>728</v>
       </c>
       <c r="D214" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F214" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H214" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
         <v>729</v>
       </c>
@@ -6322,206 +6316,206 @@
         <v>730</v>
       </c>
       <c r="D215" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F215" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H215" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
-        <v>731</v>
+        <v>640</v>
       </c>
       <c r="B216" s="11" t="s">
-        <v>732</v>
+        <v>661</v>
       </c>
       <c r="D216" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F216" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H216" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="B217" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D217" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F217" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H217" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B218" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D218" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F218" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H218" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
         <v>641</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D219" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F219" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H219" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
+        <v>642</v>
+      </c>
+      <c r="B220" s="11" t="s">
+        <v>661</v>
+      </c>
+      <c r="D220" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="F220" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="H220" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="10" t="s">
         <v>643</v>
       </c>
-      <c r="B220" s="11" t="s">
-        <v>663</v>
-      </c>
-      <c r="D220" s="12" t="s">
-        <v>542</v>
-      </c>
-      <c r="F220" s="12" t="s">
-        <v>577</v>
-      </c>
-      <c r="H220" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="10" t="s">
-        <v>644</v>
-      </c>
       <c r="B221" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D221" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="F221" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="H221" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="222" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
-        <v>645</v>
+        <v>112</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>663</v>
+        <v>113</v>
       </c>
       <c r="D222" s="12" t="s">
-        <v>542</v>
+        <v>106</v>
       </c>
       <c r="F222" s="12" t="s">
-        <v>577</v>
+        <v>107</v>
       </c>
       <c r="H222" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B223" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D223" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F223" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H223" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A224" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B224" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="D224" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F224" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H224" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="I224" s="12" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="B223" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D223" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F223" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="H223" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="B224" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="D224" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F224" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="H224" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="10" t="s">
-        <v>110</v>
       </c>
       <c r="B225" s="11" t="s">
         <v>111</v>
       </c>
       <c r="D225" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F225" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H225" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I225" s="12" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="226" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B226" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B226" s="11" t="s">
-        <v>113</v>
-      </c>
       <c r="D226" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F226" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H226" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="227" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
         <v>117</v>
       </c>
@@ -6529,16 +6523,16 @@
         <v>118</v>
       </c>
       <c r="D227" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F227" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H227" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
         <v>119</v>
       </c>
@@ -6546,16 +6540,16 @@
         <v>120</v>
       </c>
       <c r="D228" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F228" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H228" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="229" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
         <v>121</v>
       </c>
@@ -6563,16 +6557,16 @@
         <v>122</v>
       </c>
       <c r="D229" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F229" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H229" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="230" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
         <v>123</v>
       </c>
@@ -6580,16 +6574,16 @@
         <v>124</v>
       </c>
       <c r="D230" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F230" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H230" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="231" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
         <v>125</v>
       </c>
@@ -6597,16 +6591,16 @@
         <v>126</v>
       </c>
       <c r="D231" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F231" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H231" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="232" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
         <v>127</v>
       </c>
@@ -6614,16 +6608,16 @@
         <v>128</v>
       </c>
       <c r="D232" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F232" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H232" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="233" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
         <v>129</v>
       </c>
@@ -6631,16 +6625,16 @@
         <v>130</v>
       </c>
       <c r="D233" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F233" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H233" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="234" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
         <v>131</v>
       </c>
@@ -6648,16 +6642,16 @@
         <v>132</v>
       </c>
       <c r="D234" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F234" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H234" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="235" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
         <v>133</v>
       </c>
@@ -6665,16 +6659,16 @@
         <v>134</v>
       </c>
       <c r="D235" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F235" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H235" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="236" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
         <v>135</v>
       </c>
@@ -6682,50 +6676,50 @@
         <v>136</v>
       </c>
       <c r="D236" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F236" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H236" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="237" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
         <v>137</v>
       </c>
       <c r="B237" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D237" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F237" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H237" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="D237" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="F237" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="H237" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A238" s="10" t="s">
+      <c r="B238" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="B238" s="11" t="s">
-        <v>31</v>
-      </c>
       <c r="D238" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F238" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H238" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="239" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
         <v>140</v>
       </c>
@@ -6733,16 +6727,16 @@
         <v>141</v>
       </c>
       <c r="D239" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F239" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H239" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="240" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
         <v>142</v>
       </c>
@@ -6750,10 +6744,10 @@
         <v>143</v>
       </c>
       <c r="D240" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F240" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H240" s="12" t="s">
         <v>4</v>
@@ -6767,10 +6761,10 @@
         <v>145</v>
       </c>
       <c r="D241" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F241" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H241" s="12" t="s">
         <v>4</v>
@@ -6784,10 +6778,10 @@
         <v>147</v>
       </c>
       <c r="D242" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F242" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H242" s="12" t="s">
         <v>4</v>
@@ -6801,10 +6795,10 @@
         <v>149</v>
       </c>
       <c r="D243" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F243" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H243" s="12" t="s">
         <v>4</v>
@@ -6818,10 +6812,10 @@
         <v>151</v>
       </c>
       <c r="D244" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F244" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H244" s="12" t="s">
         <v>4</v>
@@ -6835,10 +6829,10 @@
         <v>153</v>
       </c>
       <c r="D245" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F245" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H245" s="12" t="s">
         <v>4</v>
@@ -6852,10 +6846,10 @@
         <v>155</v>
       </c>
       <c r="D246" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F246" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H246" s="12" t="s">
         <v>4</v>
@@ -6869,10 +6863,10 @@
         <v>157</v>
       </c>
       <c r="D247" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F247" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H247" s="12" t="s">
         <v>4</v>
@@ -6886,10 +6880,10 @@
         <v>159</v>
       </c>
       <c r="D248" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F248" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H248" s="12" t="s">
         <v>4</v>
@@ -6903,10 +6897,10 @@
         <v>161</v>
       </c>
       <c r="D249" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F249" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H249" s="12" t="s">
         <v>4</v>
@@ -6920,10 +6914,10 @@
         <v>163</v>
       </c>
       <c r="D250" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F250" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H250" s="12" t="s">
         <v>4</v>
@@ -6937,10 +6931,10 @@
         <v>165</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F251" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H251" s="12" t="s">
         <v>4</v>
@@ -6954,10 +6948,10 @@
         <v>167</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F252" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H252" s="12" t="s">
         <v>4</v>
@@ -6971,10 +6965,10 @@
         <v>169</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F253" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H253" s="12" t="s">
         <v>4</v>
@@ -6982,19 +6976,22 @@
     </row>
     <row r="254" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>170</v>
+        <v>475</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>171</v>
+        <v>476</v>
       </c>
       <c r="D254" s="12" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="F254" s="12" t="s">
-        <v>109</v>
+        <v>302</v>
       </c>
       <c r="H254" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="I254" s="12" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="255" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -7005,16 +7002,13 @@
         <v>478</v>
       </c>
       <c r="D255" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F255" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H255" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="I255" s="12" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="256" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -7022,13 +7016,13 @@
         <v>479</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>480</v>
+        <v>182</v>
       </c>
       <c r="D256" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F256" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H256" s="12" t="s">
         <v>4</v>
@@ -7036,16 +7030,16 @@
     </row>
     <row r="257" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>184</v>
+        <v>279</v>
       </c>
       <c r="D257" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F257" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H257" s="12" t="s">
         <v>4</v>
@@ -7053,16 +7047,16 @@
     </row>
     <row r="258" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="B258" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="B258" s="11" t="s">
-        <v>281</v>
-      </c>
       <c r="D258" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F258" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H258" s="12" t="s">
         <v>4</v>
@@ -7073,13 +7067,13 @@
         <v>483</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>484</v>
+        <v>226</v>
       </c>
       <c r="D259" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F259" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H259" s="12" t="s">
         <v>4</v>
@@ -7087,16 +7081,16 @@
     </row>
     <row r="260" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="B260" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="B260" s="11" t="s">
-        <v>228</v>
-      </c>
       <c r="D260" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F260" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H260" s="12" t="s">
         <v>4</v>
@@ -7110,10 +7104,10 @@
         <v>487</v>
       </c>
       <c r="D261" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F261" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H261" s="12" t="s">
         <v>4</v>
@@ -7127,10 +7121,10 @@
         <v>489</v>
       </c>
       <c r="D262" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F262" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H262" s="12" t="s">
         <v>4</v>
@@ -7144,10 +7138,10 @@
         <v>491</v>
       </c>
       <c r="D263" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F263" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H263" s="12" t="s">
         <v>4</v>
@@ -7161,10 +7155,10 @@
         <v>493</v>
       </c>
       <c r="D264" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F264" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H264" s="12" t="s">
         <v>4</v>
@@ -7178,10 +7172,10 @@
         <v>495</v>
       </c>
       <c r="D265" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F265" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H265" s="12" t="s">
         <v>4</v>
@@ -7195,10 +7189,10 @@
         <v>497</v>
       </c>
       <c r="D266" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F266" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H266" s="12" t="s">
         <v>4</v>
@@ -7212,10 +7206,10 @@
         <v>499</v>
       </c>
       <c r="D267" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F267" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H267" s="12" t="s">
         <v>4</v>
@@ -7229,10 +7223,10 @@
         <v>501</v>
       </c>
       <c r="D268" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F268" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H268" s="12" t="s">
         <v>4</v>
@@ -7246,10 +7240,10 @@
         <v>503</v>
       </c>
       <c r="D269" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F269" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H269" s="12" t="s">
         <v>4</v>
@@ -7260,13 +7254,13 @@
         <v>504</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>505</v>
+        <v>281</v>
       </c>
       <c r="D270" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F270" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H270" s="12" t="s">
         <v>4</v>
@@ -7274,16 +7268,16 @@
     </row>
     <row r="271" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="B271" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="B271" s="11" t="s">
-        <v>283</v>
-      </c>
       <c r="D271" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F271" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H271" s="12" t="s">
         <v>4</v>
@@ -7294,13 +7288,13 @@
         <v>507</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>508</v>
+        <v>188</v>
       </c>
       <c r="D272" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F272" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H272" s="12" t="s">
         <v>4</v>
@@ -7311,13 +7305,13 @@
         <v>509</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>190</v>
+        <v>452</v>
       </c>
       <c r="D273" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F273" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H273" s="12" t="s">
         <v>4</v>
@@ -7325,16 +7319,16 @@
     </row>
     <row r="274" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
+        <v>510</v>
+      </c>
+      <c r="B274" s="11" t="s">
         <v>511</v>
       </c>
-      <c r="B274" s="11" t="s">
-        <v>454</v>
-      </c>
       <c r="D274" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F274" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H274" s="12" t="s">
         <v>4</v>
@@ -7345,13 +7339,13 @@
         <v>512</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>513</v>
+        <v>469</v>
       </c>
       <c r="D275" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F275" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H275" s="12" t="s">
         <v>4</v>
@@ -7359,16 +7353,16 @@
     </row>
     <row r="276" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="B276" s="11" t="s">
         <v>514</v>
       </c>
-      <c r="B276" s="11" t="s">
-        <v>471</v>
-      </c>
       <c r="D276" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F276" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H276" s="12" t="s">
         <v>4</v>
@@ -7382,10 +7376,10 @@
         <v>516</v>
       </c>
       <c r="D277" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F277" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H277" s="12" t="s">
         <v>4</v>
@@ -7399,10 +7393,10 @@
         <v>518</v>
       </c>
       <c r="D278" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F278" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H278" s="12" t="s">
         <v>4</v>
@@ -7416,10 +7410,10 @@
         <v>520</v>
       </c>
       <c r="D279" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F279" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H279" s="12" t="s">
         <v>4</v>
@@ -7433,10 +7427,10 @@
         <v>522</v>
       </c>
       <c r="D280" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F280" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H280" s="12" t="s">
         <v>4</v>
@@ -7450,10 +7444,10 @@
         <v>524</v>
       </c>
       <c r="D281" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F281" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H281" s="12" t="s">
         <v>4</v>
@@ -7464,13 +7458,13 @@
         <v>525</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>526</v>
+        <v>281</v>
       </c>
       <c r="D282" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F282" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H282" s="12" t="s">
         <v>4</v>
@@ -7478,16 +7472,16 @@
     </row>
     <row r="283" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="B283" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="B283" s="11" t="s">
-        <v>283</v>
-      </c>
       <c r="D283" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F283" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H283" s="12" t="s">
         <v>4</v>
@@ -7501,10 +7495,10 @@
         <v>529</v>
       </c>
       <c r="D284" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F284" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H284" s="12" t="s">
         <v>4</v>
@@ -7512,16 +7506,16 @@
     </row>
     <row r="285" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>531</v>
+        <v>446</v>
       </c>
       <c r="D285" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F285" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H285" s="12" t="s">
         <v>4</v>
@@ -7529,16 +7523,16 @@
     </row>
     <row r="286" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="B286" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="B286" s="11" t="s">
-        <v>448</v>
-      </c>
       <c r="D286" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F286" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H286" s="12" t="s">
         <v>4</v>
@@ -7552,10 +7546,10 @@
         <v>536</v>
       </c>
       <c r="D287" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F287" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H287" s="12" t="s">
         <v>4</v>
@@ -7569,10 +7563,10 @@
         <v>538</v>
       </c>
       <c r="D288" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F288" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H288" s="12" t="s">
         <v>4</v>
@@ -7583,13 +7577,13 @@
         <v>539</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>540</v>
+        <v>157</v>
       </c>
       <c r="D289" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F289" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H289" s="12" t="s">
         <v>4</v>
@@ -7597,53 +7591,53 @@
     </row>
     <row r="290" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>541</v>
+        <v>662</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>159</v>
+        <v>425</v>
       </c>
       <c r="D290" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F290" s="12" t="s">
-        <v>304</v>
+        <v>424</v>
       </c>
       <c r="H290" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="I290" s="12" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="291" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>664</v>
+        <v>426</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>427</v>
+        <v>12</v>
       </c>
       <c r="D291" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F291" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H291" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="I291" s="12" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="292" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>12</v>
+        <v>430</v>
       </c>
       <c r="D292" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F292" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H292" s="12" t="s">
         <v>4</v>
@@ -7657,10 +7651,10 @@
         <v>432</v>
       </c>
       <c r="D293" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F293" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H293" s="12" t="s">
         <v>4</v>
@@ -7674,10 +7668,10 @@
         <v>434</v>
       </c>
       <c r="D294" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F294" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H294" s="12" t="s">
         <v>4</v>
@@ -7691,10 +7685,10 @@
         <v>436</v>
       </c>
       <c r="D295" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F295" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H295" s="12" t="s">
         <v>4</v>
@@ -7708,10 +7702,10 @@
         <v>438</v>
       </c>
       <c r="D296" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F296" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H296" s="12" t="s">
         <v>4</v>
@@ -7725,10 +7719,10 @@
         <v>440</v>
       </c>
       <c r="D297" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F297" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H297" s="12" t="s">
         <v>4</v>
@@ -7742,10 +7736,10 @@
         <v>442</v>
       </c>
       <c r="D298" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F298" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H298" s="12" t="s">
         <v>4</v>
@@ -7759,10 +7753,10 @@
         <v>444</v>
       </c>
       <c r="D299" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F299" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H299" s="12" t="s">
         <v>4</v>
@@ -7770,16 +7764,16 @@
     </row>
     <row r="300" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="D300" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F300" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H300" s="12" t="s">
         <v>4</v>
@@ -7787,16 +7781,16 @@
     </row>
     <row r="301" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
       <c r="D301" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F301" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H301" s="12" t="s">
         <v>4</v>
@@ -7810,10 +7804,10 @@
         <v>448</v>
       </c>
       <c r="D302" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F302" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H302" s="12" t="s">
         <v>4</v>
@@ -7827,10 +7821,10 @@
         <v>450</v>
       </c>
       <c r="D303" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F303" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H303" s="12" t="s">
         <v>4</v>
@@ -7844,16 +7838,16 @@
         <v>452</v>
       </c>
       <c r="D304" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F304" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H304" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="305" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
         <v>453</v>
       </c>
@@ -7861,16 +7855,16 @@
         <v>454</v>
       </c>
       <c r="D305" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F305" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H305" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="306" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
         <v>455</v>
       </c>
@@ -7878,16 +7872,16 @@
         <v>456</v>
       </c>
       <c r="D306" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F306" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H306" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="307" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
         <v>457</v>
       </c>
@@ -7895,16 +7889,16 @@
         <v>458</v>
       </c>
       <c r="D307" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F307" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H307" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="308" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
         <v>459</v>
       </c>
@@ -7912,16 +7906,16 @@
         <v>460</v>
       </c>
       <c r="D308" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F308" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H308" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="309" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
         <v>461</v>
       </c>
@@ -7929,16 +7923,16 @@
         <v>462</v>
       </c>
       <c r="D309" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F309" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H309" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="310" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
         <v>463</v>
       </c>
@@ -7946,50 +7940,50 @@
         <v>464</v>
       </c>
       <c r="D310" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F310" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H310" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="311" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
         <v>465</v>
       </c>
       <c r="B311" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D311" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F311" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="H311" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="10" t="s">
         <v>466</v>
       </c>
-      <c r="D311" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F311" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="H311" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="10" t="s">
+      <c r="B312" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="B312" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="D312" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F312" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H312" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="313" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
         <v>468</v>
       </c>
@@ -7997,16 +7991,16 @@
         <v>469</v>
       </c>
       <c r="D313" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F313" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H313" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="314" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
         <v>470</v>
       </c>
@@ -8014,118 +8008,121 @@
         <v>471</v>
       </c>
       <c r="D314" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F314" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H314" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="315" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
+        <v>663</v>
+      </c>
+      <c r="B315" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="B315" s="11" t="s">
+      <c r="D315" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F315" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="H315" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="10" t="s">
         <v>473</v>
       </c>
-      <c r="D315" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F315" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="H315" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="10" t="s">
-        <v>665</v>
-      </c>
       <c r="B316" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D316" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F316" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="H316" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="10" t="s">
         <v>474</v>
       </c>
-      <c r="D316" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F316" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="H316" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="10" t="s">
-        <v>475</v>
-      </c>
       <c r="B317" s="11" t="s">
-        <v>218</v>
+        <v>358</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F317" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H317" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="318" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>476</v>
+        <v>699</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>360</v>
+        <v>702</v>
       </c>
       <c r="D318" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F318" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H318" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="B319" s="11" t="s">
         <v>701</v>
       </c>
-      <c r="B319" s="11" t="s">
-        <v>704</v>
-      </c>
       <c r="D319" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F319" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="H319" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="320" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>702</v>
+        <v>303</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>703</v>
+        <v>304</v>
       </c>
       <c r="D320" s="12" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="F320" s="12" t="s">
-        <v>426</v>
+        <v>302</v>
       </c>
       <c r="H320" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I320" s="12" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
         <v>305</v>
       </c>
@@ -8133,53 +8130,50 @@
         <v>306</v>
       </c>
       <c r="D321" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F321" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H321" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I321" s="12" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="322" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B322" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="D322" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F322" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="H322" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B322" s="11" t="s">
+      <c r="B323" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="D322" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="F322" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H322" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="323" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="B323" s="11" t="s">
-        <v>425</v>
-      </c>
       <c r="D323" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F323" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H323" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
         <v>309</v>
       </c>
@@ -8187,16 +8181,16 @@
         <v>310</v>
       </c>
       <c r="D324" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F324" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H324" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="325" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
         <v>311</v>
       </c>
@@ -8204,16 +8198,16 @@
         <v>312</v>
       </c>
       <c r="D325" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F325" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H325" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="326" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
         <v>313</v>
       </c>
@@ -8221,67 +8215,67 @@
         <v>314</v>
       </c>
       <c r="D326" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F326" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H326" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="327" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
         <v>315</v>
       </c>
       <c r="B327" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D327" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F327" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="H327" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="D327" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="F327" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H327" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="10" t="s">
+      <c r="B328" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="D328" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F328" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="H328" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A329" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="B328" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D328" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="F328" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H328" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="10" t="s">
+      <c r="B329" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="B329" s="11" t="s">
-        <v>230</v>
-      </c>
       <c r="D329" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F329" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H329" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="330" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
         <v>319</v>
       </c>
@@ -8289,16 +8283,16 @@
         <v>320</v>
       </c>
       <c r="D330" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F330" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H330" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="331" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
         <v>321</v>
       </c>
@@ -8306,16 +8300,16 @@
         <v>322</v>
       </c>
       <c r="D331" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F331" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H331" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="332" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
         <v>323</v>
       </c>
@@ -8323,16 +8317,16 @@
         <v>324</v>
       </c>
       <c r="D332" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F332" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H332" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="333" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
         <v>325</v>
       </c>
@@ -8340,50 +8334,50 @@
         <v>326</v>
       </c>
       <c r="D333" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F333" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H333" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
         <v>327</v>
       </c>
       <c r="B334" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D334" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F334" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="H334" s="12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="D334" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="F334" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="H334" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="335" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="10" t="s">
+      <c r="B335" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="B335" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="D335" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F335" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H335" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
         <v>330</v>
       </c>
@@ -8391,10 +8385,10 @@
         <v>331</v>
       </c>
       <c r="D336" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F336" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H336" s="12" t="s">
         <v>4</v>
@@ -8408,10 +8402,10 @@
         <v>333</v>
       </c>
       <c r="D337" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F337" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H337" s="12" t="s">
         <v>4</v>
@@ -8425,10 +8419,10 @@
         <v>335</v>
       </c>
       <c r="D338" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F338" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H338" s="12" t="s">
         <v>4</v>
@@ -8442,10 +8436,10 @@
         <v>337</v>
       </c>
       <c r="D339" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F339" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H339" s="12" t="s">
         <v>4</v>
@@ -8456,13 +8450,13 @@
         <v>338</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>339</v>
+        <v>665</v>
       </c>
       <c r="D340" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F340" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H340" s="12" t="s">
         <v>4</v>
@@ -8470,16 +8464,16 @@
     </row>
     <row r="341" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B341" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="B341" s="11" t="s">
-        <v>667</v>
-      </c>
       <c r="D341" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F341" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H341" s="12" t="s">
         <v>4</v>
@@ -8490,13 +8484,13 @@
         <v>341</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>342</v>
+        <v>224</v>
       </c>
       <c r="D342" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F342" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H342" s="12" t="s">
         <v>4</v>
@@ -8504,16 +8498,16 @@
     </row>
     <row r="343" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="D343" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F343" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H343" s="12" t="s">
         <v>4</v>
@@ -8521,16 +8515,16 @@
     </row>
     <row r="344" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>245</v>
+        <v>41</v>
       </c>
       <c r="D344" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F344" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H344" s="12" t="s">
         <v>4</v>
@@ -8538,16 +8532,16 @@
     </row>
     <row r="345" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B345" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="B345" s="11" t="s">
-        <v>41</v>
-      </c>
       <c r="D345" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F345" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H345" s="12" t="s">
         <v>4</v>
@@ -8558,13 +8552,13 @@
         <v>346</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>347</v>
+        <v>151</v>
       </c>
       <c r="D346" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F346" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H346" s="12" t="s">
         <v>4</v>
@@ -8572,16 +8566,16 @@
     </row>
     <row r="347" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="B347" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="B347" s="11" t="s">
-        <v>153</v>
-      </c>
       <c r="D347" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F347" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H347" s="12" t="s">
         <v>4</v>
@@ -8595,10 +8589,10 @@
         <v>350</v>
       </c>
       <c r="D348" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F348" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H348" s="12" t="s">
         <v>4</v>
@@ -8612,10 +8606,10 @@
         <v>352</v>
       </c>
       <c r="D349" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F349" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H349" s="12" t="s">
         <v>4</v>
@@ -8629,10 +8623,10 @@
         <v>354</v>
       </c>
       <c r="D350" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F350" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H350" s="12" t="s">
         <v>4</v>
@@ -8646,10 +8640,10 @@
         <v>356</v>
       </c>
       <c r="D351" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F351" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H351" s="12" t="s">
         <v>4</v>
@@ -8663,10 +8657,10 @@
         <v>358</v>
       </c>
       <c r="D352" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F352" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H352" s="12" t="s">
         <v>4</v>
@@ -8680,10 +8674,10 @@
         <v>360</v>
       </c>
       <c r="D353" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F353" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H353" s="12" t="s">
         <v>4</v>
@@ -8697,10 +8691,10 @@
         <v>362</v>
       </c>
       <c r="D354" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F354" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H354" s="12" t="s">
         <v>4</v>
@@ -8711,13 +8705,13 @@
         <v>363</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>364</v>
+        <v>39</v>
       </c>
       <c r="D355" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F355" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H355" s="12" t="s">
         <v>4</v>
@@ -8725,16 +8719,16 @@
     </row>
     <row r="356" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="B356" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="B356" s="11" t="s">
-        <v>39</v>
-      </c>
       <c r="D356" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F356" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H356" s="12" t="s">
         <v>4</v>
@@ -8748,10 +8742,10 @@
         <v>367</v>
       </c>
       <c r="D357" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F357" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H357" s="12" t="s">
         <v>4</v>
@@ -8765,10 +8759,10 @@
         <v>369</v>
       </c>
       <c r="D358" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F358" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H358" s="12" t="s">
         <v>4</v>
@@ -8782,10 +8776,10 @@
         <v>371</v>
       </c>
       <c r="D359" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F359" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H359" s="12" t="s">
         <v>4</v>
@@ -8799,10 +8793,10 @@
         <v>373</v>
       </c>
       <c r="D360" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F360" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H360" s="12" t="s">
         <v>4</v>
@@ -8816,10 +8810,10 @@
         <v>375</v>
       </c>
       <c r="D361" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F361" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H361" s="12" t="s">
         <v>4</v>
@@ -8833,10 +8827,10 @@
         <v>377</v>
       </c>
       <c r="D362" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F362" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H362" s="12" t="s">
         <v>4</v>
@@ -8850,10 +8844,10 @@
         <v>379</v>
       </c>
       <c r="D363" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F363" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H363" s="12" t="s">
         <v>4</v>
@@ -8867,10 +8861,10 @@
         <v>381</v>
       </c>
       <c r="D364" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F364" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H364" s="12" t="s">
         <v>4</v>
@@ -8884,10 +8878,10 @@
         <v>383</v>
       </c>
       <c r="D365" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F365" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H365" s="12" t="s">
         <v>4</v>
@@ -8901,10 +8895,10 @@
         <v>385</v>
       </c>
       <c r="D366" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F366" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H366" s="12" t="s">
         <v>4</v>
@@ -8915,13 +8909,13 @@
         <v>386</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>387</v>
+        <v>194</v>
       </c>
       <c r="D367" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F367" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H367" s="12" t="s">
         <v>4</v>
@@ -8929,16 +8923,16 @@
     </row>
     <row r="368" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="D368" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F368" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H368" s="12" t="s">
         <v>4</v>
@@ -8946,16 +8940,16 @@
     </row>
     <row r="369" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B369" s="11" t="s">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="D369" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F369" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H369" s="12" t="s">
         <v>4</v>
@@ -8963,16 +8957,16 @@
     </row>
     <row r="370" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="B370" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="B370" s="11" t="s">
-        <v>302</v>
-      </c>
       <c r="D370" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F370" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H370" s="12" t="s">
         <v>4</v>
@@ -8983,13 +8977,13 @@
         <v>391</v>
       </c>
       <c r="B371" s="11" t="s">
-        <v>392</v>
+        <v>271</v>
       </c>
       <c r="D371" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F371" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H371" s="12" t="s">
         <v>4</v>
@@ -8997,16 +8991,16 @@
     </row>
     <row r="372" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B372" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="B372" s="11" t="s">
-        <v>273</v>
-      </c>
       <c r="D372" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F372" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H372" s="12" t="s">
         <v>4</v>
@@ -9020,10 +9014,10 @@
         <v>395</v>
       </c>
       <c r="D373" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F373" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H373" s="12" t="s">
         <v>4</v>
@@ -9037,10 +9031,10 @@
         <v>397</v>
       </c>
       <c r="D374" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F374" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H374" s="12" t="s">
         <v>4</v>
@@ -9054,10 +9048,10 @@
         <v>399</v>
       </c>
       <c r="D375" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F375" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H375" s="12" t="s">
         <v>4</v>
@@ -9068,13 +9062,13 @@
         <v>400</v>
       </c>
       <c r="B376" s="11" t="s">
-        <v>401</v>
+        <v>331</v>
       </c>
       <c r="D376" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F376" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H376" s="12" t="s">
         <v>4</v>
@@ -9082,16 +9076,16 @@
     </row>
     <row r="377" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="B377" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="B377" s="11" t="s">
-        <v>333</v>
-      </c>
       <c r="D377" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F377" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H377" s="12" t="s">
         <v>4</v>
@@ -9105,10 +9099,10 @@
         <v>404</v>
       </c>
       <c r="D378" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F378" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H378" s="12" t="s">
         <v>4</v>
@@ -9122,10 +9116,10 @@
         <v>406</v>
       </c>
       <c r="D379" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F379" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H379" s="12" t="s">
         <v>4</v>
@@ -9139,10 +9133,10 @@
         <v>408</v>
       </c>
       <c r="D380" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F380" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H380" s="12" t="s">
         <v>4</v>
@@ -9156,10 +9150,10 @@
         <v>410</v>
       </c>
       <c r="D381" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F381" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H381" s="12" t="s">
         <v>4</v>
@@ -9173,10 +9167,10 @@
         <v>412</v>
       </c>
       <c r="D382" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F382" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H382" s="12" t="s">
         <v>4</v>
@@ -9190,10 +9184,10 @@
         <v>414</v>
       </c>
       <c r="D383" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F383" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H383" s="12" t="s">
         <v>4</v>
@@ -9207,10 +9201,10 @@
         <v>416</v>
       </c>
       <c r="D384" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F384" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H384" s="12" t="s">
         <v>4</v>
@@ -9224,10 +9218,10 @@
         <v>418</v>
       </c>
       <c r="D385" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F385" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H385" s="12" t="s">
         <v>4</v>
@@ -9235,51 +9229,53 @@
     </row>
     <row r="386" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A386" s="10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B386" s="11" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D386" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F386" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H386" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="387" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A387" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="B387" s="11" t="s">
-        <v>423</v>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A387" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="B387" s="8" t="s">
+        <v>705</v>
       </c>
       <c r="D387" s="12" t="s">
-        <v>303</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="E387" s="12"/>
       <c r="F387" s="12" t="s">
-        <v>304</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="G387" s="12"/>
       <c r="H387" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="D388" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E388" s="12"/>
       <c r="F388" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G388" s="12"/>
       <c r="H388" s="12" t="s">
@@ -9288,17 +9284,17 @@
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D389" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E389" s="12"/>
       <c r="F389" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G389" s="12"/>
       <c r="H389" s="12" t="s">
@@ -9307,44 +9303,25 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>705</v>
+        <v>226</v>
       </c>
       <c r="D390" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E390" s="12"/>
       <c r="F390" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G390" s="12"/>
       <c r="H390" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A391" s="5" t="s">
-        <v>692</v>
-      </c>
-      <c r="B391" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="D391" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="E391" s="12"/>
-      <c r="F391" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="G391" s="12"/>
-      <c r="H391" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I387">
+  <autoFilter ref="A1:I386">
     <sortState ref="A2:H372">
       <sortCondition ref="D2:D372"/>
       <sortCondition ref="F2:F372"/>
@@ -9373,10 +9350,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>4</v>

--- a/maps/aprop.xlsx
+++ b/maps/aprop.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Plan2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$I$386</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Plan1!$A$1:$I$383</definedName>
   </definedNames>
   <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1952" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1937" uniqueCount="728">
   <si>
     <t>nome_apropriador</t>
   </si>
@@ -2057,15 +2057,6 @@
     <t>4126</t>
   </si>
   <si>
-    <t>44137</t>
-  </si>
-  <si>
-    <t>L HENRIQUE</t>
-  </si>
-  <si>
-    <t>44170</t>
-  </si>
-  <si>
     <t>matr_apropriador</t>
   </si>
   <si>
@@ -2136,9 +2127,6 @@
   </si>
   <si>
     <t>*RAFAEL</t>
-  </si>
-  <si>
-    <t>44213</t>
   </si>
   <si>
     <t>*MAYCON</t>
@@ -2615,10 +2603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J390"/>
+  <dimension ref="A1:J387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2648,13 +2636,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>1</v>
@@ -2663,7 +2651,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
@@ -2790,10 +2778,10 @@
     </row>
     <row r="9" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>9</v>
@@ -3064,51 +3052,54 @@
       </c>
     </row>
     <row r="25" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>679</v>
+      <c r="A25" s="10" t="s">
+        <v>45</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>680</v>
+        <v>46</v>
       </c>
       <c r="D25" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="I25" s="12" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="26" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>681</v>
+      <c r="A26" s="10" t="s">
+        <v>47</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>444</v>
+        <v>49</v>
       </c>
       <c r="D26" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="12" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>706</v>
+      <c r="A27" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>116</v>
+        <v>51</v>
       </c>
       <c r="D27" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>4</v>
@@ -3116,10 +3107,10 @@
     </row>
     <row r="28" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D28" s="12" t="s">
         <v>9</v>
@@ -3130,16 +3121,13 @@
       <c r="H28" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I28" s="12" t="s">
-        <v>652</v>
-      </c>
     </row>
     <row r="29" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D29" s="12" t="s">
         <v>9</v>
@@ -3153,10 +3141,10 @@
     </row>
     <row r="30" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>9</v>
@@ -3170,10 +3158,10 @@
     </row>
     <row r="31" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>9</v>
@@ -3187,10 +3175,10 @@
     </row>
     <row r="32" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>9</v>
@@ -3204,10 +3192,10 @@
     </row>
     <row r="33" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D33" s="12" t="s">
         <v>9</v>
@@ -3221,10 +3209,10 @@
     </row>
     <row r="34" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D34" s="12" t="s">
         <v>9</v>
@@ -3238,10 +3226,10 @@
     </row>
     <row r="35" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>9</v>
@@ -3255,10 +3243,10 @@
     </row>
     <row r="36" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>9</v>
@@ -3272,10 +3260,10 @@
     </row>
     <row r="37" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>9</v>
@@ -3289,10 +3277,10 @@
     </row>
     <row r="38" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>67</v>
+        <v>104</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>9</v>
@@ -3306,10 +3294,10 @@
     </row>
     <row r="39" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D39" s="12" t="s">
         <v>9</v>
@@ -3323,10 +3311,10 @@
     </row>
     <row r="40" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D40" s="12" t="s">
         <v>9</v>
@@ -3340,10 +3328,10 @@
     </row>
     <row r="41" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>105</v>
+        <v>76</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="D41" s="12" t="s">
         <v>9</v>
@@ -3357,10 +3345,10 @@
     </row>
     <row r="42" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D42" s="12" t="s">
         <v>9</v>
@@ -3374,10 +3362,10 @@
     </row>
     <row r="43" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D43" s="12" t="s">
         <v>9</v>
@@ -3391,10 +3379,10 @@
     </row>
     <row r="44" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D44" s="12" t="s">
         <v>9</v>
@@ -3408,10 +3396,10 @@
     </row>
     <row r="45" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="9" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="D45" s="12" t="s">
         <v>9</v>
@@ -3425,10 +3413,10 @@
     </row>
     <row r="46" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B46" s="9" t="s">
-        <v>81</v>
+        <v>86</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="D46" s="12" t="s">
         <v>9</v>
@@ -3442,10 +3430,10 @@
     </row>
     <row r="47" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="D47" s="12" t="s">
         <v>9</v>
@@ -3459,10 +3447,10 @@
     </row>
     <row r="48" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D48" s="12" t="s">
         <v>9</v>
@@ -3476,10 +3464,10 @@
     </row>
     <row r="49" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D49" s="12" t="s">
         <v>9</v>
@@ -3493,10 +3481,10 @@
     </row>
     <row r="50" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D50" s="12" t="s">
         <v>9</v>
@@ -3510,10 +3498,10 @@
     </row>
     <row r="51" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="D51" s="12" t="s">
         <v>9</v>
@@ -3527,10 +3515,10 @@
     </row>
     <row r="52" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B52" s="11" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D52" s="12" t="s">
         <v>9</v>
@@ -3544,10 +3532,10 @@
     </row>
     <row r="53" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D53" s="12" t="s">
         <v>9</v>
@@ -3561,10 +3549,10 @@
     </row>
     <row r="54" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="D54" s="12" t="s">
         <v>9</v>
@@ -3577,62 +3565,65 @@
       </c>
     </row>
     <row r="55" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>99</v>
+      <c r="A55" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="D55" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="H55" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>101</v>
+      <c r="A56" s="6">
+        <v>1078</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="D56" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="I56" s="12" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="57" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>103</v>
+      <c r="A57" s="6">
+        <v>1083</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="D57" s="12" t="s">
         <v>9</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="H57" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>28</v>
+      <c r="A58" s="6">
+        <v>1238</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D58" s="12" t="s">
         <v>9</v>
@@ -3646,10 +3637,10 @@
     </row>
     <row r="59" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>1078</v>
+        <v>1358</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D59" s="12" t="s">
         <v>9</v>
@@ -3660,16 +3651,13 @@
       <c r="H59" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="12" t="s">
-        <v>660</v>
-      </c>
     </row>
     <row r="60" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>1083</v>
+        <v>2681</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>9</v>
@@ -3683,10 +3671,10 @@
     </row>
     <row r="61" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>1238</v>
+        <v>2704</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>9</v>
@@ -3700,10 +3688,10 @@
     </row>
     <row r="62" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>1358</v>
+        <v>3175</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>9</v>
@@ -3717,10 +3705,10 @@
     </row>
     <row r="63" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>2681</v>
+        <v>3236</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>9</v>
@@ -3734,10 +3722,10 @@
     </row>
     <row r="64" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>2704</v>
+        <v>3314</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>9</v>
@@ -3751,10 +3739,10 @@
     </row>
     <row r="65" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>3175</v>
+        <v>3444</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>9</v>
@@ -3768,10 +3756,10 @@
     </row>
     <row r="66" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>3236</v>
+        <v>3449</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D66" s="12" t="s">
         <v>9</v>
@@ -3785,10 +3773,10 @@
     </row>
     <row r="67" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>3314</v>
+        <v>3759</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D67" s="12" t="s">
         <v>9</v>
@@ -3801,11 +3789,11 @@
       </c>
     </row>
     <row r="68" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="6">
-        <v>3444</v>
+      <c r="A68" s="6" t="s">
+        <v>676</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>25</v>
+        <v>432</v>
       </c>
       <c r="D68" s="12" t="s">
         <v>9</v>
@@ -3818,11 +3806,11 @@
       </c>
     </row>
     <row r="69" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="6">
-        <v>3449</v>
+      <c r="A69" s="6" t="s">
+        <v>677</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D69" s="12" t="s">
         <v>9</v>
@@ -3835,11 +3823,11 @@
       </c>
     </row>
     <row r="70" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
-        <v>3759</v>
+      <c r="A70" s="6" t="s">
+        <v>678</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="D70" s="12" t="s">
         <v>9</v>
@@ -3853,10 +3841,10 @@
     </row>
     <row r="71" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>676</v>
+        <v>688</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>432</v>
+        <v>708</v>
       </c>
       <c r="D71" s="12" t="s">
         <v>9</v>
@@ -3870,10 +3858,10 @@
     </row>
     <row r="72" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>677</v>
+        <v>689</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>8</v>
+        <v>707</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>9</v>
@@ -3887,10 +3875,10 @@
     </row>
     <row r="73" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>109</v>
+        <v>706</v>
       </c>
       <c r="D73" s="12" t="s">
         <v>9</v>
@@ -3907,7 +3895,7 @@
         <v>691</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>9</v>
@@ -3924,7 +3912,7 @@
         <v>692</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="D75" s="12" t="s">
         <v>9</v>
@@ -3938,10 +3926,10 @@
     </row>
     <row r="76" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="B76" s="9" t="s">
-        <v>710</v>
+        <v>644</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>661</v>
       </c>
       <c r="D76" s="12" t="s">
         <v>9</v>
@@ -3955,10 +3943,10 @@
     </row>
     <row r="77" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="B77" s="9" t="s">
-        <v>709</v>
+        <v>645</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>661</v>
       </c>
       <c r="D77" s="12" t="s">
         <v>9</v>
@@ -3972,10 +3960,10 @@
     </row>
     <row r="78" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="B78" s="9" t="s">
-        <v>708</v>
+        <v>646</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>661</v>
       </c>
       <c r="D78" s="12" t="s">
         <v>9</v>
@@ -3989,7 +3977,7 @@
     </row>
     <row r="79" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B79" s="11" t="s">
         <v>661</v>
@@ -4006,7 +3994,7 @@
     </row>
     <row r="80" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>661</v>
@@ -4023,7 +4011,7 @@
     </row>
     <row r="81" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B81" s="11" t="s">
         <v>661</v>
@@ -4039,51 +4027,54 @@
       </c>
     </row>
     <row r="82" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="6" t="s">
-        <v>647</v>
+      <c r="A82" s="10" t="s">
+        <v>171</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>661</v>
+        <v>172</v>
       </c>
       <c r="D82" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="H82" s="12" t="s">
         <v>4</v>
       </c>
+      <c r="I82" s="12" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="83" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="6" t="s">
-        <v>648</v>
+      <c r="A83" s="10" t="s">
+        <v>173</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>661</v>
+        <v>174</v>
       </c>
       <c r="D83" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="H83" s="12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>649</v>
+      <c r="A84" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>661</v>
+        <v>176</v>
       </c>
       <c r="D84" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>15</v>
+        <v>170</v>
       </c>
       <c r="H84" s="12" t="s">
         <v>4</v>
@@ -4091,10 +4082,10 @@
     </row>
     <row r="85" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="D85" s="12" t="s">
         <v>5</v>
@@ -4105,16 +4096,13 @@
       <c r="H85" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I85" s="12" t="s">
-        <v>654</v>
-      </c>
     </row>
     <row r="86" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D86" s="12" t="s">
         <v>5</v>
@@ -4128,10 +4116,10 @@
     </row>
     <row r="87" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D87" s="12" t="s">
         <v>5</v>
@@ -4145,10 +4133,10 @@
     </row>
     <row r="88" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="D88" s="12" t="s">
         <v>5</v>
@@ -4162,10 +4150,10 @@
     </row>
     <row r="89" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D89" s="12" t="s">
         <v>5</v>
@@ -4179,10 +4167,10 @@
     </row>
     <row r="90" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D90" s="12" t="s">
         <v>5</v>
@@ -4196,10 +4184,10 @@
     </row>
     <row r="91" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="D91" s="12" t="s">
         <v>5</v>
@@ -4213,10 +4201,10 @@
     </row>
     <row r="92" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D92" s="12" t="s">
         <v>5</v>
@@ -4230,10 +4218,10 @@
     </row>
     <row r="93" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="D93" s="12" t="s">
         <v>5</v>
@@ -4247,10 +4235,10 @@
     </row>
     <row r="94" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="D94" s="12" t="s">
         <v>5</v>
@@ -4264,10 +4252,10 @@
     </row>
     <row r="95" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D95" s="12" t="s">
         <v>5</v>
@@ -4281,10 +4269,10 @@
     </row>
     <row r="96" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="D96" s="12" t="s">
         <v>5</v>
@@ -4298,10 +4286,10 @@
     </row>
     <row r="97" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D97" s="12" t="s">
         <v>5</v>
@@ -4315,10 +4303,10 @@
     </row>
     <row r="98" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D98" s="12" t="s">
         <v>5</v>
@@ -4332,10 +4320,10 @@
     </row>
     <row r="99" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="D99" s="12" t="s">
         <v>5</v>
@@ -4349,10 +4337,10 @@
     </row>
     <row r="100" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D100" s="12" t="s">
         <v>5</v>
@@ -4366,10 +4354,10 @@
     </row>
     <row r="101" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="D101" s="12" t="s">
         <v>5</v>
@@ -4383,10 +4371,10 @@
     </row>
     <row r="102" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B102" s="11" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D102" s="12" t="s">
         <v>5</v>
@@ -4400,10 +4388,10 @@
     </row>
     <row r="103" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B103" s="11" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="D103" s="12" t="s">
         <v>5</v>
@@ -4417,10 +4405,10 @@
     </row>
     <row r="104" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="D104" s="12" t="s">
         <v>5</v>
@@ -4434,10 +4422,10 @@
     </row>
     <row r="105" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="B105" s="11" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="D105" s="12" t="s">
         <v>5</v>
@@ -4451,10 +4439,10 @@
     </row>
     <row r="106" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="D106" s="12" t="s">
         <v>5</v>
@@ -4468,10 +4456,10 @@
     </row>
     <row r="107" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="D107" s="12" t="s">
         <v>5</v>
@@ -4485,10 +4473,10 @@
     </row>
     <row r="108" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="D108" s="12" t="s">
         <v>5</v>
@@ -4502,10 +4490,10 @@
     </row>
     <row r="109" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B109" s="11" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D109" s="12" t="s">
         <v>5</v>
@@ -4519,10 +4507,10 @@
     </row>
     <row r="110" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B110" s="11" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="D110" s="12" t="s">
         <v>5</v>
@@ -4536,10 +4524,10 @@
     </row>
     <row r="111" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B111" s="11" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D111" s="12" t="s">
         <v>5</v>
@@ -4553,10 +4541,10 @@
     </row>
     <row r="112" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D112" s="12" t="s">
         <v>5</v>
@@ -4570,10 +4558,10 @@
     </row>
     <row r="113" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B113" s="11" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D113" s="12" t="s">
         <v>5</v>
@@ -4587,10 +4575,10 @@
     </row>
     <row r="114" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B114" s="11" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D114" s="12" t="s">
         <v>5</v>
@@ -4604,10 +4592,10 @@
     </row>
     <row r="115" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="B115" s="11" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>5</v>
@@ -4621,10 +4609,10 @@
     </row>
     <row r="116" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B116" s="11" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D116" s="12" t="s">
         <v>5</v>
@@ -4638,10 +4626,10 @@
     </row>
     <row r="117" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="B117" s="11" t="s">
-        <v>236</v>
+        <v>109</v>
       </c>
       <c r="D117" s="12" t="s">
         <v>5</v>
@@ -4655,10 +4643,10 @@
     </row>
     <row r="118" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D118" s="12" t="s">
         <v>5</v>
@@ -4672,10 +4660,10 @@
     </row>
     <row r="119" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B119" s="11" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="D119" s="12" t="s">
         <v>5</v>
@@ -4689,10 +4677,10 @@
     </row>
     <row r="120" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>109</v>
+        <v>247</v>
       </c>
       <c r="D120" s="12" t="s">
         <v>5</v>
@@ -4706,10 +4694,10 @@
     </row>
     <row r="121" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B121" s="11" t="s">
-        <v>243</v>
+        <v>147</v>
       </c>
       <c r="D121" s="12" t="s">
         <v>5</v>
@@ -4723,10 +4711,10 @@
     </row>
     <row r="122" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="D122" s="12" t="s">
         <v>5</v>
@@ -4740,10 +4728,10 @@
     </row>
     <row r="123" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D123" s="12" t="s">
         <v>5</v>
@@ -4757,10 +4745,10 @@
     </row>
     <row r="124" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>147</v>
+        <v>48</v>
       </c>
       <c r="D124" s="12" t="s">
         <v>5</v>
@@ -4774,10 +4762,10 @@
     </row>
     <row r="125" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B125" s="11" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="D125" s="12" t="s">
         <v>5</v>
@@ -4791,10 +4779,10 @@
     </row>
     <row r="126" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="D126" s="12" t="s">
         <v>5</v>
@@ -4808,10 +4796,10 @@
     </row>
     <row r="127" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>48</v>
+        <v>259</v>
       </c>
       <c r="D127" s="12" t="s">
         <v>5</v>
@@ -4825,10 +4813,10 @@
     </row>
     <row r="128" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="D128" s="12" t="s">
         <v>5</v>
@@ -4842,10 +4830,10 @@
     </row>
     <row r="129" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B129" s="11" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D129" s="12" t="s">
         <v>5</v>
@@ -4859,10 +4847,10 @@
     </row>
     <row r="130" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B130" s="11" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D130" s="12" t="s">
         <v>5</v>
@@ -4876,10 +4864,10 @@
     </row>
     <row r="131" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B131" s="11" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D131" s="12" t="s">
         <v>5</v>
@@ -4893,10 +4881,10 @@
     </row>
     <row r="132" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B132" s="11" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D132" s="12" t="s">
         <v>5</v>
@@ -4910,10 +4898,10 @@
     </row>
     <row r="133" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D133" s="12" t="s">
         <v>5</v>
@@ -4927,10 +4915,10 @@
     </row>
     <row r="134" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="D134" s="12" t="s">
         <v>5</v>
@@ -4944,10 +4932,10 @@
     </row>
     <row r="135" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D135" s="12" t="s">
         <v>5</v>
@@ -4961,10 +4949,10 @@
     </row>
     <row r="136" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B136" s="11" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D136" s="12" t="s">
         <v>5</v>
@@ -4978,10 +4966,10 @@
     </row>
     <row r="137" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="D137" s="12" t="s">
         <v>5</v>
@@ -4995,10 +4983,10 @@
     </row>
     <row r="138" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B138" s="11" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D138" s="12" t="s">
         <v>5</v>
@@ -5012,10 +5000,10 @@
     </row>
     <row r="139" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="D139" s="12" t="s">
         <v>5</v>
@@ -5029,10 +5017,10 @@
     </row>
     <row r="140" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B140" s="11" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="D140" s="12" t="s">
         <v>5</v>
@@ -5046,10 +5034,10 @@
     </row>
     <row r="141" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B141" s="11" t="s">
-        <v>281</v>
+        <v>151</v>
       </c>
       <c r="D141" s="12" t="s">
         <v>5</v>
@@ -5063,10 +5051,10 @@
     </row>
     <row r="142" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B142" s="11" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D142" s="12" t="s">
         <v>5</v>
@@ -5080,10 +5068,10 @@
     </row>
     <row r="143" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B143" s="11" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D143" s="12" t="s">
         <v>5</v>
@@ -5097,10 +5085,10 @@
     </row>
     <row r="144" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B144" s="11" t="s">
-        <v>151</v>
+        <v>292</v>
       </c>
       <c r="D144" s="12" t="s">
         <v>5</v>
@@ -5114,10 +5102,10 @@
     </row>
     <row r="145" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D145" s="12" t="s">
         <v>5</v>
@@ -5131,10 +5119,10 @@
     </row>
     <row r="146" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D146" s="12" t="s">
         <v>5</v>
@@ -5148,10 +5136,10 @@
     </row>
     <row r="147" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="D147" s="12" t="s">
         <v>5</v>
@@ -5165,10 +5153,10 @@
     </row>
     <row r="148" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B148" s="11" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="D148" s="12" t="s">
         <v>5</v>
@@ -5182,30 +5170,33 @@
     </row>
     <row r="149" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
-        <v>295</v>
+        <v>576</v>
       </c>
       <c r="B149" s="11" t="s">
-        <v>296</v>
+        <v>577</v>
       </c>
       <c r="D149" s="12" t="s">
-        <v>5</v>
+        <v>540</v>
       </c>
       <c r="F149" s="12" t="s">
         <v>170</v>
       </c>
       <c r="H149" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="I149" s="12" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="150" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
-        <v>297</v>
+        <v>578</v>
       </c>
       <c r="B150" s="11" t="s">
-        <v>298</v>
+        <v>579</v>
       </c>
       <c r="D150" s="12" t="s">
-        <v>5</v>
+        <v>540</v>
       </c>
       <c r="F150" s="12" t="s">
         <v>170</v>
@@ -5216,13 +5207,13 @@
     </row>
     <row r="151" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
-        <v>299</v>
+        <v>580</v>
       </c>
       <c r="B151" s="11" t="s">
-        <v>300</v>
+        <v>581</v>
       </c>
       <c r="D151" s="12" t="s">
-        <v>5</v>
+        <v>540</v>
       </c>
       <c r="F151" s="12" t="s">
         <v>170</v>
@@ -5233,10 +5224,10 @@
     </row>
     <row r="152" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>577</v>
+        <v>14</v>
       </c>
       <c r="D152" s="12" t="s">
         <v>540</v>
@@ -5247,16 +5238,13 @@
       <c r="H152" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I152" s="12" t="s">
-        <v>659</v>
-      </c>
     </row>
     <row r="153" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="B153" s="11" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="D153" s="12" t="s">
         <v>540</v>
@@ -5270,10 +5258,10 @@
     </row>
     <row r="154" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="B154" s="11" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="D154" s="12" t="s">
         <v>540</v>
@@ -5287,10 +5275,10 @@
     </row>
     <row r="155" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>14</v>
+        <v>588</v>
       </c>
       <c r="D155" s="12" t="s">
         <v>540</v>
@@ -5304,10 +5292,10 @@
     </row>
     <row r="156" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="B156" s="11" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="D156" s="12" t="s">
         <v>540</v>
@@ -5321,10 +5309,10 @@
     </row>
     <row r="157" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="B157" s="11" t="s">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="D157" s="12" t="s">
         <v>540</v>
@@ -5338,10 +5326,10 @@
     </row>
     <row r="158" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="D158" s="12" t="s">
         <v>540</v>
@@ -5355,10 +5343,10 @@
     </row>
     <row r="159" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="B159" s="11" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="D159" s="12" t="s">
         <v>540</v>
@@ -5372,10 +5360,10 @@
     </row>
     <row r="160" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="B160" s="11" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="D160" s="12" t="s">
         <v>540</v>
@@ -5389,10 +5377,10 @@
     </row>
     <row r="161" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B161" s="11" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="D161" s="12" t="s">
         <v>540</v>
@@ -5406,10 +5394,10 @@
     </row>
     <row r="162" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B162" s="11" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="D162" s="12" t="s">
         <v>540</v>
@@ -5423,10 +5411,10 @@
     </row>
     <row r="163" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="D163" s="12" t="s">
         <v>540</v>
@@ -5440,10 +5428,10 @@
     </row>
     <row r="164" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D164" s="12" t="s">
         <v>540</v>
@@ -5457,10 +5445,10 @@
     </row>
     <row r="165" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="D165" s="12" t="s">
         <v>540</v>
@@ -5474,10 +5462,10 @@
     </row>
     <row r="166" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="B166" s="11" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="D166" s="12" t="s">
         <v>540</v>
@@ -5491,10 +5479,10 @@
     </row>
     <row r="167" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="B167" s="11" t="s">
-        <v>606</v>
+        <v>375</v>
       </c>
       <c r="D167" s="12" t="s">
         <v>540</v>
@@ -5508,10 +5496,10 @@
     </row>
     <row r="168" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B168" s="11" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="D168" s="12" t="s">
         <v>540</v>
@@ -5525,10 +5513,10 @@
     </row>
     <row r="169" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="D169" s="12" t="s">
         <v>540</v>
@@ -5542,10 +5530,10 @@
     </row>
     <row r="170" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>375</v>
+        <v>617</v>
       </c>
       <c r="D170" s="12" t="s">
         <v>540</v>
@@ -5559,10 +5547,10 @@
     </row>
     <row r="171" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="D171" s="12" t="s">
         <v>540</v>
@@ -5576,10 +5564,10 @@
     </row>
     <row r="172" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B172" s="11" t="s">
-        <v>615</v>
+        <v>360</v>
       </c>
       <c r="D172" s="12" t="s">
         <v>540</v>
@@ -5593,10 +5581,10 @@
     </row>
     <row r="173" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="B173" s="11" t="s">
-        <v>617</v>
+        <v>13</v>
       </c>
       <c r="D173" s="12" t="s">
         <v>540</v>
@@ -5610,10 +5598,10 @@
     </row>
     <row r="174" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B174" s="11" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="D174" s="12" t="s">
         <v>540</v>
@@ -5627,10 +5615,10 @@
     </row>
     <row r="175" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
-        <v>620</v>
+        <v>666</v>
       </c>
       <c r="B175" s="11" t="s">
-        <v>360</v>
+        <v>625</v>
       </c>
       <c r="D175" s="12" t="s">
         <v>540</v>
@@ -5644,10 +5632,10 @@
     </row>
     <row r="176" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="B176" s="11" t="s">
-        <v>13</v>
+        <v>224</v>
       </c>
       <c r="D176" s="12" t="s">
         <v>540</v>
@@ -5661,10 +5649,10 @@
     </row>
     <row r="177" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="B177" s="11" t="s">
-        <v>623</v>
+        <v>493</v>
       </c>
       <c r="D177" s="12" t="s">
         <v>540</v>
@@ -5678,10 +5666,10 @@
     </row>
     <row r="178" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
-        <v>666</v>
+        <v>628</v>
       </c>
       <c r="B178" s="11" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="D178" s="12" t="s">
         <v>540</v>
@@ -5695,10 +5683,10 @@
     </row>
     <row r="179" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>224</v>
+        <v>326</v>
       </c>
       <c r="D179" s="12" t="s">
         <v>540</v>
@@ -5712,10 +5700,10 @@
     </row>
     <row r="180" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="B180" s="11" t="s">
-        <v>493</v>
+        <v>631</v>
       </c>
       <c r="D180" s="12" t="s">
         <v>540</v>
@@ -5729,10 +5717,10 @@
     </row>
     <row r="181" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
-        <v>628</v>
+        <v>693</v>
       </c>
       <c r="B181" s="11" t="s">
-        <v>629</v>
+        <v>695</v>
       </c>
       <c r="D181" s="12" t="s">
         <v>540</v>
@@ -5746,10 +5734,10 @@
     </row>
     <row r="182" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
-        <v>624</v>
+        <v>694</v>
       </c>
       <c r="B182" s="11" t="s">
-        <v>326</v>
+        <v>727</v>
       </c>
       <c r="D182" s="12" t="s">
         <v>540</v>
@@ -5763,33 +5751,36 @@
     </row>
     <row r="183" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
-        <v>630</v>
+        <v>541</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>631</v>
+        <v>11</v>
       </c>
       <c r="D183" s="12" t="s">
         <v>540</v>
       </c>
       <c r="F183" s="12" t="s">
-        <v>170</v>
+        <v>575</v>
       </c>
       <c r="H183" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="I183" s="12" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="184" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
-        <v>696</v>
+        <v>542</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>698</v>
+        <v>543</v>
       </c>
       <c r="D184" s="12" t="s">
         <v>540</v>
       </c>
       <c r="F184" s="12" t="s">
-        <v>170</v>
+        <v>575</v>
       </c>
       <c r="H184" s="12" t="s">
         <v>4</v>
@@ -5797,16 +5788,16 @@
     </row>
     <row r="185" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
-        <v>697</v>
+        <v>544</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>731</v>
+        <v>545</v>
       </c>
       <c r="D185" s="12" t="s">
         <v>540</v>
       </c>
       <c r="F185" s="12" t="s">
-        <v>170</v>
+        <v>575</v>
       </c>
       <c r="H185" s="12" t="s">
         <v>4</v>
@@ -5814,10 +5805,10 @@
     </row>
     <row r="186" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="B186" s="11" t="s">
-        <v>11</v>
+        <v>547</v>
       </c>
       <c r="D186" s="12" t="s">
         <v>540</v>
@@ -5828,16 +5819,13 @@
       <c r="H186" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I186" s="12" t="s">
-        <v>658</v>
-      </c>
     </row>
     <row r="187" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B187" s="11" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="D187" s="12" t="s">
         <v>540</v>
@@ -5851,10 +5839,10 @@
     </row>
     <row r="188" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B188" s="11" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="D188" s="12" t="s">
         <v>540</v>
@@ -5868,10 +5856,10 @@
     </row>
     <row r="189" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
-        <v>546</v>
+        <v>508</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>547</v>
+        <v>664</v>
       </c>
       <c r="D189" s="12" t="s">
         <v>540</v>
@@ -5885,10 +5873,10 @@
     </row>
     <row r="190" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D190" s="12" t="s">
         <v>540</v>
@@ -5902,10 +5890,10 @@
     </row>
     <row r="191" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B191" s="11" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="D191" s="12" t="s">
         <v>540</v>
@@ -5919,10 +5907,10 @@
     </row>
     <row r="192" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
-        <v>508</v>
+        <v>556</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>664</v>
+        <v>224</v>
       </c>
       <c r="D192" s="12" t="s">
         <v>540</v>
@@ -5936,10 +5924,10 @@
     </row>
     <row r="193" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="D193" s="12" t="s">
         <v>540</v>
@@ -5953,10 +5941,10 @@
     </row>
     <row r="194" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B194" s="11" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="D194" s="12" t="s">
         <v>540</v>
@@ -5970,10 +5958,10 @@
     </row>
     <row r="195" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="B195" s="11" t="s">
-        <v>224</v>
+        <v>564</v>
       </c>
       <c r="D195" s="12" t="s">
         <v>540</v>
@@ -5987,10 +5975,10 @@
     </row>
     <row r="196" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="B196" s="11" t="s">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="D196" s="12" t="s">
         <v>540</v>
@@ -6004,10 +5992,10 @@
     </row>
     <row r="197" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="10" t="s">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="B197" s="11" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="D197" s="12" t="s">
         <v>540</v>
@@ -6021,10 +6009,10 @@
     </row>
     <row r="198" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A198" s="10" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B198" s="11" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="D198" s="12" t="s">
         <v>540</v>
@@ -6038,10 +6026,10 @@
     </row>
     <row r="199" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A199" s="10" t="s">
-        <v>565</v>
+        <v>530</v>
       </c>
       <c r="B199" s="11" t="s">
-        <v>566</v>
+        <v>531</v>
       </c>
       <c r="D199" s="12" t="s">
         <v>540</v>
@@ -6055,10 +6043,10 @@
     </row>
     <row r="200" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A200" s="10" t="s">
-        <v>567</v>
+        <v>419</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>568</v>
+        <v>675</v>
       </c>
       <c r="D200" s="12" t="s">
         <v>540</v>
@@ -6072,10 +6060,10 @@
     </row>
     <row r="201" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A201" s="10" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="B201" s="11" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="D201" s="12" t="s">
         <v>540</v>
@@ -6089,10 +6077,10 @@
     </row>
     <row r="202" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="10" t="s">
-        <v>530</v>
+        <v>571</v>
       </c>
       <c r="B202" s="11" t="s">
-        <v>531</v>
+        <v>572</v>
       </c>
       <c r="D202" s="12" t="s">
         <v>540</v>
@@ -6106,10 +6094,10 @@
     </row>
     <row r="203" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="10" t="s">
-        <v>419</v>
+        <v>573</v>
       </c>
       <c r="B203" s="11" t="s">
-        <v>675</v>
+        <v>574</v>
       </c>
       <c r="D203" s="12" t="s">
         <v>540</v>
@@ -6123,10 +6111,10 @@
     </row>
     <row r="204" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="10" t="s">
-        <v>561</v>
+        <v>709</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>562</v>
+        <v>710</v>
       </c>
       <c r="D204" s="12" t="s">
         <v>540</v>
@@ -6140,10 +6128,10 @@
     </row>
     <row r="205" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="10" t="s">
-        <v>571</v>
+        <v>711</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>572</v>
+        <v>712</v>
       </c>
       <c r="D205" s="12" t="s">
         <v>540</v>
@@ -6157,10 +6145,10 @@
     </row>
     <row r="206" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="10" t="s">
-        <v>573</v>
+        <v>713</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>574</v>
+        <v>714</v>
       </c>
       <c r="D206" s="12" t="s">
         <v>540</v>
@@ -6174,10 +6162,10 @@
     </row>
     <row r="207" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="10" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B207" s="11" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="D207" s="12" t="s">
         <v>540</v>
@@ -6191,10 +6179,10 @@
     </row>
     <row r="208" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A208" s="10" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B208" s="11" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D208" s="12" t="s">
         <v>540</v>
@@ -6208,10 +6196,10 @@
     </row>
     <row r="209" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="10" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B209" s="11" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="D209" s="12" t="s">
         <v>540</v>
@@ -6225,10 +6213,10 @@
     </row>
     <row r="210" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="10" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="D210" s="12" t="s">
         <v>540</v>
@@ -6242,10 +6230,10 @@
     </row>
     <row r="211" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="10" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="D211" s="12" t="s">
         <v>540</v>
@@ -6259,10 +6247,10 @@
     </row>
     <row r="212" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="10" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="D212" s="12" t="s">
         <v>540</v>
@@ -6276,10 +6264,10 @@
     </row>
     <row r="213" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="10" t="s">
-        <v>725</v>
+        <v>640</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>726</v>
+        <v>661</v>
       </c>
       <c r="D213" s="12" t="s">
         <v>540</v>
@@ -6293,10 +6281,10 @@
     </row>
     <row r="214" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A214" s="10" t="s">
-        <v>727</v>
+        <v>638</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>728</v>
+        <v>661</v>
       </c>
       <c r="D214" s="12" t="s">
         <v>540</v>
@@ -6310,10 +6298,10 @@
     </row>
     <row r="215" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="10" t="s">
-        <v>729</v>
+        <v>639</v>
       </c>
       <c r="B215" s="11" t="s">
-        <v>730</v>
+        <v>661</v>
       </c>
       <c r="D215" s="12" t="s">
         <v>540</v>
@@ -6327,7 +6315,7 @@
     </row>
     <row r="216" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B216" s="11" t="s">
         <v>661</v>
@@ -6344,7 +6332,7 @@
     </row>
     <row r="217" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A217" s="10" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B217" s="11" t="s">
         <v>661</v>
@@ -6361,7 +6349,7 @@
     </row>
     <row r="218" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A218" s="10" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B218" s="11" t="s">
         <v>661</v>
@@ -6378,16 +6366,16 @@
     </row>
     <row r="219" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A219" s="10" t="s">
-        <v>641</v>
+        <v>112</v>
       </c>
       <c r="B219" s="11" t="s">
-        <v>661</v>
+        <v>113</v>
       </c>
       <c r="D219" s="12" t="s">
-        <v>540</v>
+        <v>106</v>
       </c>
       <c r="F219" s="12" t="s">
-        <v>575</v>
+        <v>107</v>
       </c>
       <c r="H219" s="12" t="s">
         <v>4</v>
@@ -6395,16 +6383,16 @@
     </row>
     <row r="220" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A220" s="10" t="s">
-        <v>642</v>
+        <v>110</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>661</v>
+        <v>111</v>
       </c>
       <c r="D220" s="12" t="s">
-        <v>540</v>
+        <v>106</v>
       </c>
       <c r="F220" s="12" t="s">
-        <v>575</v>
+        <v>107</v>
       </c>
       <c r="H220" s="12" t="s">
         <v>4</v>
@@ -6412,27 +6400,30 @@
     </row>
     <row r="221" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A221" s="10" t="s">
-        <v>643</v>
+        <v>108</v>
       </c>
       <c r="B221" s="11" t="s">
-        <v>661</v>
+        <v>109</v>
       </c>
       <c r="D221" s="12" t="s">
-        <v>540</v>
+        <v>106</v>
       </c>
       <c r="F221" s="12" t="s">
-        <v>575</v>
+        <v>107</v>
       </c>
       <c r="H221" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="I221" s="12" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="222" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A222" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B222" s="11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D222" s="12" t="s">
         <v>106</v>
@@ -6446,10 +6437,10 @@
     </row>
     <row r="223" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A223" s="10" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B223" s="11" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D223" s="12" t="s">
         <v>106</v>
@@ -6463,10 +6454,10 @@
     </row>
     <row r="224" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A224" s="10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D224" s="12" t="s">
         <v>106</v>
@@ -6477,16 +6468,13 @@
       <c r="H224" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I224" s="12" t="s">
-        <v>653</v>
-      </c>
     </row>
     <row r="225" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A225" s="10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D225" s="12" t="s">
         <v>106</v>
@@ -6500,10 +6488,10 @@
     </row>
     <row r="226" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A226" s="10" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D226" s="12" t="s">
         <v>106</v>
@@ -6517,10 +6505,10 @@
     </row>
     <row r="227" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="10" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B227" s="11" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D227" s="12" t="s">
         <v>106</v>
@@ -6534,10 +6522,10 @@
     </row>
     <row r="228" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A228" s="10" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B228" s="11" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D228" s="12" t="s">
         <v>106</v>
@@ -6551,10 +6539,10 @@
     </row>
     <row r="229" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="10" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B229" s="11" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D229" s="12" t="s">
         <v>106</v>
@@ -6568,10 +6556,10 @@
     </row>
     <row r="230" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A230" s="10" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="D230" s="12" t="s">
         <v>106</v>
@@ -6585,10 +6573,10 @@
     </row>
     <row r="231" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A231" s="10" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D231" s="12" t="s">
         <v>106</v>
@@ -6602,10 +6590,10 @@
     </row>
     <row r="232" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A232" s="10" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="D232" s="12" t="s">
         <v>106</v>
@@ -6619,10 +6607,10 @@
     </row>
     <row r="233" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A233" s="10" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D233" s="12" t="s">
         <v>106</v>
@@ -6636,10 +6624,10 @@
     </row>
     <row r="234" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="10" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>132</v>
+        <v>31</v>
       </c>
       <c r="D234" s="12" t="s">
         <v>106</v>
@@ -6653,10 +6641,10 @@
     </row>
     <row r="235" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A235" s="10" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B235" s="11" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D235" s="12" t="s">
         <v>106</v>
@@ -6670,10 +6658,10 @@
     </row>
     <row r="236" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A236" s="10" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B236" s="11" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D236" s="12" t="s">
         <v>106</v>
@@ -6687,10 +6675,10 @@
     </row>
     <row r="237" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B237" s="11" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="D237" s="12" t="s">
         <v>106</v>
@@ -6704,10 +6692,10 @@
     </row>
     <row r="238" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="10" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B238" s="11" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="D238" s="12" t="s">
         <v>106</v>
@@ -6721,10 +6709,10 @@
     </row>
     <row r="239" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B239" s="11" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="D239" s="12" t="s">
         <v>106</v>
@@ -6738,10 +6726,10 @@
     </row>
     <row r="240" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A240" s="10" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B240" s="11" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D240" s="12" t="s">
         <v>106</v>
@@ -6755,10 +6743,10 @@
     </row>
     <row r="241" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A241" s="10" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B241" s="11" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D241" s="12" t="s">
         <v>106</v>
@@ -6772,10 +6760,10 @@
     </row>
     <row r="242" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A242" s="10" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D242" s="12" t="s">
         <v>106</v>
@@ -6789,10 +6777,10 @@
     </row>
     <row r="243" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A243" s="10" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B243" s="11" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D243" s="12" t="s">
         <v>106</v>
@@ -6806,10 +6794,10 @@
     </row>
     <row r="244" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A244" s="10" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B244" s="11" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D244" s="12" t="s">
         <v>106</v>
@@ -6823,10 +6811,10 @@
     </row>
     <row r="245" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A245" s="10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B245" s="11" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D245" s="12" t="s">
         <v>106</v>
@@ -6840,10 +6828,10 @@
     </row>
     <row r="246" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="10" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B246" s="11" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="D246" s="12" t="s">
         <v>106</v>
@@ -6857,10 +6845,10 @@
     </row>
     <row r="247" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="10" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B247" s="11" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D247" s="12" t="s">
         <v>106</v>
@@ -6874,10 +6862,10 @@
     </row>
     <row r="248" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="10" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B248" s="11" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="D248" s="12" t="s">
         <v>106</v>
@@ -6891,10 +6879,10 @@
     </row>
     <row r="249" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="10" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B249" s="11" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D249" s="12" t="s">
         <v>106</v>
@@ -6908,10 +6896,10 @@
     </row>
     <row r="250" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="10" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B250" s="11" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D250" s="12" t="s">
         <v>106</v>
@@ -6925,33 +6913,36 @@
     </row>
     <row r="251" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A251" s="10" t="s">
-        <v>164</v>
+        <v>475</v>
       </c>
       <c r="B251" s="11" t="s">
-        <v>165</v>
+        <v>476</v>
       </c>
       <c r="D251" s="12" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="F251" s="12" t="s">
-        <v>107</v>
+        <v>302</v>
       </c>
       <c r="H251" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="I251" s="12" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="252" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A252" s="10" t="s">
-        <v>166</v>
+        <v>477</v>
       </c>
       <c r="B252" s="11" t="s">
-        <v>167</v>
+        <v>478</v>
       </c>
       <c r="D252" s="12" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="F252" s="12" t="s">
-        <v>107</v>
+        <v>302</v>
       </c>
       <c r="H252" s="12" t="s">
         <v>4</v>
@@ -6959,16 +6950,16 @@
     </row>
     <row r="253" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A253" s="10" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="B253" s="11" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D253" s="12" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="F253" s="12" t="s">
-        <v>107</v>
+        <v>302</v>
       </c>
       <c r="H253" s="12" t="s">
         <v>4</v>
@@ -6976,10 +6967,10 @@
     </row>
     <row r="254" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A254" s="10" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B254" s="11" t="s">
-        <v>476</v>
+        <v>279</v>
       </c>
       <c r="D254" s="12" t="s">
         <v>132</v>
@@ -6990,16 +6981,13 @@
       <c r="H254" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I254" s="12" t="s">
-        <v>657</v>
-      </c>
     </row>
     <row r="255" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A255" s="10" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B255" s="11" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="D255" s="12" t="s">
         <v>132</v>
@@ -7013,10 +7001,10 @@
     </row>
     <row r="256" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A256" s="10" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B256" s="11" t="s">
-        <v>182</v>
+        <v>226</v>
       </c>
       <c r="D256" s="12" t="s">
         <v>132</v>
@@ -7030,10 +7018,10 @@
     </row>
     <row r="257" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A257" s="10" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B257" s="11" t="s">
-        <v>279</v>
+        <v>485</v>
       </c>
       <c r="D257" s="12" t="s">
         <v>132</v>
@@ -7047,10 +7035,10 @@
     </row>
     <row r="258" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A258" s="10" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B258" s="11" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="D258" s="12" t="s">
         <v>132</v>
@@ -7064,10 +7052,10 @@
     </row>
     <row r="259" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="10" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B259" s="11" t="s">
-        <v>226</v>
+        <v>489</v>
       </c>
       <c r="D259" s="12" t="s">
         <v>132</v>
@@ -7081,10 +7069,10 @@
     </row>
     <row r="260" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="10" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B260" s="11" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="D260" s="12" t="s">
         <v>132</v>
@@ -7098,10 +7086,10 @@
     </row>
     <row r="261" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A261" s="10" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B261" s="11" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="D261" s="12" t="s">
         <v>132</v>
@@ -7115,10 +7103,10 @@
     </row>
     <row r="262" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A262" s="10" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="B262" s="11" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="D262" s="12" t="s">
         <v>132</v>
@@ -7132,10 +7120,10 @@
     </row>
     <row r="263" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="10" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B263" s="11" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="D263" s="12" t="s">
         <v>132</v>
@@ -7149,10 +7137,10 @@
     </row>
     <row r="264" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A264" s="10" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B264" s="11" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="D264" s="12" t="s">
         <v>132</v>
@@ -7166,10 +7154,10 @@
     </row>
     <row r="265" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A265" s="10" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B265" s="11" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="D265" s="12" t="s">
         <v>132</v>
@@ -7183,10 +7171,10 @@
     </row>
     <row r="266" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A266" s="10" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B266" s="11" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="D266" s="12" t="s">
         <v>132</v>
@@ -7200,10 +7188,10 @@
     </row>
     <row r="267" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A267" s="10" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B267" s="11" t="s">
-        <v>499</v>
+        <v>281</v>
       </c>
       <c r="D267" s="12" t="s">
         <v>132</v>
@@ -7217,10 +7205,10 @@
     </row>
     <row r="268" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A268" s="10" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B268" s="11" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D268" s="12" t="s">
         <v>132</v>
@@ -7234,10 +7222,10 @@
     </row>
     <row r="269" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="10" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B269" s="11" t="s">
-        <v>503</v>
+        <v>188</v>
       </c>
       <c r="D269" s="12" t="s">
         <v>132</v>
@@ -7251,10 +7239,10 @@
     </row>
     <row r="270" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="10" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="B270" s="11" t="s">
-        <v>281</v>
+        <v>452</v>
       </c>
       <c r="D270" s="12" t="s">
         <v>132</v>
@@ -7268,10 +7256,10 @@
     </row>
     <row r="271" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A271" s="10" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B271" s="11" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="D271" s="12" t="s">
         <v>132</v>
@@ -7285,10 +7273,10 @@
     </row>
     <row r="272" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A272" s="10" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B272" s="11" t="s">
-        <v>188</v>
+        <v>469</v>
       </c>
       <c r="D272" s="12" t="s">
         <v>132</v>
@@ -7300,12 +7288,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="273" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="10" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B273" s="11" t="s">
-        <v>452</v>
+        <v>514</v>
       </c>
       <c r="D273" s="12" t="s">
         <v>132</v>
@@ -7317,12 +7305,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="274" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A274" s="10" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="B274" s="11" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="D274" s="12" t="s">
         <v>132</v>
@@ -7334,12 +7322,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="275" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="10" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="B275" s="11" t="s">
-        <v>469</v>
+        <v>518</v>
       </c>
       <c r="D275" s="12" t="s">
         <v>132</v>
@@ -7351,12 +7339,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="276" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A276" s="10" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="B276" s="11" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D276" s="12" t="s">
         <v>132</v>
@@ -7368,12 +7356,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="277" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A277" s="10" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
       <c r="B277" s="11" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="D277" s="12" t="s">
         <v>132</v>
@@ -7385,12 +7373,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="278" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A278" s="10" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B278" s="11" t="s">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="D278" s="12" t="s">
         <v>132</v>
@@ -7402,12 +7390,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="279" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A279" s="10" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B279" s="11" t="s">
-        <v>520</v>
+        <v>281</v>
       </c>
       <c r="D279" s="12" t="s">
         <v>132</v>
@@ -7419,12 +7407,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A280" s="10" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B280" s="11" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="D280" s="12" t="s">
         <v>132</v>
@@ -7436,12 +7424,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A281" s="10" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B281" s="11" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="D281" s="12" t="s">
         <v>132</v>
@@ -7453,12 +7441,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="10" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="B282" s="11" t="s">
-        <v>281</v>
+        <v>446</v>
       </c>
       <c r="D282" s="12" t="s">
         <v>132</v>
@@ -7470,12 +7458,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="283" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A283" s="10" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="B283" s="11" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="D283" s="12" t="s">
         <v>132</v>
@@ -7487,12 +7475,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="284" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A284" s="10" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="B284" s="11" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="D284" s="12" t="s">
         <v>132</v>
@@ -7504,12 +7492,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="285" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A285" s="10" t="s">
-        <v>532</v>
+        <v>537</v>
       </c>
       <c r="B285" s="11" t="s">
-        <v>446</v>
+        <v>538</v>
       </c>
       <c r="D285" s="12" t="s">
         <v>132</v>
@@ -7521,12 +7509,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A286" s="10" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B286" s="11" t="s">
-        <v>534</v>
+        <v>157</v>
       </c>
       <c r="D286" s="12" t="s">
         <v>132</v>
@@ -7538,63 +7526,66 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A287" s="10" t="s">
-        <v>535</v>
+        <v>662</v>
       </c>
       <c r="B287" s="11" t="s">
-        <v>536</v>
+        <v>425</v>
       </c>
       <c r="D287" s="12" t="s">
         <v>132</v>
       </c>
       <c r="F287" s="12" t="s">
-        <v>302</v>
+        <v>424</v>
       </c>
       <c r="H287" s="12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I287" s="12" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A288" s="10" t="s">
-        <v>537</v>
+        <v>426</v>
       </c>
       <c r="B288" s="11" t="s">
-        <v>538</v>
+        <v>12</v>
       </c>
       <c r="D288" s="12" t="s">
         <v>132</v>
       </c>
       <c r="F288" s="12" t="s">
-        <v>302</v>
+        <v>424</v>
       </c>
       <c r="H288" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="289" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A289" s="10" t="s">
-        <v>539</v>
+        <v>429</v>
       </c>
       <c r="B289" s="11" t="s">
-        <v>157</v>
+        <v>430</v>
       </c>
       <c r="D289" s="12" t="s">
         <v>132</v>
       </c>
       <c r="F289" s="12" t="s">
-        <v>302</v>
+        <v>424</v>
       </c>
       <c r="H289" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="290" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A290" s="10" t="s">
-        <v>662</v>
+        <v>431</v>
       </c>
       <c r="B290" s="11" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="D290" s="12" t="s">
         <v>132</v>
@@ -7605,16 +7596,13 @@
       <c r="H290" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I290" s="12" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="291" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="291" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A291" s="10" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B291" s="11" t="s">
-        <v>12</v>
+        <v>434</v>
       </c>
       <c r="D291" s="12" t="s">
         <v>132</v>
@@ -7626,12 +7614,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="292" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A292" s="10" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B292" s="11" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="D292" s="12" t="s">
         <v>132</v>
@@ -7643,12 +7631,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="293" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A293" s="10" t="s">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B293" s="11" t="s">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="D293" s="12" t="s">
         <v>132</v>
@@ -7660,12 +7648,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="294" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A294" s="10" t="s">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B294" s="11" t="s">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D294" s="12" t="s">
         <v>132</v>
@@ -7677,12 +7665,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="295" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A295" s="10" t="s">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B295" s="11" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="D295" s="12" t="s">
         <v>132</v>
@@ -7694,12 +7682,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="296" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A296" s="10" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B296" s="11" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="D296" s="12" t="s">
         <v>132</v>
@@ -7711,12 +7699,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="297" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="10" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
       <c r="B297" s="11" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="D297" s="12" t="s">
         <v>132</v>
@@ -7728,12 +7716,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="298" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="10" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B298" s="11" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="D298" s="12" t="s">
         <v>132</v>
@@ -7745,12 +7733,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="10" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B299" s="11" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="D299" s="12" t="s">
         <v>132</v>
@@ -7762,12 +7750,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="300" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="10" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="B300" s="11" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="D300" s="12" t="s">
         <v>132</v>
@@ -7779,12 +7767,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="301" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="10" t="s">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B301" s="11" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D301" s="12" t="s">
         <v>132</v>
@@ -7796,12 +7784,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="302" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="10" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B302" s="11" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="D302" s="12" t="s">
         <v>132</v>
@@ -7813,12 +7801,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="303" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="10" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B303" s="11" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="D303" s="12" t="s">
         <v>132</v>
@@ -7830,12 +7818,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="304" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A304" s="10" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B304" s="11" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="D304" s="12" t="s">
         <v>132</v>
@@ -7849,10 +7837,10 @@
     </row>
     <row r="305" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A305" s="10" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B305" s="11" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="D305" s="12" t="s">
         <v>132</v>
@@ -7866,10 +7854,10 @@
     </row>
     <row r="306" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A306" s="10" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B306" s="11" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="D306" s="12" t="s">
         <v>132</v>
@@ -7883,10 +7871,10 @@
     </row>
     <row r="307" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A307" s="10" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="D307" s="12" t="s">
         <v>132</v>
@@ -7900,10 +7888,10 @@
     </row>
     <row r="308" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A308" s="10" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="B308" s="11" t="s">
-        <v>460</v>
+        <v>116</v>
       </c>
       <c r="D308" s="12" t="s">
         <v>132</v>
@@ -7917,10 +7905,10 @@
     </row>
     <row r="309" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A309" s="10" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B309" s="11" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D309" s="12" t="s">
         <v>132</v>
@@ -7934,10 +7922,10 @@
     </row>
     <row r="310" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A310" s="10" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B310" s="11" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D310" s="12" t="s">
         <v>132</v>
@@ -7951,10 +7939,10 @@
     </row>
     <row r="311" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A311" s="10" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B311" s="11" t="s">
-        <v>116</v>
+        <v>471</v>
       </c>
       <c r="D311" s="12" t="s">
         <v>132</v>
@@ -7968,10 +7956,10 @@
     </row>
     <row r="312" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A312" s="10" t="s">
-        <v>466</v>
+        <v>663</v>
       </c>
       <c r="B312" s="11" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="D312" s="12" t="s">
         <v>132</v>
@@ -7985,10 +7973,10 @@
     </row>
     <row r="313" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A313" s="10" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="B313" s="11" t="s">
-        <v>469</v>
+        <v>216</v>
       </c>
       <c r="D313" s="12" t="s">
         <v>132</v>
@@ -8002,10 +7990,10 @@
     </row>
     <row r="314" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A314" s="10" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B314" s="11" t="s">
-        <v>471</v>
+        <v>358</v>
       </c>
       <c r="D314" s="12" t="s">
         <v>132</v>
@@ -8019,10 +8007,10 @@
     </row>
     <row r="315" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A315" s="10" t="s">
-        <v>663</v>
+        <v>696</v>
       </c>
       <c r="B315" s="11" t="s">
-        <v>472</v>
+        <v>699</v>
       </c>
       <c r="D315" s="12" t="s">
         <v>132</v>
@@ -8036,10 +8024,10 @@
     </row>
     <row r="316" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A316" s="10" t="s">
-        <v>473</v>
+        <v>697</v>
       </c>
       <c r="B316" s="11" t="s">
-        <v>216</v>
+        <v>698</v>
       </c>
       <c r="D316" s="12" t="s">
         <v>132</v>
@@ -8053,33 +8041,36 @@
     </row>
     <row r="317" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A317" s="10" t="s">
-        <v>474</v>
+        <v>303</v>
       </c>
       <c r="B317" s="11" t="s">
-        <v>358</v>
+        <v>304</v>
       </c>
       <c r="D317" s="12" t="s">
-        <v>132</v>
+        <v>301</v>
       </c>
       <c r="F317" s="12" t="s">
-        <v>424</v>
+        <v>302</v>
       </c>
       <c r="H317" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="I317" s="12" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A318" s="10" t="s">
-        <v>699</v>
+        <v>305</v>
       </c>
       <c r="B318" s="11" t="s">
-        <v>702</v>
+        <v>306</v>
       </c>
       <c r="D318" s="12" t="s">
-        <v>132</v>
+        <v>301</v>
       </c>
       <c r="F318" s="12" t="s">
-        <v>424</v>
+        <v>302</v>
       </c>
       <c r="H318" s="12" t="s">
         <v>4</v>
@@ -8087,16 +8078,16 @@
     </row>
     <row r="319" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A319" s="10" t="s">
-        <v>700</v>
+        <v>422</v>
       </c>
       <c r="B319" s="11" t="s">
-        <v>701</v>
+        <v>423</v>
       </c>
       <c r="D319" s="12" t="s">
-        <v>132</v>
+        <v>301</v>
       </c>
       <c r="F319" s="12" t="s">
-        <v>424</v>
+        <v>302</v>
       </c>
       <c r="H319" s="12" t="s">
         <v>4</v>
@@ -8104,10 +8095,10 @@
     </row>
     <row r="320" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="10" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B320" s="11" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="D320" s="12" t="s">
         <v>301</v>
@@ -8118,16 +8109,13 @@
       <c r="H320" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I320" s="12" t="s">
-        <v>655</v>
-      </c>
     </row>
     <row r="321" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A321" s="10" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B321" s="11" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D321" s="12" t="s">
         <v>301</v>
@@ -8141,10 +8129,10 @@
     </row>
     <row r="322" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A322" s="10" t="s">
-        <v>422</v>
+        <v>311</v>
       </c>
       <c r="B322" s="11" t="s">
-        <v>423</v>
+        <v>312</v>
       </c>
       <c r="D322" s="12" t="s">
         <v>301</v>
@@ -8158,10 +8146,10 @@
     </row>
     <row r="323" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A323" s="10" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B323" s="11" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D323" s="12" t="s">
         <v>301</v>
@@ -8175,10 +8163,10 @@
     </row>
     <row r="324" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="10" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B324" s="11" t="s">
-        <v>310</v>
+        <v>12</v>
       </c>
       <c r="D324" s="12" t="s">
         <v>301</v>
@@ -8192,10 +8180,10 @@
     </row>
     <row r="325" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A325" s="10" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B325" s="11" t="s">
-        <v>312</v>
+        <v>228</v>
       </c>
       <c r="D325" s="12" t="s">
         <v>301</v>
@@ -8209,10 +8197,10 @@
     </row>
     <row r="326" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A326" s="10" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B326" s="11" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="D326" s="12" t="s">
         <v>301</v>
@@ -8226,10 +8214,10 @@
     </row>
     <row r="327" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="10" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B327" s="11" t="s">
-        <v>12</v>
+        <v>320</v>
       </c>
       <c r="D327" s="12" t="s">
         <v>301</v>
@@ -8243,10 +8231,10 @@
     </row>
     <row r="328" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="10" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B328" s="11" t="s">
-        <v>228</v>
+        <v>322</v>
       </c>
       <c r="D328" s="12" t="s">
         <v>301</v>
@@ -8260,10 +8248,10 @@
     </row>
     <row r="329" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A329" s="10" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B329" s="11" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D329" s="12" t="s">
         <v>301</v>
@@ -8277,10 +8265,10 @@
     </row>
     <row r="330" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="10" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B330" s="11" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="D330" s="12" t="s">
         <v>301</v>
@@ -8294,10 +8282,10 @@
     </row>
     <row r="331" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="10" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B331" s="11" t="s">
-        <v>322</v>
+        <v>69</v>
       </c>
       <c r="D331" s="12" t="s">
         <v>301</v>
@@ -8311,10 +8299,10 @@
     </row>
     <row r="332" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A332" s="10" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B332" s="11" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="D332" s="12" t="s">
         <v>301</v>
@@ -8328,10 +8316,10 @@
     </row>
     <row r="333" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A333" s="10" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B333" s="11" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="D333" s="12" t="s">
         <v>301</v>
@@ -8345,10 +8333,10 @@
     </row>
     <row r="334" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A334" s="10" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B334" s="11" t="s">
-        <v>69</v>
+        <v>333</v>
       </c>
       <c r="D334" s="12" t="s">
         <v>301</v>
@@ -8362,10 +8350,10 @@
     </row>
     <row r="335" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A335" s="10" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B335" s="11" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="D335" s="12" t="s">
         <v>301</v>
@@ -8379,10 +8367,10 @@
     </row>
     <row r="336" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A336" s="10" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B336" s="11" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="D336" s="12" t="s">
         <v>301</v>
@@ -8396,10 +8384,10 @@
     </row>
     <row r="337" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A337" s="10" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B337" s="11" t="s">
-        <v>333</v>
+        <v>665</v>
       </c>
       <c r="D337" s="12" t="s">
         <v>301</v>
@@ -8413,10 +8401,10 @@
     </row>
     <row r="338" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A338" s="10" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="B338" s="11" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="D338" s="12" t="s">
         <v>301</v>
@@ -8430,10 +8418,10 @@
     </row>
     <row r="339" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A339" s="10" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B339" s="11" t="s">
-        <v>337</v>
+        <v>224</v>
       </c>
       <c r="D339" s="12" t="s">
         <v>301</v>
@@ -8447,10 +8435,10 @@
     </row>
     <row r="340" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A340" s="10" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B340" s="11" t="s">
-        <v>665</v>
+        <v>243</v>
       </c>
       <c r="D340" s="12" t="s">
         <v>301</v>
@@ -8464,10 +8452,10 @@
     </row>
     <row r="341" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A341" s="10" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B341" s="11" t="s">
-        <v>340</v>
+        <v>41</v>
       </c>
       <c r="D341" s="12" t="s">
         <v>301</v>
@@ -8481,10 +8469,10 @@
     </row>
     <row r="342" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A342" s="10" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B342" s="11" t="s">
-        <v>224</v>
+        <v>345</v>
       </c>
       <c r="D342" s="12" t="s">
         <v>301</v>
@@ -8498,10 +8486,10 @@
     </row>
     <row r="343" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A343" s="10" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B343" s="11" t="s">
-        <v>243</v>
+        <v>151</v>
       </c>
       <c r="D343" s="12" t="s">
         <v>301</v>
@@ -8515,10 +8503,10 @@
     </row>
     <row r="344" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A344" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B344" s="11" t="s">
-        <v>41</v>
+        <v>348</v>
       </c>
       <c r="D344" s="12" t="s">
         <v>301</v>
@@ -8532,10 +8520,10 @@
     </row>
     <row r="345" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A345" s="10" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="B345" s="11" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="D345" s="12" t="s">
         <v>301</v>
@@ -8549,10 +8537,10 @@
     </row>
     <row r="346" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A346" s="10" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="B346" s="11" t="s">
-        <v>151</v>
+        <v>352</v>
       </c>
       <c r="D346" s="12" t="s">
         <v>301</v>
@@ -8566,10 +8554,10 @@
     </row>
     <row r="347" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A347" s="10" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B347" s="11" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D347" s="12" t="s">
         <v>301</v>
@@ -8583,10 +8571,10 @@
     </row>
     <row r="348" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A348" s="10" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B348" s="11" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="D348" s="12" t="s">
         <v>301</v>
@@ -8600,10 +8588,10 @@
     </row>
     <row r="349" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A349" s="10" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B349" s="11" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="D349" s="12" t="s">
         <v>301</v>
@@ -8617,10 +8605,10 @@
     </row>
     <row r="350" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A350" s="10" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B350" s="11" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="D350" s="12" t="s">
         <v>301</v>
@@ -8634,10 +8622,10 @@
     </row>
     <row r="351" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A351" s="10" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B351" s="11" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D351" s="12" t="s">
         <v>301</v>
@@ -8651,10 +8639,10 @@
     </row>
     <row r="352" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A352" s="10" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B352" s="11" t="s">
-        <v>358</v>
+        <v>39</v>
       </c>
       <c r="D352" s="12" t="s">
         <v>301</v>
@@ -8668,10 +8656,10 @@
     </row>
     <row r="353" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A353" s="10" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B353" s="11" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D353" s="12" t="s">
         <v>301</v>
@@ -8685,10 +8673,10 @@
     </row>
     <row r="354" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A354" s="10" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B354" s="11" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="D354" s="12" t="s">
         <v>301</v>
@@ -8702,10 +8690,10 @@
     </row>
     <row r="355" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A355" s="10" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="B355" s="11" t="s">
-        <v>39</v>
+        <v>369</v>
       </c>
       <c r="D355" s="12" t="s">
         <v>301</v>
@@ -8719,10 +8707,10 @@
     </row>
     <row r="356" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A356" s="10" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B356" s="11" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="D356" s="12" t="s">
         <v>301</v>
@@ -8736,10 +8724,10 @@
     </row>
     <row r="357" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A357" s="10" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B357" s="11" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="D357" s="12" t="s">
         <v>301</v>
@@ -8753,10 +8741,10 @@
     </row>
     <row r="358" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A358" s="10" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B358" s="11" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="D358" s="12" t="s">
         <v>301</v>
@@ -8770,10 +8758,10 @@
     </row>
     <row r="359" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A359" s="10" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B359" s="11" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="D359" s="12" t="s">
         <v>301</v>
@@ -8787,10 +8775,10 @@
     </row>
     <row r="360" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A360" s="10" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B360" s="11" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="D360" s="12" t="s">
         <v>301</v>
@@ -8804,10 +8792,10 @@
     </row>
     <row r="361" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A361" s="10" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B361" s="11" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="D361" s="12" t="s">
         <v>301</v>
@@ -8821,10 +8809,10 @@
     </row>
     <row r="362" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A362" s="10" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B362" s="11" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="D362" s="12" t="s">
         <v>301</v>
@@ -8838,10 +8826,10 @@
     </row>
     <row r="363" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A363" s="10" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B363" s="11" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="D363" s="12" t="s">
         <v>301</v>
@@ -8855,10 +8843,10 @@
     </row>
     <row r="364" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A364" s="10" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B364" s="11" t="s">
-        <v>381</v>
+        <v>194</v>
       </c>
       <c r="D364" s="12" t="s">
         <v>301</v>
@@ -8872,10 +8860,10 @@
     </row>
     <row r="365" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A365" s="10" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B365" s="11" t="s">
-        <v>383</v>
+        <v>149</v>
       </c>
       <c r="D365" s="12" t="s">
         <v>301</v>
@@ -8889,10 +8877,10 @@
     </row>
     <row r="366" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A366" s="10" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B366" s="11" t="s">
-        <v>385</v>
+        <v>300</v>
       </c>
       <c r="D366" s="12" t="s">
         <v>301</v>
@@ -8906,10 +8894,10 @@
     </row>
     <row r="367" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A367" s="10" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B367" s="11" t="s">
-        <v>194</v>
+        <v>390</v>
       </c>
       <c r="D367" s="12" t="s">
         <v>301</v>
@@ -8923,10 +8911,10 @@
     </row>
     <row r="368" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A368" s="10" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B368" s="11" t="s">
-        <v>149</v>
+        <v>271</v>
       </c>
       <c r="D368" s="12" t="s">
         <v>301</v>
@@ -8940,10 +8928,10 @@
     </row>
     <row r="369" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A369" s="10" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B369" s="11" t="s">
-        <v>300</v>
+        <v>393</v>
       </c>
       <c r="D369" s="12" t="s">
         <v>301</v>
@@ -8957,10 +8945,10 @@
     </row>
     <row r="370" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A370" s="10" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B370" s="11" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="D370" s="12" t="s">
         <v>301</v>
@@ -8974,10 +8962,10 @@
     </row>
     <row r="371" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A371" s="10" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="B371" s="11" t="s">
-        <v>271</v>
+        <v>397</v>
       </c>
       <c r="D371" s="12" t="s">
         <v>301</v>
@@ -8991,10 +8979,10 @@
     </row>
     <row r="372" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A372" s="10" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B372" s="11" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="D372" s="12" t="s">
         <v>301</v>
@@ -9008,10 +8996,10 @@
     </row>
     <row r="373" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A373" s="10" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B373" s="11" t="s">
-        <v>395</v>
+        <v>331</v>
       </c>
       <c r="D373" s="12" t="s">
         <v>301</v>
@@ -9025,10 +9013,10 @@
     </row>
     <row r="374" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A374" s="10" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B374" s="11" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="D374" s="12" t="s">
         <v>301</v>
@@ -9042,10 +9030,10 @@
     </row>
     <row r="375" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A375" s="10" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B375" s="11" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="D375" s="12" t="s">
         <v>301</v>
@@ -9059,10 +9047,10 @@
     </row>
     <row r="376" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A376" s="10" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B376" s="11" t="s">
-        <v>331</v>
+        <v>406</v>
       </c>
       <c r="D376" s="12" t="s">
         <v>301</v>
@@ -9076,10 +9064,10 @@
     </row>
     <row r="377" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A377" s="10" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B377" s="11" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="D377" s="12" t="s">
         <v>301</v>
@@ -9093,10 +9081,10 @@
     </row>
     <row r="378" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A378" s="10" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B378" s="11" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="D378" s="12" t="s">
         <v>301</v>
@@ -9110,10 +9098,10 @@
     </row>
     <row r="379" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A379" s="10" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B379" s="11" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="D379" s="12" t="s">
         <v>301</v>
@@ -9127,10 +9115,10 @@
     </row>
     <row r="380" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A380" s="10" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B380" s="11" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="D380" s="12" t="s">
         <v>301</v>
@@ -9144,10 +9132,10 @@
     </row>
     <row r="381" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A381" s="10" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B381" s="11" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="D381" s="12" t="s">
         <v>301</v>
@@ -9161,10 +9149,10 @@
     </row>
     <row r="382" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A382" s="10" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B382" s="11" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="D382" s="12" t="s">
         <v>301</v>
@@ -9178,10 +9166,10 @@
     </row>
     <row r="383" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="10" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B383" s="11" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="D383" s="12" t="s">
         <v>301</v>
@@ -9193,53 +9181,59 @@
         <v>4</v>
       </c>
     </row>
-    <row r="384" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="B384" s="11" t="s">
-        <v>416</v>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A384" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="B384" s="8" t="s">
+        <v>702</v>
       </c>
       <c r="D384" s="12" t="s">
         <v>301</v>
       </c>
+      <c r="E384" s="12"/>
       <c r="F384" s="12" t="s">
         <v>302</v>
       </c>
+      <c r="G384" s="12"/>
       <c r="H384" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="385" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="10" t="s">
-        <v>417</v>
-      </c>
-      <c r="B385" s="11" t="s">
-        <v>418</v>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A385" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="B385" s="8" t="s">
+        <v>701</v>
       </c>
       <c r="D385" s="12" t="s">
         <v>301</v>
       </c>
+      <c r="E385" s="12"/>
       <c r="F385" s="12" t="s">
         <v>302</v>
       </c>
+      <c r="G385" s="12"/>
       <c r="H385" s="12" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="386" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="B386" s="11" t="s">
-        <v>421</v>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A386" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="B386" s="8" t="s">
+        <v>700</v>
       </c>
       <c r="D386" s="12" t="s">
         <v>301</v>
       </c>
+      <c r="E386" s="12"/>
       <c r="F386" s="12" t="s">
         <v>302</v>
       </c>
+      <c r="G386" s="12"/>
       <c r="H386" s="12" t="s">
         <v>4</v>
       </c>
@@ -9249,7 +9243,7 @@
         <v>687</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>705</v>
+        <v>226</v>
       </c>
       <c r="D387" s="12" t="s">
         <v>301</v>
@@ -9263,65 +9257,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A388" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="B388" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="D388" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="E388" s="12"/>
-      <c r="F388" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="G388" s="12"/>
-      <c r="H388" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A389" s="5" t="s">
-        <v>689</v>
-      </c>
-      <c r="B389" s="8" t="s">
-        <v>703</v>
-      </c>
-      <c r="D389" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="E389" s="12"/>
-      <c r="F389" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="G389" s="12"/>
-      <c r="H389" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A390" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="B390" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D390" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="E390" s="12"/>
-      <c r="F390" s="12" t="s">
-        <v>302</v>
-      </c>
-      <c r="G390" s="12"/>
-      <c r="H390" s="12" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I386">
+  <autoFilter ref="A1:I383">
     <sortState ref="A2:H372">
       <sortCondition ref="D2:D372"/>
       <sortCondition ref="F2:F372"/>
